--- a/F1_spread.xlsx
+++ b/F1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0321159-D372-416B-8DC3-FAF6C7A409FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C396D51-F979-4989-9D64-CA425854AE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="259">
   <si>
     <t>Div</t>
   </si>
@@ -180,58 +180,193 @@
     <t>GoalsXcornerXbookings</t>
   </si>
   <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>289</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>975</t>
   </si>
   <si>
     <t>F1</t>
@@ -324,15 +459,18 @@
     <t>2-1</t>
   </si>
   <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
     <t>3-2</t>
   </si>
   <si>
     <t>2-4</t>
   </si>
   <si>
-    <t>2-2</t>
-  </si>
-  <si>
     <t>5-1</t>
   </si>
   <si>
@@ -345,6 +483,27 @@
     <t>3-3</t>
   </si>
   <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
     <t>10-10</t>
   </si>
   <si>
@@ -375,9 +534,6 @@
     <t>5-5</t>
   </si>
   <si>
-    <t>5-3</t>
-  </si>
-  <si>
     <t>0-9</t>
   </si>
   <si>
@@ -390,6 +546,72 @@
     <t>11-0</t>
   </si>
   <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>0-8</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>8-8</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -448,12 +670,150 @@
   </si>
   <si>
     <t>Lens-Rennes</t>
+  </si>
+  <si>
+    <t>Nantes-Monaco</t>
+  </si>
+  <si>
+    <t>Marseille-Brest</t>
+  </si>
+  <si>
+    <t>Paris SG-Lens</t>
+  </si>
+  <si>
+    <t>Rennes-Le Havre</t>
+  </si>
+  <si>
+    <t>Clermont-Metz</t>
+  </si>
+  <si>
+    <t>Montpellier-Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg-Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient-Lille</t>
+  </si>
+  <si>
+    <t>Nice-Lyon</t>
+  </si>
+  <si>
+    <t>Nantes-Marseille</t>
+  </si>
+  <si>
+    <t>Brest-Rennes</t>
+  </si>
+  <si>
+    <t>Monaco-Lens</t>
+  </si>
+  <si>
+    <t>Toulouse-Clermont</t>
+  </si>
+  <si>
+    <t>Le Havre-Lorient</t>
+  </si>
+  <si>
+    <t>Lille-Montpellier</t>
+  </si>
+  <si>
+    <t>Metz-Reims</t>
+  </si>
+  <si>
+    <t>Nice-Strasbourg</t>
+  </si>
+  <si>
+    <t>Lyon-Paris SG</t>
+  </si>
+  <si>
+    <t>Paris SG-Nice</t>
+  </si>
+  <si>
+    <t>Rennes-Lille</t>
+  </si>
+  <si>
+    <t>Lens-Metz</t>
+  </si>
+  <si>
+    <t>Lorient-Monaco</t>
+  </si>
+  <si>
+    <t>Clermont-Nantes</t>
+  </si>
+  <si>
+    <t>Reims-Brest</t>
+  </si>
+  <si>
+    <t>Strasbourg-Montpellier</t>
+  </si>
+  <si>
+    <t>Marseille-Toulouse</t>
+  </si>
+  <si>
+    <t>Lyon-Le Havre</t>
+  </si>
+  <si>
+    <t>Monaco-Nice</t>
+  </si>
+  <si>
+    <t>Nantes-Lorient</t>
+  </si>
+  <si>
+    <t>Brest-Lyon</t>
+  </si>
+  <si>
+    <t>Metz-Strasbourg</t>
+  </si>
+  <si>
+    <t>Le Havre-Clermont</t>
+  </si>
+  <si>
+    <t>Lens-Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier-Rennes</t>
+  </si>
+  <si>
+    <t>Paris SG-Marseille</t>
+  </si>
+  <si>
+    <t>Lille-Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg-Lens</t>
+  </si>
+  <si>
+    <t>Clermont-Paris SG</t>
+  </si>
+  <si>
+    <t>Monaco-Marseille</t>
+  </si>
+  <si>
+    <t>Reims-Lyon</t>
+  </si>
+  <si>
+    <t>Le Havre-Lille</t>
+  </si>
+  <si>
+    <t>Nice-Brest</t>
+  </si>
+  <si>
+    <t>Toulouse-Metz</t>
+  </si>
+  <si>
+    <t>Lorient-Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes-Nantes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,7 +845,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,39 +1160,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="AO20" sqref="AO20"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AB32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AO65" sqref="AO65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1003,16 +1370,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1">
         <v>45149</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1021,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1030,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L2">
         <v>2.63</v>
@@ -1042,10 +1409,10 @@
         <v>2.83</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>8</v>
@@ -1093,16 +1460,16 @@
         <v>22</v>
       </c>
       <c r="AF2" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="AG2" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH2" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AI2" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -1111,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="AM2">
         <v>108</v>
@@ -1135,22 +1502,18 @@
         <v>300</v>
       </c>
       <c r="AT2">
-        <f>AO2*AP2</f>
         <v>2100</v>
       </c>
       <c r="AU2">
         <v>12</v>
       </c>
       <c r="AV2">
-        <f>AN2*AO2</f>
         <v>84</v>
       </c>
       <c r="AW2">
-        <f>AO2*AD2</f>
         <v>252</v>
       </c>
       <c r="AX2">
-        <f>AM2*AD2</f>
         <v>648</v>
       </c>
       <c r="AY2">
@@ -1162,16 +1525,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1">
         <v>45150</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1180,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1189,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="L3">
         <v>1.73</v>
@@ -1201,10 +1564,10 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>14</v>
@@ -1252,16 +1615,16 @@
         <v>23</v>
       </c>
       <c r="AF3" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH3" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI3" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1270,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="AM3">
         <v>106</v>
@@ -1294,22 +1657,18 @@
         <v>800</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT19" si="0">AO3*AP3</f>
         <v>960</v>
       </c>
       <c r="AU3">
         <v>60</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV19" si="1">AN3*AO3</f>
         <v>72</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW19" si="2">AO3*AD3</f>
         <v>480</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX19" si="3">AM3*AD3</f>
         <v>2120</v>
       </c>
       <c r="AY3">
@@ -1321,16 +1680,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1">
         <v>45150</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1339,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1348,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="L4">
         <v>1.35</v>
@@ -1360,10 +1719,10 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>20</v>
@@ -1411,16 +1770,16 @@
         <v>14</v>
       </c>
       <c r="AF4" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="AG4" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AH4" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AI4" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1429,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1453,22 +1812,18 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY4">
@@ -1480,16 +1835,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1">
         <v>45151</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1498,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1507,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L5">
         <v>4.01</v>
@@ -1519,10 +1874,10 @@
         <v>1.99</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>15</v>
@@ -1570,16 +1925,16 @@
         <v>28</v>
       </c>
       <c r="AF5" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="AG5" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH5" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI5" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AJ5">
         <v>5</v>
@@ -1588,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="AM5">
         <v>221</v>
@@ -1612,22 +1967,18 @@
         <v>1050</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
         <v>4275</v>
       </c>
       <c r="AU5">
         <v>70</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="1"/>
         <v>285</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="2"/>
         <v>798</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="3"/>
         <v>3094</v>
       </c>
       <c r="AY5">
@@ -1639,16 +1990,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1">
         <v>45151</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1657,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1666,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L6">
         <v>3.69</v>
@@ -1678,10 +2029,10 @@
         <v>2.02</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>15</v>
@@ -1729,16 +2080,16 @@
         <v>23</v>
       </c>
       <c r="AF6" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="AG6" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH6" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI6" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -1747,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AM6">
         <v>285</v>
@@ -1771,22 +2122,18 @@
         <v>320</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="0"/>
         <v>2280</v>
       </c>
       <c r="AU6">
         <v>48</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="1"/>
         <v>342</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="2"/>
         <v>456</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="3"/>
         <v>2280</v>
       </c>
       <c r="AY6">
@@ -1798,16 +2145,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1">
         <v>45151</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1816,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1825,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L7">
         <v>2.04</v>
@@ -1837,10 +2184,10 @@
         <v>3.99</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>15</v>
@@ -1888,16 +2235,16 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="AG7" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH7" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI7" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AJ7">
         <v>3</v>
@@ -1906,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="AM7">
         <v>213</v>
@@ -1930,22 +2277,18 @@
         <v>210</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="0"/>
         <v>1470</v>
       </c>
       <c r="AU7">
         <v>28</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
         <v>343</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="3"/>
         <v>1491</v>
       </c>
       <c r="AY7">
@@ -1957,16 +2300,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1">
         <v>45151</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1975,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1984,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L8">
         <v>2.66</v>
@@ -1996,10 +2339,10 @@
         <v>2.82</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2047,16 +2390,16 @@
         <v>28</v>
       </c>
       <c r="AF8" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="AG8" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI8" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ8">
         <v>4</v>
@@ -2065,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="AM8">
         <v>165</v>
@@ -2089,22 +2432,18 @@
         <v>480</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="AU8">
         <v>36</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="3"/>
         <v>1980</v>
       </c>
       <c r="AY8">
@@ -2116,16 +2455,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1">
         <v>45151</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -2134,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2143,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>1.42</v>
@@ -2155,10 +2494,10 @@
         <v>7.64</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>29</v>
@@ -2206,16 +2545,16 @@
         <v>17</v>
       </c>
       <c r="AF9" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="AG9" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH9" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI9" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AJ9">
         <v>2</v>
@@ -2224,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="AM9">
         <v>249</v>
@@ -2248,22 +2587,18 @@
         <v>180</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="0"/>
         <v>2320</v>
       </c>
       <c r="AU9">
         <v>54</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="1"/>
         <v>696</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="2"/>
         <v>1044</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="3"/>
         <v>2241</v>
       </c>
       <c r="AY9">
@@ -2275,16 +2610,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1">
         <v>45151</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2293,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2302,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="L10">
         <v>2.61</v>
@@ -2314,10 +2649,10 @@
         <v>2.76</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -2365,16 +2700,16 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="AG10" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH10" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI10" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ10">
         <v>4</v>
@@ -2383,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="AM10">
         <v>226</v>
@@ -2407,22 +2742,18 @@
         <v>280</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="0"/>
         <v>1280</v>
       </c>
       <c r="AU10">
         <v>21</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="3"/>
         <v>1582</v>
       </c>
       <c r="AY10">
@@ -2434,16 +2765,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1">
         <v>45156</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2452,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2461,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L11">
         <v>4.96</v>
@@ -2473,10 +2804,10 @@
         <v>1.72</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -2524,16 +2855,16 @@
         <v>24</v>
       </c>
       <c r="AF11" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="AG11" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH11" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI11" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AJ11">
         <v>5</v>
@@ -2542,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="AL11" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="AM11">
         <v>232</v>
@@ -2566,22 +2897,18 @@
         <v>975</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="0"/>
         <v>5175</v>
       </c>
       <c r="AU11">
         <v>52</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="2"/>
         <v>897</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="3"/>
         <v>3016</v>
       </c>
       <c r="AY11">
@@ -2593,16 +2920,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1">
         <v>45157</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2611,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2620,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L12">
         <v>1.72</v>
@@ -2632,10 +2959,10 @@
         <v>4.67</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -2683,16 +3010,16 @@
         <v>30</v>
       </c>
       <c r="AF12" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH12" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI12" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AJ12">
         <v>5</v>
@@ -2701,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="AM12">
         <v>283</v>
@@ -2725,22 +3052,18 @@
         <v>600</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="0"/>
         <v>3225</v>
       </c>
       <c r="AU12">
         <v>40</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="1"/>
         <v>215</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="2"/>
         <v>344</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="3"/>
         <v>2264</v>
       </c>
       <c r="AY12">
@@ -2752,16 +3075,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1">
         <v>45157</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2770,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2779,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="L13">
         <v>5.01</v>
@@ -2791,10 +3114,10 @@
         <v>1.68</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -2842,16 +3165,16 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH13" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AI13" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -2860,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="AM13">
         <v>145</v>
@@ -2884,22 +3207,18 @@
         <v>300</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="AU13">
         <v>20</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="3"/>
         <v>1450</v>
       </c>
       <c r="AY13">
@@ -2911,16 +3230,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1">
         <v>45158</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2929,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2938,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="L14">
         <v>1.43</v>
@@ -2950,10 +3269,10 @@
         <v>7.54</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3001,16 +3320,16 @@
         <v>23</v>
       </c>
       <c r="AF14" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH14" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AI14" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ14">
         <v>2</v>
@@ -3019,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="AL14" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="AM14">
         <v>156</v>
@@ -3043,22 +3362,18 @@
         <v>540</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="AU14">
         <v>24</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="3"/>
         <v>1872</v>
       </c>
       <c r="AY14">
@@ -3070,16 +3385,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1">
         <v>45158</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3088,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3097,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="L15">
         <v>2.82</v>
@@ -3109,10 +3424,10 @@
         <v>2.76</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>18</v>
@@ -3160,16 +3475,16 @@
         <v>33</v>
       </c>
       <c r="AF15" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="AG15" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH15" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI15" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ15">
         <v>2</v>
@@ -3178,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="AM15">
         <v>136</v>
@@ -3202,22 +3517,18 @@
         <v>160</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="AU15">
         <v>24</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="3"/>
         <v>1088</v>
       </c>
       <c r="AY15">
@@ -3229,16 +3540,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1">
         <v>45158</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3247,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3256,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="L16">
         <v>3.49</v>
@@ -3268,10 +3579,10 @@
         <v>2.19</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="P16" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -3319,16 +3630,16 @@
         <v>18</v>
       </c>
       <c r="AF16" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH16" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AI16" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ16">
         <v>2</v>
@@ -3337,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="AM16">
         <v>141</v>
@@ -3361,22 +3672,18 @@
         <v>180</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="0"/>
         <v>1160</v>
       </c>
       <c r="AU16">
         <v>18</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="2"/>
         <v>522</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="3"/>
         <v>1269</v>
       </c>
       <c r="AY16">
@@ -3388,16 +3695,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>45158</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -3406,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3415,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L17">
         <v>1.93</v>
@@ -3427,10 +3734,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -3478,16 +3785,16 @@
         <v>15</v>
       </c>
       <c r="AF17" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH17" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AI17" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3496,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="AM17">
         <v>101</v>
@@ -3520,22 +3827,18 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU17">
         <v>26</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="2"/>
         <v>299</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="3"/>
         <v>1313</v>
       </c>
       <c r="AY17">
@@ -3547,16 +3850,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1">
         <v>45158</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3565,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -3574,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L18">
         <v>1.84</v>
@@ -3586,10 +3889,10 @@
         <v>4.13</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -3637,16 +3940,16 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH18" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AI18" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ18">
         <v>3</v>
@@ -3655,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AM18">
         <v>114</v>
@@ -3679,22 +3982,18 @@
         <v>210</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
       <c r="AU18">
         <v>21</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="2"/>
         <v>322</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="3"/>
         <v>798</v>
       </c>
       <c r="AY18">
@@ -3706,16 +4005,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1">
         <v>45158</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3724,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3733,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="L19">
         <v>2.42</v>
@@ -3745,10 +4044,10 @@
         <v>2.86</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="P19" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -3796,16 +4095,16 @@
         <v>25</v>
       </c>
       <c r="AF19" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="AH19" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AI19" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="AJ19">
         <v>3</v>
@@ -3814,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="AM19">
         <v>56</v>
@@ -3838,26 +4137,7037 @@
         <v>330</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="0"/>
         <v>510</v>
       </c>
       <c r="AU19">
         <v>22</v>
       </c>
       <c r="AV19">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="AW19">
-        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="3"/>
         <v>616</v>
       </c>
       <c r="AY19">
         <v>660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20">
+        <v>4.87</v>
+      </c>
+      <c r="M20">
+        <v>3.81</v>
+      </c>
+      <c r="N20">
+        <v>1.79</v>
+      </c>
+      <c r="O20" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>27</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <v>6</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ20">
+        <v>4</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM20">
+        <v>239</v>
+      </c>
+      <c r="AN20">
+        <v>6</v>
+      </c>
+      <c r="AO20">
+        <v>120</v>
+      </c>
+      <c r="AP20">
+        <v>40</v>
+      </c>
+      <c r="AQ20">
+        <v>400</v>
+      </c>
+      <c r="AR20">
+        <v>240</v>
+      </c>
+      <c r="AS20">
+        <v>440</v>
+      </c>
+      <c r="AT20">
+        <v>4800</v>
+      </c>
+      <c r="AU20">
+        <v>66</v>
+      </c>
+      <c r="AV20">
+        <v>720</v>
+      </c>
+      <c r="AW20">
+        <v>1320</v>
+      </c>
+      <c r="AX20">
+        <v>2629</v>
+      </c>
+      <c r="AY20">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45164</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21">
+        <v>1.53</v>
+      </c>
+      <c r="M21">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="N21">
+        <v>6.43</v>
+      </c>
+      <c r="O21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>18</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>10</v>
+      </c>
+      <c r="AA21">
+        <v>4</v>
+      </c>
+      <c r="AB21">
+        <v>8</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+      <c r="AD21">
+        <v>13</v>
+      </c>
+      <c r="AE21">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM21">
+        <v>69</v>
+      </c>
+      <c r="AN21">
+        <v>2</v>
+      </c>
+      <c r="AO21">
+        <v>122</v>
+      </c>
+      <c r="AP21">
+        <v>10</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>20</v>
+      </c>
+      <c r="AS21">
+        <v>130</v>
+      </c>
+      <c r="AT21">
+        <v>1220</v>
+      </c>
+      <c r="AU21">
+        <v>26</v>
+      </c>
+      <c r="AV21">
+        <v>244</v>
+      </c>
+      <c r="AW21">
+        <v>1586</v>
+      </c>
+      <c r="AX21">
+        <v>897</v>
+      </c>
+      <c r="AY21">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45164</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22">
+        <v>1.63</v>
+      </c>
+      <c r="M22">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="N22">
+        <v>5.45</v>
+      </c>
+      <c r="O22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>8</v>
+      </c>
+      <c r="AB22">
+        <v>16</v>
+      </c>
+      <c r="AC22">
+        <v>4</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>24</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ22">
+        <v>5</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM22">
+        <v>277</v>
+      </c>
+      <c r="AN22">
+        <v>4</v>
+      </c>
+      <c r="AO22">
+        <v>52</v>
+      </c>
+      <c r="AP22">
+        <v>50</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>200</v>
+      </c>
+      <c r="AS22">
+        <v>500</v>
+      </c>
+      <c r="AT22">
+        <v>2600</v>
+      </c>
+      <c r="AU22">
+        <v>40</v>
+      </c>
+      <c r="AV22">
+        <v>208</v>
+      </c>
+      <c r="AW22">
+        <v>520</v>
+      </c>
+      <c r="AX22">
+        <v>2770</v>
+      </c>
+      <c r="AY22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45165</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23">
+        <v>1.44</v>
+      </c>
+      <c r="M23">
+        <v>4.76</v>
+      </c>
+      <c r="N23">
+        <v>7.86</v>
+      </c>
+      <c r="O23" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>5</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AB23">
+        <v>7</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>7</v>
+      </c>
+      <c r="AE23">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ23">
+        <v>3</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM23">
+        <v>144</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>46</v>
+      </c>
+      <c r="AP23">
+        <v>55</v>
+      </c>
+      <c r="AQ23">
+        <v>450</v>
+      </c>
+      <c r="AR23">
+        <v>220</v>
+      </c>
+      <c r="AS23">
+        <v>385</v>
+      </c>
+      <c r="AT23">
+        <v>2530</v>
+      </c>
+      <c r="AU23">
+        <v>28</v>
+      </c>
+      <c r="AV23">
+        <v>184</v>
+      </c>
+      <c r="AW23">
+        <v>322</v>
+      </c>
+      <c r="AX23">
+        <v>1008</v>
+      </c>
+      <c r="AY23">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45165</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24">
+        <v>1.93</v>
+      </c>
+      <c r="M24">
+        <v>3.83</v>
+      </c>
+      <c r="N24">
+        <v>3.99</v>
+      </c>
+      <c r="O24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>8</v>
+      </c>
+      <c r="AB24">
+        <v>10</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>12</v>
+      </c>
+      <c r="AE24">
+        <v>18</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM24">
+        <v>69</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>9</v>
+      </c>
+      <c r="AP24">
+        <v>20</v>
+      </c>
+      <c r="AQ24">
+        <v>100</v>
+      </c>
+      <c r="AR24">
+        <v>20</v>
+      </c>
+      <c r="AS24">
+        <v>240</v>
+      </c>
+      <c r="AT24">
+        <v>180</v>
+      </c>
+      <c r="AU24">
+        <v>12</v>
+      </c>
+      <c r="AV24">
+        <v>9</v>
+      </c>
+      <c r="AW24">
+        <v>108</v>
+      </c>
+      <c r="AX24">
+        <v>828</v>
+      </c>
+      <c r="AY24">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45165</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25">
+        <v>2.41</v>
+      </c>
+      <c r="M25">
+        <v>3.54</v>
+      </c>
+      <c r="N25">
+        <v>3.02</v>
+      </c>
+      <c r="O25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>9</v>
+      </c>
+      <c r="AB25">
+        <v>19</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>28</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM25">
+        <v>150</v>
+      </c>
+      <c r="AN25">
+        <v>4</v>
+      </c>
+      <c r="AO25">
+        <v>34</v>
+      </c>
+      <c r="AP25">
+        <v>20</v>
+      </c>
+      <c r="AQ25">
+        <v>100</v>
+      </c>
+      <c r="AR25">
+        <v>80</v>
+      </c>
+      <c r="AS25">
+        <v>160</v>
+      </c>
+      <c r="AT25">
+        <v>680</v>
+      </c>
+      <c r="AU25">
+        <v>32</v>
+      </c>
+      <c r="AV25">
+        <v>136</v>
+      </c>
+      <c r="AW25">
+        <v>272</v>
+      </c>
+      <c r="AX25">
+        <v>1200</v>
+      </c>
+      <c r="AY25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26">
+        <v>2.17</v>
+      </c>
+      <c r="M26">
+        <v>3.75</v>
+      </c>
+      <c r="N26">
+        <v>3.32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26">
+        <v>11</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26">
+        <v>16</v>
+      </c>
+      <c r="AB26">
+        <v>17</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>6</v>
+      </c>
+      <c r="AE26">
+        <v>33</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ26">
+        <v>4</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM26">
+        <v>141</v>
+      </c>
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <v>27</v>
+      </c>
+      <c r="AP26">
+        <v>40</v>
+      </c>
+      <c r="AQ26">
+        <v>300</v>
+      </c>
+      <c r="AR26">
+        <v>80</v>
+      </c>
+      <c r="AS26">
+        <v>240</v>
+      </c>
+      <c r="AT26">
+        <v>1080</v>
+      </c>
+      <c r="AU26">
+        <v>12</v>
+      </c>
+      <c r="AV26">
+        <v>54</v>
+      </c>
+      <c r="AW26">
+        <v>162</v>
+      </c>
+      <c r="AX26">
+        <v>846</v>
+      </c>
+      <c r="AY26">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27">
+        <v>3.83</v>
+      </c>
+      <c r="M27">
+        <v>3.75</v>
+      </c>
+      <c r="N27">
+        <v>1.99</v>
+      </c>
+      <c r="O27" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>6</v>
+      </c>
+      <c r="S27">
+        <v>18</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>4</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <v>8</v>
+      </c>
+      <c r="AA27">
+        <v>22</v>
+      </c>
+      <c r="AB27">
+        <v>12</v>
+      </c>
+      <c r="AC27">
+        <v>5</v>
+      </c>
+      <c r="AD27">
+        <v>13</v>
+      </c>
+      <c r="AE27">
+        <v>34</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ27">
+        <v>6</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM27">
+        <v>203</v>
+      </c>
+      <c r="AN27">
+        <v>5</v>
+      </c>
+      <c r="AO27">
+        <v>88</v>
+      </c>
+      <c r="AP27">
+        <v>60</v>
+      </c>
+      <c r="AQ27">
+        <v>800</v>
+      </c>
+      <c r="AR27">
+        <v>300</v>
+      </c>
+      <c r="AS27">
+        <v>780</v>
+      </c>
+      <c r="AT27">
+        <v>5280</v>
+      </c>
+      <c r="AU27">
+        <v>65</v>
+      </c>
+      <c r="AV27">
+        <v>440</v>
+      </c>
+      <c r="AW27">
+        <v>1144</v>
+      </c>
+      <c r="AX27">
+        <v>2639</v>
+      </c>
+      <c r="AY27">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28">
+        <v>2.11</v>
+      </c>
+      <c r="M28">
+        <v>3.79</v>
+      </c>
+      <c r="N28">
+        <v>3.44</v>
+      </c>
+      <c r="O28" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q28">
+        <v>21</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>7</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AA28">
+        <v>8</v>
+      </c>
+      <c r="AB28">
+        <v>14</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>9</v>
+      </c>
+      <c r="AE28">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ28">
+        <v>5</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
+      <c r="AQ28">
+        <v>400</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>450</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29">
+        <v>4.97</v>
+      </c>
+      <c r="M29">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N29">
+        <v>1.73</v>
+      </c>
+      <c r="O29" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>26</v>
+      </c>
+      <c r="T29">
+        <v>9</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>7</v>
+      </c>
+      <c r="AB29">
+        <v>13</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM29">
+        <v>43</v>
+      </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <v>54</v>
+      </c>
+      <c r="AP29">
+        <v>45</v>
+      </c>
+      <c r="AQ29">
+        <v>500</v>
+      </c>
+      <c r="AR29">
+        <v>90</v>
+      </c>
+      <c r="AS29">
+        <v>405</v>
+      </c>
+      <c r="AT29">
+        <v>2430</v>
+      </c>
+      <c r="AU29">
+        <v>18</v>
+      </c>
+      <c r="AV29">
+        <v>108</v>
+      </c>
+      <c r="AW29">
+        <v>486</v>
+      </c>
+      <c r="AX29">
+        <v>387</v>
+      </c>
+      <c r="AY29">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30">
+        <v>3.37</v>
+      </c>
+      <c r="M30">
+        <v>3.68</v>
+      </c>
+      <c r="N30">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O30" t="s">
+        <v>137</v>
+      </c>
+      <c r="P30" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q30">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>5</v>
+      </c>
+      <c r="AA30">
+        <v>12</v>
+      </c>
+      <c r="AB30">
+        <v>12</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>12</v>
+      </c>
+      <c r="AE30">
+        <v>24</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ30">
+        <v>4</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>40</v>
+      </c>
+      <c r="AQ30">
+        <v>300</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>480</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31">
+        <v>2.11</v>
+      </c>
+      <c r="M31">
+        <v>3.93</v>
+      </c>
+      <c r="N31">
+        <v>3.33</v>
+      </c>
+      <c r="O31" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q31">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>12</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>21</v>
+      </c>
+      <c r="AB31">
+        <v>16</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AD31">
+        <v>7</v>
+      </c>
+      <c r="AE31">
+        <v>37</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ31">
+        <v>6</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM31">
+        <v>119</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>119</v>
+      </c>
+      <c r="AP31">
+        <v>60</v>
+      </c>
+      <c r="AQ31">
+        <v>800</v>
+      </c>
+      <c r="AR31">
+        <v>180</v>
+      </c>
+      <c r="AS31">
+        <v>420</v>
+      </c>
+      <c r="AT31">
+        <v>7140</v>
+      </c>
+      <c r="AU31">
+        <v>21</v>
+      </c>
+      <c r="AV31">
+        <v>357</v>
+      </c>
+      <c r="AW31">
+        <v>833</v>
+      </c>
+      <c r="AX31">
+        <v>833</v>
+      </c>
+      <c r="AY31">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32">
+        <v>2.02</v>
+      </c>
+      <c r="M32">
+        <v>3.69</v>
+      </c>
+      <c r="N32">
+        <v>3.82</v>
+      </c>
+      <c r="O32" t="s">
+        <v>142</v>
+      </c>
+      <c r="P32" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q32">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>15</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>8</v>
+      </c>
+      <c r="AA32">
+        <v>19</v>
+      </c>
+      <c r="AB32">
+        <v>17</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>8</v>
+      </c>
+      <c r="AE32">
+        <v>36</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ32">
+        <v>4</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM32">
+        <v>146</v>
+      </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
+      <c r="AO32">
+        <v>121</v>
+      </c>
+      <c r="AP32">
+        <v>40</v>
+      </c>
+      <c r="AQ32">
+        <v>300</v>
+      </c>
+      <c r="AR32">
+        <v>160</v>
+      </c>
+      <c r="AS32">
+        <v>320</v>
+      </c>
+      <c r="AT32">
+        <v>4840</v>
+      </c>
+      <c r="AU32">
+        <v>32</v>
+      </c>
+      <c r="AV32">
+        <v>484</v>
+      </c>
+      <c r="AW32">
+        <v>968</v>
+      </c>
+      <c r="AX32">
+        <v>1168</v>
+      </c>
+      <c r="AY32">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33">
+        <v>2.87</v>
+      </c>
+      <c r="M33">
+        <v>3.12</v>
+      </c>
+      <c r="N33">
+        <v>2.79</v>
+      </c>
+      <c r="O33" t="s">
+        <v>137</v>
+      </c>
+      <c r="P33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q33">
+        <v>17</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>9</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>5</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>10</v>
+      </c>
+      <c r="AB33">
+        <v>7</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>9</v>
+      </c>
+      <c r="AE33">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM33">
+        <v>213</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>42</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>27</v>
+      </c>
+      <c r="AV33">
+        <v>126</v>
+      </c>
+      <c r="AW33">
+        <v>378</v>
+      </c>
+      <c r="AX33">
+        <v>1917</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34">
+        <v>1.83</v>
+      </c>
+      <c r="M34">
+        <v>4.25</v>
+      </c>
+      <c r="N34">
+        <v>4.05</v>
+      </c>
+      <c r="O34" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34">
+        <v>15</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>9</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>5</v>
+      </c>
+      <c r="Z34">
+        <v>5</v>
+      </c>
+      <c r="AA34">
+        <v>15</v>
+      </c>
+      <c r="AB34">
+        <v>14</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>10</v>
+      </c>
+      <c r="AE34">
+        <v>29</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ34">
+        <v>3</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM34">
+        <v>2</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>12</v>
+      </c>
+      <c r="AP34">
+        <v>30</v>
+      </c>
+      <c r="AQ34">
+        <v>200</v>
+      </c>
+      <c r="AR34">
+        <v>30</v>
+      </c>
+      <c r="AS34">
+        <v>300</v>
+      </c>
+      <c r="AT34">
+        <v>360</v>
+      </c>
+      <c r="AU34">
+        <v>10</v>
+      </c>
+      <c r="AV34">
+        <v>12</v>
+      </c>
+      <c r="AW34">
+        <v>120</v>
+      </c>
+      <c r="AX34">
+        <v>20</v>
+      </c>
+      <c r="AY34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35">
+        <v>4.09</v>
+      </c>
+      <c r="M35">
+        <v>3.72</v>
+      </c>
+      <c r="N35">
+        <v>1.93</v>
+      </c>
+      <c r="O35" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>12</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>10</v>
+      </c>
+      <c r="AB35">
+        <v>17</v>
+      </c>
+      <c r="AC35">
+        <v>4</v>
+      </c>
+      <c r="AD35">
+        <v>5</v>
+      </c>
+      <c r="AE35">
+        <v>27</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ35">
+        <v>4</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM35">
+        <v>159</v>
+      </c>
+      <c r="AN35">
+        <v>4</v>
+      </c>
+      <c r="AO35">
+        <v>46</v>
+      </c>
+      <c r="AP35">
+        <v>40</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>160</v>
+      </c>
+      <c r="AS35">
+        <v>200</v>
+      </c>
+      <c r="AT35">
+        <v>1840</v>
+      </c>
+      <c r="AU35">
+        <v>20</v>
+      </c>
+      <c r="AV35">
+        <v>184</v>
+      </c>
+      <c r="AW35">
+        <v>230</v>
+      </c>
+      <c r="AX35">
+        <v>795</v>
+      </c>
+      <c r="AY35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>133</v>
+      </c>
+      <c r="L36">
+        <v>1.98</v>
+      </c>
+      <c r="M36">
+        <v>3.58</v>
+      </c>
+      <c r="N36">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="O36" t="s">
+        <v>135</v>
+      </c>
+      <c r="P36" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q36">
+        <v>16</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>5</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>7</v>
+      </c>
+      <c r="AB36">
+        <v>12</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>7</v>
+      </c>
+      <c r="AE36">
+        <v>19</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ36">
+        <v>3</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM36">
+        <v>120</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>29</v>
+      </c>
+      <c r="AP36">
+        <v>30</v>
+      </c>
+      <c r="AQ36">
+        <v>200</v>
+      </c>
+      <c r="AR36">
+        <v>60</v>
+      </c>
+      <c r="AS36">
+        <v>210</v>
+      </c>
+      <c r="AT36">
+        <v>870</v>
+      </c>
+      <c r="AU36">
+        <v>14</v>
+      </c>
+      <c r="AV36">
+        <v>58</v>
+      </c>
+      <c r="AW36">
+        <v>203</v>
+      </c>
+      <c r="AX36">
+        <v>840</v>
+      </c>
+      <c r="AY36">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45172</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>134</v>
+      </c>
+      <c r="L37">
+        <v>5.79</v>
+      </c>
+      <c r="M37">
+        <v>5.01</v>
+      </c>
+      <c r="N37">
+        <v>1.52</v>
+      </c>
+      <c r="O37" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q37">
+        <v>19</v>
+      </c>
+      <c r="R37">
+        <v>8</v>
+      </c>
+      <c r="S37">
+        <v>22</v>
+      </c>
+      <c r="T37">
+        <v>8</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>9</v>
+      </c>
+      <c r="AB37">
+        <v>5</v>
+      </c>
+      <c r="AC37">
+        <v>5</v>
+      </c>
+      <c r="AD37">
+        <v>7</v>
+      </c>
+      <c r="AE37">
+        <v>14</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ37">
+        <v>4</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM37">
+        <v>161</v>
+      </c>
+      <c r="AN37">
+        <v>5</v>
+      </c>
+      <c r="AO37">
+        <v>35</v>
+      </c>
+      <c r="AP37">
+        <v>40</v>
+      </c>
+      <c r="AQ37">
+        <v>400</v>
+      </c>
+      <c r="AR37">
+        <v>200</v>
+      </c>
+      <c r="AS37">
+        <v>280</v>
+      </c>
+      <c r="AT37">
+        <v>1400</v>
+      </c>
+      <c r="AU37">
+        <v>35</v>
+      </c>
+      <c r="AV37">
+        <v>175</v>
+      </c>
+      <c r="AW37">
+        <v>245</v>
+      </c>
+      <c r="AX37">
+        <v>1127</v>
+      </c>
+      <c r="AY37">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45184</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38">
+        <v>1.56</v>
+      </c>
+      <c r="M38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N38">
+        <v>5.86</v>
+      </c>
+      <c r="O38" t="s">
+        <v>136</v>
+      </c>
+      <c r="P38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q38">
+        <v>12</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>14</v>
+      </c>
+      <c r="T38">
+        <v>8</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>4</v>
+      </c>
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>8</v>
+      </c>
+      <c r="AB38">
+        <v>17</v>
+      </c>
+      <c r="AC38">
+        <v>5</v>
+      </c>
+      <c r="AD38">
+        <v>7</v>
+      </c>
+      <c r="AE38">
+        <v>25</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ38">
+        <v>7</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM38">
+        <v>258</v>
+      </c>
+      <c r="AN38">
+        <v>5</v>
+      </c>
+      <c r="AO38">
+        <v>56</v>
+      </c>
+      <c r="AP38">
+        <v>70</v>
+      </c>
+      <c r="AQ38">
+        <v>1000</v>
+      </c>
+      <c r="AR38">
+        <v>350</v>
+      </c>
+      <c r="AS38">
+        <v>490</v>
+      </c>
+      <c r="AT38">
+        <v>3920</v>
+      </c>
+      <c r="AU38">
+        <v>35</v>
+      </c>
+      <c r="AV38">
+        <v>280</v>
+      </c>
+      <c r="AW38">
+        <v>392</v>
+      </c>
+      <c r="AX38">
+        <v>1806</v>
+      </c>
+      <c r="AY38">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45185</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>134</v>
+      </c>
+      <c r="L39">
+        <v>2.17</v>
+      </c>
+      <c r="M39">
+        <v>3.69</v>
+      </c>
+      <c r="N39">
+        <v>3.37</v>
+      </c>
+      <c r="O39" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>5</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>11</v>
+      </c>
+      <c r="AB39">
+        <v>16</v>
+      </c>
+      <c r="AC39">
+        <v>4</v>
+      </c>
+      <c r="AD39">
+        <v>7</v>
+      </c>
+      <c r="AE39">
+        <v>27</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ39">
+        <v>5</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM39">
+        <v>258</v>
+      </c>
+      <c r="AN39">
+        <v>4</v>
+      </c>
+      <c r="AO39">
+        <v>89</v>
+      </c>
+      <c r="AP39">
+        <v>50</v>
+      </c>
+      <c r="AQ39">
+        <v>400</v>
+      </c>
+      <c r="AR39">
+        <v>200</v>
+      </c>
+      <c r="AS39">
+        <v>350</v>
+      </c>
+      <c r="AT39">
+        <v>4450</v>
+      </c>
+      <c r="AU39">
+        <v>28</v>
+      </c>
+      <c r="AV39">
+        <v>356</v>
+      </c>
+      <c r="AW39">
+        <v>623</v>
+      </c>
+      <c r="AX39">
+        <v>1806</v>
+      </c>
+      <c r="AY39">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45185</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40">
+        <v>1.52</v>
+      </c>
+      <c r="M40">
+        <v>4.62</v>
+      </c>
+      <c r="N40">
+        <v>6.36</v>
+      </c>
+      <c r="O40" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q40">
+        <v>31</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>9</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>12</v>
+      </c>
+      <c r="AB40">
+        <v>12</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>24</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ40">
+        <v>3</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM40">
+        <v>37</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>99</v>
+      </c>
+      <c r="AP40">
+        <v>30</v>
+      </c>
+      <c r="AQ40">
+        <v>200</v>
+      </c>
+      <c r="AR40">
+        <v>30</v>
+      </c>
+      <c r="AS40">
+        <v>300</v>
+      </c>
+      <c r="AT40">
+        <v>2970</v>
+      </c>
+      <c r="AU40">
+        <v>10</v>
+      </c>
+      <c r="AV40">
+        <v>99</v>
+      </c>
+      <c r="AW40">
+        <v>990</v>
+      </c>
+      <c r="AX40">
+        <v>370</v>
+      </c>
+      <c r="AY40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L41">
+        <v>4.12</v>
+      </c>
+      <c r="M41">
+        <v>3.98</v>
+      </c>
+      <c r="N41">
+        <v>1.87</v>
+      </c>
+      <c r="O41" t="s">
+        <v>136</v>
+      </c>
+      <c r="P41" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>20</v>
+      </c>
+      <c r="T41">
+        <v>7</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>8</v>
+      </c>
+      <c r="Z41">
+        <v>6</v>
+      </c>
+      <c r="AA41">
+        <v>13</v>
+      </c>
+      <c r="AB41">
+        <v>14</v>
+      </c>
+      <c r="AC41">
+        <v>4</v>
+      </c>
+      <c r="AD41">
+        <v>14</v>
+      </c>
+      <c r="AE41">
+        <v>27</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM41">
+        <v>178</v>
+      </c>
+      <c r="AN41">
+        <v>4</v>
+      </c>
+      <c r="AO41">
+        <v>83</v>
+      </c>
+      <c r="AP41">
+        <v>10</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>40</v>
+      </c>
+      <c r="AS41">
+        <v>140</v>
+      </c>
+      <c r="AT41">
+        <v>830</v>
+      </c>
+      <c r="AU41">
+        <v>56</v>
+      </c>
+      <c r="AV41">
+        <v>332</v>
+      </c>
+      <c r="AW41">
+        <v>1162</v>
+      </c>
+      <c r="AX41">
+        <v>2492</v>
+      </c>
+      <c r="AY41">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42">
+        <v>2.04</v>
+      </c>
+      <c r="M42">
+        <v>3.6</v>
+      </c>
+      <c r="N42">
+        <v>3.85</v>
+      </c>
+      <c r="O42" t="s">
+        <v>137</v>
+      </c>
+      <c r="P42" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q42">
+        <v>16</v>
+      </c>
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>6</v>
+      </c>
+      <c r="Z42">
+        <v>3</v>
+      </c>
+      <c r="AA42">
+        <v>16</v>
+      </c>
+      <c r="AB42">
+        <v>16</v>
+      </c>
+      <c r="AC42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>9</v>
+      </c>
+      <c r="AE42">
+        <v>32</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ42">
+        <v>4</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM42">
+        <v>48</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>27</v>
+      </c>
+      <c r="AP42">
+        <v>40</v>
+      </c>
+      <c r="AQ42">
+        <v>400</v>
+      </c>
+      <c r="AR42">
+        <v>40</v>
+      </c>
+      <c r="AS42">
+        <v>360</v>
+      </c>
+      <c r="AT42">
+        <v>1080</v>
+      </c>
+      <c r="AU42">
+        <v>9</v>
+      </c>
+      <c r="AV42">
+        <v>27</v>
+      </c>
+      <c r="AW42">
+        <v>243</v>
+      </c>
+      <c r="AX42">
+        <v>432</v>
+      </c>
+      <c r="AY42">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43">
+        <v>1.9</v>
+      </c>
+      <c r="M43">
+        <v>3.6</v>
+      </c>
+      <c r="N43">
+        <v>4.43</v>
+      </c>
+      <c r="O43" t="s">
+        <v>135</v>
+      </c>
+      <c r="P43" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q43">
+        <v>13</v>
+      </c>
+      <c r="R43">
+        <v>7</v>
+      </c>
+      <c r="S43">
+        <v>18</v>
+      </c>
+      <c r="T43">
+        <v>7</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>4</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43">
+        <v>7</v>
+      </c>
+      <c r="AB43">
+        <v>11</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AD43">
+        <v>16</v>
+      </c>
+      <c r="AE43">
+        <v>18</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ43">
+        <v>6</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM43">
+        <v>125</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>73</v>
+      </c>
+      <c r="AP43">
+        <v>60</v>
+      </c>
+      <c r="AQ43">
+        <v>800</v>
+      </c>
+      <c r="AR43">
+        <v>180</v>
+      </c>
+      <c r="AS43">
+        <v>960</v>
+      </c>
+      <c r="AT43">
+        <v>4380</v>
+      </c>
+      <c r="AU43">
+        <v>48</v>
+      </c>
+      <c r="AV43">
+        <v>219</v>
+      </c>
+      <c r="AW43">
+        <v>1168</v>
+      </c>
+      <c r="AX43">
+        <v>2000</v>
+      </c>
+      <c r="AY43">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>134</v>
+      </c>
+      <c r="L44">
+        <v>2.39</v>
+      </c>
+      <c r="M44">
+        <v>3.61</v>
+      </c>
+      <c r="N44">
+        <v>3.01</v>
+      </c>
+      <c r="O44" t="s">
+        <v>140</v>
+      </c>
+      <c r="P44" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q44">
+        <v>14</v>
+      </c>
+      <c r="R44">
+        <v>7</v>
+      </c>
+      <c r="S44">
+        <v>11</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>4</v>
+      </c>
+      <c r="V44">
+        <v>6</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>2</v>
+      </c>
+      <c r="Z44">
+        <v>4</v>
+      </c>
+      <c r="AA44">
+        <v>17</v>
+      </c>
+      <c r="AB44">
+        <v>17</v>
+      </c>
+      <c r="AC44">
+        <v>4</v>
+      </c>
+      <c r="AD44">
+        <v>6</v>
+      </c>
+      <c r="AE44">
+        <v>34</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ44">
+        <v>10</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM44">
+        <v>207</v>
+      </c>
+      <c r="AN44">
+        <v>4</v>
+      </c>
+      <c r="AO44">
+        <v>69</v>
+      </c>
+      <c r="AP44">
+        <v>100</v>
+      </c>
+      <c r="AQ44">
+        <v>2400</v>
+      </c>
+      <c r="AR44">
+        <v>400</v>
+      </c>
+      <c r="AS44">
+        <v>600</v>
+      </c>
+      <c r="AT44">
+        <v>6900</v>
+      </c>
+      <c r="AU44">
+        <v>24</v>
+      </c>
+      <c r="AV44">
+        <v>276</v>
+      </c>
+      <c r="AW44">
+        <v>414</v>
+      </c>
+      <c r="AX44">
+        <v>1242</v>
+      </c>
+      <c r="AY44">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45">
+        <v>1.5</v>
+      </c>
+      <c r="M45">
+        <v>4.87</v>
+      </c>
+      <c r="N45">
+        <v>6.33</v>
+      </c>
+      <c r="O45" t="s">
+        <v>137</v>
+      </c>
+      <c r="P45" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q45">
+        <v>24</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>6</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>9</v>
+      </c>
+      <c r="AB45">
+        <v>11</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>7</v>
+      </c>
+      <c r="AE45">
+        <v>20</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ45">
+        <v>7</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>70</v>
+      </c>
+      <c r="AQ45">
+        <v>1000</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>490</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45186</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46">
+        <v>1.7</v>
+      </c>
+      <c r="M46">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="N46">
+        <v>4.82</v>
+      </c>
+      <c r="O46" t="s">
+        <v>137</v>
+      </c>
+      <c r="P46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46">
+        <v>23</v>
+      </c>
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>2</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>6</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>13</v>
+      </c>
+      <c r="AB46">
+        <v>12</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>25</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ46">
+        <v>5</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>50</v>
+      </c>
+      <c r="AQ46">
+        <v>600</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>350</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45191</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47">
+        <v>2.25</v>
+      </c>
+      <c r="M47">
+        <v>3.61</v>
+      </c>
+      <c r="N47">
+        <v>3.27</v>
+      </c>
+      <c r="O47" t="s">
+        <v>137</v>
+      </c>
+      <c r="P47" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q47">
+        <v>9</v>
+      </c>
+      <c r="R47">
+        <v>3</v>
+      </c>
+      <c r="S47">
+        <v>13</v>
+      </c>
+      <c r="T47">
+        <v>7</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>5</v>
+      </c>
+      <c r="Z47">
+        <v>2</v>
+      </c>
+      <c r="AA47">
+        <v>13</v>
+      </c>
+      <c r="AB47">
+        <v>15</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>7</v>
+      </c>
+      <c r="AE47">
+        <v>28</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM47">
+        <v>90</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>7</v>
+      </c>
+      <c r="AP47">
+        <v>20</v>
+      </c>
+      <c r="AQ47">
+        <v>100</v>
+      </c>
+      <c r="AR47">
+        <v>20</v>
+      </c>
+      <c r="AS47">
+        <v>140</v>
+      </c>
+      <c r="AT47">
+        <v>140</v>
+      </c>
+      <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>49</v>
+      </c>
+      <c r="AX47">
+        <v>630</v>
+      </c>
+      <c r="AY47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45192</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48">
+        <v>2.46</v>
+      </c>
+      <c r="M48">
+        <v>3.45</v>
+      </c>
+      <c r="N48">
+        <v>3.02</v>
+      </c>
+      <c r="O48" t="s">
+        <v>136</v>
+      </c>
+      <c r="P48" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q48">
+        <v>19</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <v>7</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>4</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <v>8</v>
+      </c>
+      <c r="AB48">
+        <v>17</v>
+      </c>
+      <c r="AC48">
+        <v>8</v>
+      </c>
+      <c r="AD48">
+        <v>6</v>
+      </c>
+      <c r="AE48">
+        <v>25</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ48">
+        <v>4</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM48">
+        <v>482</v>
+      </c>
+      <c r="AN48">
+        <v>8</v>
+      </c>
+      <c r="AO48">
+        <v>205</v>
+      </c>
+      <c r="AP48">
+        <v>40</v>
+      </c>
+      <c r="AQ48">
+        <v>300</v>
+      </c>
+      <c r="AR48">
+        <v>320</v>
+      </c>
+      <c r="AS48">
+        <v>240</v>
+      </c>
+      <c r="AT48">
+        <v>8200</v>
+      </c>
+      <c r="AU48">
+        <v>48</v>
+      </c>
+      <c r="AV48">
+        <v>1640</v>
+      </c>
+      <c r="AW48">
+        <v>1230</v>
+      </c>
+      <c r="AX48">
+        <v>2892</v>
+      </c>
+      <c r="AY48">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49">
+        <v>2.57</v>
+      </c>
+      <c r="M49">
+        <v>3.67</v>
+      </c>
+      <c r="N49">
+        <v>2.73</v>
+      </c>
+      <c r="O49" t="s">
+        <v>137</v>
+      </c>
+      <c r="P49" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q49">
+        <v>27</v>
+      </c>
+      <c r="R49">
+        <v>11</v>
+      </c>
+      <c r="S49">
+        <v>6</v>
+      </c>
+      <c r="T49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>10</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>17</v>
+      </c>
+      <c r="AB49">
+        <v>16</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>33</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ49">
+        <v>4</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM49">
+        <v>87</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>9</v>
+      </c>
+      <c r="AP49">
+        <v>40</v>
+      </c>
+      <c r="AQ49">
+        <v>300</v>
+      </c>
+      <c r="AR49">
+        <v>40</v>
+      </c>
+      <c r="AS49">
+        <v>440</v>
+      </c>
+      <c r="AT49">
+        <v>360</v>
+      </c>
+      <c r="AU49">
+        <v>11</v>
+      </c>
+      <c r="AV49">
+        <v>9</v>
+      </c>
+      <c r="AW49">
+        <v>99</v>
+      </c>
+      <c r="AX49">
+        <v>957</v>
+      </c>
+      <c r="AY49">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45193</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50">
+        <v>3.01</v>
+      </c>
+      <c r="M50">
+        <v>3.23</v>
+      </c>
+      <c r="N50">
+        <v>2.59</v>
+      </c>
+      <c r="O50" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q50">
+        <v>13</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>16</v>
+      </c>
+      <c r="AB50">
+        <v>15</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AD50">
+        <v>2</v>
+      </c>
+      <c r="AE50">
+        <v>31</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM50">
+        <v>83</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>19</v>
+      </c>
+      <c r="AP50">
+        <v>20</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>20</v>
+      </c>
+      <c r="AS50">
+        <v>40</v>
+      </c>
+      <c r="AT50">
+        <v>380</v>
+      </c>
+      <c r="AU50">
+        <v>2</v>
+      </c>
+      <c r="AV50">
+        <v>19</v>
+      </c>
+      <c r="AW50">
+        <v>38</v>
+      </c>
+      <c r="AX50">
+        <v>166</v>
+      </c>
+      <c r="AY50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45193</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51">
+        <v>2.48</v>
+      </c>
+      <c r="M51">
+        <v>3.26</v>
+      </c>
+      <c r="N51">
+        <v>3.15</v>
+      </c>
+      <c r="O51" t="s">
+        <v>142</v>
+      </c>
+      <c r="P51" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q51">
+        <v>9</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>11</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>3</v>
+      </c>
+      <c r="AA51">
+        <v>15</v>
+      </c>
+      <c r="AB51">
+        <v>17</v>
+      </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <v>4</v>
+      </c>
+      <c r="AE51">
+        <v>32</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ51">
+        <v>5</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM51">
+        <v>56</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>34</v>
+      </c>
+      <c r="AP51">
+        <v>50</v>
+      </c>
+      <c r="AQ51">
+        <v>600</v>
+      </c>
+      <c r="AR51">
+        <v>150</v>
+      </c>
+      <c r="AS51">
+        <v>200</v>
+      </c>
+      <c r="AT51">
+        <v>1700</v>
+      </c>
+      <c r="AU51">
+        <v>12</v>
+      </c>
+      <c r="AV51">
+        <v>102</v>
+      </c>
+      <c r="AW51">
+        <v>136</v>
+      </c>
+      <c r="AX51">
+        <v>224</v>
+      </c>
+      <c r="AY51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45193</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52">
+        <v>1.72</v>
+      </c>
+      <c r="M52">
+        <v>4.05</v>
+      </c>
+      <c r="N52">
+        <v>4.93</v>
+      </c>
+      <c r="O52" t="s">
+        <v>136</v>
+      </c>
+      <c r="P52" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q52">
+        <v>27</v>
+      </c>
+      <c r="R52">
+        <v>7</v>
+      </c>
+      <c r="S52">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>9</v>
+      </c>
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AA52">
+        <v>16</v>
+      </c>
+      <c r="AB52">
+        <v>15</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>13</v>
+      </c>
+      <c r="AE52">
+        <v>31</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ52">
+        <v>3</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM52">
+        <v>162</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>60</v>
+      </c>
+      <c r="AP52">
+        <v>30</v>
+      </c>
+      <c r="AQ52">
+        <v>200</v>
+      </c>
+      <c r="AR52">
+        <v>90</v>
+      </c>
+      <c r="AS52">
+        <v>390</v>
+      </c>
+      <c r="AT52">
+        <v>1800</v>
+      </c>
+      <c r="AU52">
+        <v>39</v>
+      </c>
+      <c r="AV52">
+        <v>180</v>
+      </c>
+      <c r="AW52">
+        <v>780</v>
+      </c>
+      <c r="AX52">
+        <v>2106</v>
+      </c>
+      <c r="AY52">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45193</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53">
+        <v>2.7</v>
+      </c>
+      <c r="M53">
+        <v>3.56</v>
+      </c>
+      <c r="N53">
+        <v>2.65</v>
+      </c>
+      <c r="O53" t="s">
+        <v>137</v>
+      </c>
+      <c r="P53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q53">
+        <v>13</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>18</v>
+      </c>
+      <c r="T53">
+        <v>6</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>3</v>
+      </c>
+      <c r="Z53">
+        <v>6</v>
+      </c>
+      <c r="AA53">
+        <v>10</v>
+      </c>
+      <c r="AB53">
+        <v>15</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>9</v>
+      </c>
+      <c r="AE53">
+        <v>25</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ53">
+        <v>3</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>30</v>
+      </c>
+      <c r="AQ53">
+        <v>200</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>270</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45193</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>133</v>
+      </c>
+      <c r="L54">
+        <v>1.64</v>
+      </c>
+      <c r="M54">
+        <v>4.41</v>
+      </c>
+      <c r="N54">
+        <v>5.15</v>
+      </c>
+      <c r="O54" t="s">
+        <v>141</v>
+      </c>
+      <c r="P54" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q54">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>8</v>
+      </c>
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>11</v>
+      </c>
+      <c r="AB54">
+        <v>14</v>
+      </c>
+      <c r="AC54">
+        <v>4</v>
+      </c>
+      <c r="AD54">
+        <v>11</v>
+      </c>
+      <c r="AE54">
+        <v>25</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ54">
+        <v>3</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM54">
+        <v>181</v>
+      </c>
+      <c r="AN54">
+        <v>4</v>
+      </c>
+      <c r="AO54">
+        <v>43</v>
+      </c>
+      <c r="AP54">
+        <v>30</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>120</v>
+      </c>
+      <c r="AS54">
+        <v>330</v>
+      </c>
+      <c r="AT54">
+        <v>1290</v>
+      </c>
+      <c r="AU54">
+        <v>44</v>
+      </c>
+      <c r="AV54">
+        <v>172</v>
+      </c>
+      <c r="AW54">
+        <v>473</v>
+      </c>
+      <c r="AX54">
+        <v>1991</v>
+      </c>
+      <c r="AY54">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45195</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55">
+        <v>1.96</v>
+      </c>
+      <c r="M55">
+        <v>3.79</v>
+      </c>
+      <c r="N55">
+        <v>3.95</v>
+      </c>
+      <c r="O55" t="s">
+        <v>140</v>
+      </c>
+      <c r="P55" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q55">
+        <v>14</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>4</v>
+      </c>
+      <c r="Z55">
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <v>4</v>
+      </c>
+      <c r="AB55">
+        <v>19</v>
+      </c>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AD55">
+        <v>6</v>
+      </c>
+      <c r="AE55">
+        <v>23</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ55">
+        <v>3</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM55">
+        <v>107</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>47</v>
+      </c>
+      <c r="AP55">
+        <v>30</v>
+      </c>
+      <c r="AQ55">
+        <v>200</v>
+      </c>
+      <c r="AR55">
+        <v>90</v>
+      </c>
+      <c r="AS55">
+        <v>180</v>
+      </c>
+      <c r="AT55">
+        <f>AO55*AP55</f>
+        <v>1410</v>
+      </c>
+      <c r="AU55">
+        <v>18</v>
+      </c>
+      <c r="AV55">
+        <f>AN55*AO55</f>
+        <v>141</v>
+      </c>
+      <c r="AW55">
+        <f>AO55*AD55</f>
+        <v>282</v>
+      </c>
+      <c r="AX55">
+        <f>AM55*AD55</f>
+        <v>642</v>
+      </c>
+      <c r="AY55">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45198</v>
+      </c>
+      <c r="D56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>134</v>
+      </c>
+      <c r="L56">
+        <v>3.69</v>
+      </c>
+      <c r="M56">
+        <v>3.48</v>
+      </c>
+      <c r="N56">
+        <v>2.13</v>
+      </c>
+      <c r="O56" t="s">
+        <v>139</v>
+      </c>
+      <c r="P56" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q56">
+        <v>8</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>9</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AA56">
+        <v>16</v>
+      </c>
+      <c r="AB56">
+        <v>15</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>5</v>
+      </c>
+      <c r="AE56">
+        <v>31</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ56">
+        <v>6</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM56">
+        <v>16</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
+        <v>9</v>
+      </c>
+      <c r="AP56">
+        <v>60</v>
+      </c>
+      <c r="AQ56">
+        <v>800</v>
+      </c>
+      <c r="AR56">
+        <v>60</v>
+      </c>
+      <c r="AS56">
+        <v>300</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" ref="AT56:AT64" si="0">AO56*AP56</f>
+        <v>540</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" ref="AV56:AV64" si="1">AN56*AO56</f>
+        <v>9</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" ref="AW56:AW64" si="2">AO56*AD56</f>
+        <v>45</v>
+      </c>
+      <c r="AX56">
+        <f t="shared" ref="AX56:AX64" si="3">AM56*AD56</f>
+        <v>80</v>
+      </c>
+      <c r="AY56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57">
+        <v>7.03</v>
+      </c>
+      <c r="M57">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="N57">
+        <v>1.47</v>
+      </c>
+      <c r="O57" t="s">
+        <v>137</v>
+      </c>
+      <c r="P57" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q57">
+        <v>12</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+      <c r="S57">
+        <v>21</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>3</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>6</v>
+      </c>
+      <c r="Z57">
+        <v>9</v>
+      </c>
+      <c r="AA57">
+        <v>11</v>
+      </c>
+      <c r="AB57">
+        <v>16</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>15</v>
+      </c>
+      <c r="AE57">
+        <v>27</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ57">
+        <v>5</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>50</v>
+      </c>
+      <c r="AQ57">
+        <v>600</v>
+      </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <v>750</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45199</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58">
+        <v>2.21</v>
+      </c>
+      <c r="M58">
+        <v>3.88</v>
+      </c>
+      <c r="N58">
+        <v>3.14</v>
+      </c>
+      <c r="O58" t="s">
+        <v>144</v>
+      </c>
+      <c r="P58" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
+        <v>7</v>
+      </c>
+      <c r="S58">
+        <v>8</v>
+      </c>
+      <c r="T58">
+        <v>4</v>
+      </c>
+      <c r="U58">
+        <v>4</v>
+      </c>
+      <c r="V58">
+        <v>4</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <v>6</v>
+      </c>
+      <c r="AA58">
+        <v>17</v>
+      </c>
+      <c r="AB58">
+        <v>15</v>
+      </c>
+      <c r="AC58">
+        <v>5</v>
+      </c>
+      <c r="AD58">
+        <v>8</v>
+      </c>
+      <c r="AE58">
+        <v>32</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ58">
+        <v>8</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM58">
+        <v>102</v>
+      </c>
+      <c r="AN58">
+        <v>5</v>
+      </c>
+      <c r="AO58">
+        <v>104</v>
+      </c>
+      <c r="AP58">
+        <v>80</v>
+      </c>
+      <c r="AQ58">
+        <v>1600</v>
+      </c>
+      <c r="AR58">
+        <v>400</v>
+      </c>
+      <c r="AS58">
+        <v>640</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="0"/>
+        <v>8320</v>
+      </c>
+      <c r="AU58">
+        <v>40</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="2"/>
+        <v>832</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="3"/>
+        <v>816</v>
+      </c>
+      <c r="AY58">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59">
+        <v>2.1</v>
+      </c>
+      <c r="M59">
+        <v>3.81</v>
+      </c>
+      <c r="N59">
+        <v>3.45</v>
+      </c>
+      <c r="O59" t="s">
+        <v>135</v>
+      </c>
+      <c r="P59" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q59">
+        <v>8</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>11</v>
+      </c>
+      <c r="T59">
+        <v>6</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>5</v>
+      </c>
+      <c r="AA59">
+        <v>19</v>
+      </c>
+      <c r="AB59">
+        <v>14</v>
+      </c>
+      <c r="AC59">
+        <v>2</v>
+      </c>
+      <c r="AD59">
+        <v>6</v>
+      </c>
+      <c r="AE59">
+        <v>33</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ59">
+        <v>4</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM59">
+        <v>116</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>20</v>
+      </c>
+      <c r="AP59">
+        <v>40</v>
+      </c>
+      <c r="AQ59">
+        <v>400</v>
+      </c>
+      <c r="AR59">
+        <v>80</v>
+      </c>
+      <c r="AS59">
+        <v>240</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="AU59">
+        <v>12</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="3"/>
+        <v>696</v>
+      </c>
+      <c r="AY59">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>134</v>
+      </c>
+      <c r="L60">
+        <v>4.08</v>
+      </c>
+      <c r="M60">
+        <v>3.44</v>
+      </c>
+      <c r="N60">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O60" t="s">
+        <v>139</v>
+      </c>
+      <c r="P60" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>16</v>
+      </c>
+      <c r="T60">
+        <v>6</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>6</v>
+      </c>
+      <c r="Z60">
+        <v>6</v>
+      </c>
+      <c r="AA60">
+        <v>18</v>
+      </c>
+      <c r="AB60">
+        <v>6</v>
+      </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
+      <c r="AD60">
+        <v>12</v>
+      </c>
+      <c r="AE60">
+        <v>24</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM60">
+        <v>92</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>45</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>24</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="3"/>
+        <v>1104</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61">
+        <v>1.8</v>
+      </c>
+      <c r="M61">
+        <v>3.84</v>
+      </c>
+      <c r="N61">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="O61" t="s">
+        <v>137</v>
+      </c>
+      <c r="P61" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q61">
+        <v>12</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>7</v>
+      </c>
+      <c r="T61">
+        <v>2</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>6</v>
+      </c>
+      <c r="Z61">
+        <v>4</v>
+      </c>
+      <c r="AA61">
+        <v>13</v>
+      </c>
+      <c r="AB61">
+        <v>9</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>22</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ61">
+        <v>4</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>40</v>
+      </c>
+      <c r="AQ61">
+        <v>300</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>400</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>133</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>133</v>
+      </c>
+      <c r="L62">
+        <v>2.13</v>
+      </c>
+      <c r="M62">
+        <v>3.47</v>
+      </c>
+      <c r="N62">
+        <v>3.7</v>
+      </c>
+      <c r="O62" t="s">
+        <v>141</v>
+      </c>
+      <c r="P62" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q62">
+        <v>15</v>
+      </c>
+      <c r="R62">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <v>8</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>4</v>
+      </c>
+      <c r="Z62">
+        <v>6</v>
+      </c>
+      <c r="AA62">
+        <v>10</v>
+      </c>
+      <c r="AB62">
+        <v>7</v>
+      </c>
+      <c r="AC62">
+        <v>3</v>
+      </c>
+      <c r="AD62">
+        <v>10</v>
+      </c>
+      <c r="AE62">
+        <v>17</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ62">
+        <v>3</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM62">
+        <v>156</v>
+      </c>
+      <c r="AN62">
+        <v>3</v>
+      </c>
+      <c r="AO62">
+        <v>48</v>
+      </c>
+      <c r="AP62">
+        <v>30</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>90</v>
+      </c>
+      <c r="AS62">
+        <v>300</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="AU62">
+        <v>30</v>
+      </c>
+      <c r="AV62">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="AW62">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="AX62">
+        <f t="shared" si="3"/>
+        <v>1560</v>
+      </c>
+      <c r="AY62">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>134</v>
+      </c>
+      <c r="L63">
+        <v>2.95</v>
+      </c>
+      <c r="M63">
+        <v>3.59</v>
+      </c>
+      <c r="N63">
+        <v>2.44</v>
+      </c>
+      <c r="O63" t="s">
+        <v>139</v>
+      </c>
+      <c r="P63" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q63">
+        <v>14</v>
+      </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
+      <c r="S63">
+        <v>14</v>
+      </c>
+      <c r="T63">
+        <v>8</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>8</v>
+      </c>
+      <c r="Z63">
+        <v>3</v>
+      </c>
+      <c r="AA63">
+        <v>13</v>
+      </c>
+      <c r="AB63">
+        <v>6</v>
+      </c>
+      <c r="AC63">
+        <v>3</v>
+      </c>
+      <c r="AD63">
+        <v>11</v>
+      </c>
+      <c r="AE63">
+        <v>19</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ63">
+        <v>3</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM63">
+        <v>192</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>27</v>
+      </c>
+      <c r="AP63">
+        <v>30</v>
+      </c>
+      <c r="AQ63">
+        <v>200</v>
+      </c>
+      <c r="AR63">
+        <v>90</v>
+      </c>
+      <c r="AS63">
+        <v>330</v>
+      </c>
+      <c r="AT63">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="AU63">
+        <v>33</v>
+      </c>
+      <c r="AV63">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="AW63">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="AX63">
+        <f t="shared" si="3"/>
+        <v>2112</v>
+      </c>
+      <c r="AY63">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45200</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64">
+        <v>1.53</v>
+      </c>
+      <c r="M64">
+        <v>4.58</v>
+      </c>
+      <c r="N64">
+        <v>6.18</v>
+      </c>
+      <c r="O64" t="s">
+        <v>136</v>
+      </c>
+      <c r="P64" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q64">
+        <v>16</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <v>3</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>6</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>6</v>
+      </c>
+      <c r="Z64">
+        <v>4</v>
+      </c>
+      <c r="AA64">
+        <v>11</v>
+      </c>
+      <c r="AB64">
+        <v>17</v>
+      </c>
+      <c r="AC64">
+        <v>4</v>
+      </c>
+      <c r="AD64">
+        <v>10</v>
+      </c>
+      <c r="AE64">
+        <v>28</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ64">
+        <v>9</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM64">
+        <v>214</v>
+      </c>
+      <c r="AN64">
+        <v>4</v>
+      </c>
+      <c r="AO64">
+        <v>61</v>
+      </c>
+      <c r="AP64">
+        <v>115</v>
+      </c>
+      <c r="AQ64">
+        <v>2550</v>
+      </c>
+      <c r="AR64">
+        <v>460</v>
+      </c>
+      <c r="AS64">
+        <v>1150</v>
+      </c>
+      <c r="AT64">
+        <f t="shared" si="0"/>
+        <v>7015</v>
+      </c>
+      <c r="AU64">
+        <v>40</v>
+      </c>
+      <c r="AV64">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="AW64">
+        <f t="shared" si="2"/>
+        <v>610</v>
+      </c>
+      <c r="AX64">
+        <f t="shared" si="3"/>
+        <v>2140</v>
+      </c>
+      <c r="AY64">
+        <v>4600</v>
       </c>
     </row>
   </sheetData>

--- a/F1_spread.xlsx
+++ b/F1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E9B5E-1C57-4975-93E7-00F9C0114036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56657219-9F9F-468A-A098-87FC9545C414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="167">
   <si>
     <t>Div</t>
   </si>
@@ -180,58 +180,85 @@
     <t>GoalsXcornerXbookings</t>
   </si>
   <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>285</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>432</t>
   </si>
   <si>
     <t>F1</t>
@@ -318,15 +345,18 @@
     <t>2-0</t>
   </si>
   <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
     <t>1-5</t>
   </si>
   <si>
-    <t>0-2</t>
-  </si>
-  <si>
     <t>2-1</t>
   </si>
   <si>
@@ -342,6 +372,12 @@
     <t>2-2</t>
   </si>
   <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
     <t>2-8</t>
   </si>
   <si>
@@ -393,6 +429,21 @@
     <t>2-5</t>
   </si>
   <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -451,6 +502,33 @@
   </si>
   <si>
     <t>Marseille-Reims</t>
+  </si>
+  <si>
+    <t>Lyon-Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest-St Etienne</t>
+  </si>
+  <si>
+    <t>Montpellier-Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse-Marseille</t>
+  </si>
+  <si>
+    <t>Monaco-Lens</t>
+  </si>
+  <si>
+    <t>Angers-Nice</t>
+  </si>
+  <si>
+    <t>Le Havre-Auxerre</t>
+  </si>
+  <si>
+    <t>Reims-Rennes</t>
+  </si>
+  <si>
+    <t>Lille-Paris SG</t>
   </si>
 </sst>
 </file>
@@ -458,7 +536,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -806,60 +884,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
+      <selection pane="bottomRight" activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1019,16 +1097,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1037,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1046,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L2">
         <v>7.84</v>
@@ -1058,10 +1136,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1109,16 +1187,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AG2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AI2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1127,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AM2">
         <v>312</v>
@@ -1151,22 +1229,18 @@
         <v>300</v>
       </c>
       <c r="AT2">
-        <f>AO2*AP2</f>
         <v>2550</v>
       </c>
       <c r="AU2">
         <v>50</v>
       </c>
       <c r="AV2">
-        <f>AN2*AO2</f>
         <v>425</v>
       </c>
       <c r="AW2">
-        <f>AO2*AD2</f>
         <v>850</v>
       </c>
       <c r="AX2">
-        <f>AM2*AD2</f>
         <v>3120</v>
       </c>
       <c r="AY2">
@@ -1178,16 +1252,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1196,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1205,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L3">
         <v>2.96</v>
@@ -1217,10 +1291,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1268,16 +1342,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AG3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AI3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1286,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AM3">
         <v>222</v>
@@ -1310,22 +1384,18 @@
         <v>250</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT19" si="0">AO3*AP3</f>
         <v>6400</v>
       </c>
       <c r="AU3">
         <v>30</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV19" si="1">AN3*AO3</f>
         <v>768</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW19" si="2">AO3*AD3</f>
         <v>640</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX19" si="3">AM3*AD3</f>
         <v>1110</v>
       </c>
       <c r="AY3">
@@ -1337,16 +1407,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1355,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1364,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L4">
         <v>3.36</v>
@@ -1376,10 +1446,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1427,16 +1497,16 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="AG4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1445,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="AL4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AM4">
         <v>135</v>
@@ -1469,22 +1539,18 @@
         <v>520</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="0"/>
         <v>1755</v>
       </c>
       <c r="AU4">
         <v>16</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
       <c r="AY4">
@@ -1496,16 +1562,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1514,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1523,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L5">
         <v>1.51</v>
@@ -1535,10 +1601,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1586,16 +1652,16 @@
         <v>27</v>
       </c>
       <c r="AF5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AG5" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AH5" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI5" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1604,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="AM5">
         <v>29</v>
@@ -1628,22 +1694,18 @@
         <v>180</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="AU5">
         <v>9</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="3"/>
         <v>261</v>
       </c>
       <c r="AY5">
@@ -1655,16 +1717,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1673,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1682,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L6">
         <v>3.22</v>
@@ -1694,10 +1756,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -1745,16 +1807,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AI6" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1763,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="AM6">
         <v>154</v>
@@ -1787,22 +1849,18 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU6">
         <v>24</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="1"/>
         <v>429</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="2"/>
         <v>1144</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="3"/>
         <v>1232</v>
       </c>
       <c r="AY6">
@@ -1814,16 +1872,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1832,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1841,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L7">
         <v>5.66</v>
@@ -1853,10 +1911,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -1904,16 +1962,16 @@
         <v>16</v>
       </c>
       <c r="AF7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AH7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -1922,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="AM7">
         <v>28</v>
@@ -1946,22 +2004,18 @@
         <v>100</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="AU7">
         <v>10</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="AY7">
@@ -1973,16 +2027,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1991,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2000,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L8">
         <v>2.12</v>
@@ -2012,10 +2066,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2063,16 +2117,16 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH8" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI8" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ8">
         <v>7</v>
@@ -2081,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="AM8">
         <v>125</v>
@@ -2105,22 +2159,18 @@
         <v>700</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="AU8">
         <v>20</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
       <c r="AY8">
@@ -2132,16 +2182,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2150,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2159,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L9">
         <v>2.11</v>
@@ -2171,10 +2221,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2222,16 +2272,16 @@
         <v>18</v>
       </c>
       <c r="AF9" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AH9" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI9" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ9">
         <v>4</v>
@@ -2240,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2264,22 +2314,18 @@
         <v>600</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU9">
         <v>0</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY9">
@@ -2291,16 +2337,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2309,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2318,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L10">
         <v>2.4700000000000002</v>
@@ -2330,10 +2376,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>22</v>
@@ -2381,16 +2427,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH10" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AI10" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ10">
         <v>3</v>
@@ -2399,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="AM10">
         <v>130</v>
@@ -2423,22 +2469,18 @@
         <v>420</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="0"/>
         <v>1290</v>
       </c>
       <c r="AU10">
         <v>42</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="2"/>
         <v>602</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="3"/>
         <v>1820</v>
       </c>
       <c r="AY10">
@@ -2450,16 +2492,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>45527</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2468,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2477,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L11">
         <v>1.25</v>
@@ -2489,10 +2531,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>21</v>
@@ -2540,16 +2582,16 @@
         <v>25</v>
       </c>
       <c r="AF11" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AG11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AI11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AJ11">
         <v>5</v>
@@ -2558,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="AM11">
         <v>281</v>
@@ -2582,22 +2624,18 @@
         <v>600</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="0"/>
         <v>6150</v>
       </c>
       <c r="AU11">
         <v>72</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="1"/>
         <v>738</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="2"/>
         <v>1476</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="3"/>
         <v>3372</v>
       </c>
       <c r="AY11">
@@ -2609,16 +2647,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2627,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2636,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L12">
         <v>2.62</v>
@@ -2648,10 +2686,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2699,16 +2737,16 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH12" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI12" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -2717,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2741,22 +2779,18 @@
         <v>150</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="0"/>
         <v>550</v>
       </c>
       <c r="AU12">
         <v>12</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="3"/>
         <v>870</v>
       </c>
       <c r="AY12">
@@ -2768,16 +2802,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2786,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2795,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L13">
         <v>1.33</v>
@@ -2807,10 +2841,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -2858,16 +2892,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH13" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI13" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -2876,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="AM13">
         <v>124</v>
@@ -2900,22 +2934,18 @@
         <v>150</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="0"/>
         <v>1170</v>
       </c>
       <c r="AU13">
         <v>10</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="3"/>
         <v>620</v>
       </c>
       <c r="AY13">
@@ -2927,16 +2957,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2945,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2954,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L14">
         <v>2.11</v>
@@ -2966,10 +2996,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3017,16 +3047,16 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH14" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI14" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ14">
         <v>6</v>
@@ -3035,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AM14">
         <v>124</v>
@@ -3059,22 +3089,18 @@
         <v>360</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="0"/>
         <v>11220</v>
       </c>
       <c r="AU14">
         <v>12</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="1"/>
         <v>374</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="2"/>
         <v>1122</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="3"/>
         <v>744</v>
       </c>
       <c r="AY14">
@@ -3086,16 +3112,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1">
         <v>45529</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3104,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3113,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L15">
         <v>1.81</v>
@@ -3125,10 +3151,10 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q15">
         <v>22</v>
@@ -3176,16 +3202,16 @@
         <v>14</v>
       </c>
       <c r="AF15" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH15" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI15" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3194,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="AL15" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AM15">
         <v>64</v>
@@ -3218,22 +3244,18 @@
         <v>175</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="AU15">
         <v>14</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="2"/>
         <v>266</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="3"/>
         <v>448</v>
       </c>
       <c r="AY15">
@@ -3245,16 +3267,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3263,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3272,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L16">
         <v>2.25</v>
@@ -3284,10 +3306,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -3335,16 +3357,16 @@
         <v>15</v>
       </c>
       <c r="AF16" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="AG16" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH16" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI16" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -3353,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AM16">
         <v>104</v>
@@ -3377,22 +3399,18 @@
         <v>375</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="0"/>
         <v>2225</v>
       </c>
       <c r="AU16">
         <v>30</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="1"/>
         <v>178</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="2"/>
         <v>1335</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="3"/>
         <v>1560</v>
       </c>
       <c r="AY16">
@@ -3404,16 +3422,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3422,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3431,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L17">
         <v>1.88</v>
@@ -3443,10 +3461,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -3494,16 +3512,16 @@
         <v>32</v>
       </c>
       <c r="AF17" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AG17" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH17" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AI17" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AJ17">
         <v>5</v>
@@ -3512,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="AM17">
         <v>126</v>
@@ -3536,22 +3554,18 @@
         <v>400</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="0"/>
         <v>8600</v>
       </c>
       <c r="AU17">
         <v>16</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="1"/>
         <v>344</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="2"/>
         <v>1376</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="3"/>
         <v>1008</v>
       </c>
       <c r="AY17">
@@ -3563,16 +3577,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3581,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3590,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L18">
         <v>3.19</v>
@@ -3602,10 +3616,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -3653,16 +3667,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="AG18" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH18" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AI18" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AJ18">
         <v>6</v>
@@ -3671,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="AM18">
         <v>215</v>
@@ -3695,22 +3709,18 @@
         <v>420</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="0"/>
         <v>1980</v>
       </c>
       <c r="AU18">
         <v>28</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="2"/>
         <v>231</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="3"/>
         <v>1505</v>
       </c>
       <c r="AY18">
@@ -3722,16 +3732,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3740,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3749,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L19">
         <v>1.56</v>
@@ -3761,10 +3771,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -3812,16 +3822,16 @@
         <v>23</v>
       </c>
       <c r="AF19" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AH19" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AI19" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -3830,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AM19">
         <v>202</v>
@@ -3854,26 +3864,1453 @@
         <v>120</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="AU19">
         <v>24</v>
       </c>
       <c r="AV19">
+        <v>440</v>
+      </c>
+      <c r="AW19">
+        <v>660</v>
+      </c>
+      <c r="AX19">
+        <v>1212</v>
+      </c>
+      <c r="AY19">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20">
+        <v>1.89</v>
+      </c>
+      <c r="M20">
+        <v>3.83</v>
+      </c>
+      <c r="N20">
+        <v>4.18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q20">
+        <v>22</v>
+      </c>
+      <c r="R20">
+        <v>13</v>
+      </c>
+      <c r="S20">
+        <v>14</v>
+      </c>
+      <c r="T20">
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>9</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>10</v>
+      </c>
+      <c r="AB20">
+        <v>6</v>
+      </c>
+      <c r="AC20">
+        <v>7</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
+        <v>16</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ20">
+        <v>5</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM20">
+        <v>350</v>
+      </c>
+      <c r="AN20">
+        <v>7</v>
+      </c>
+      <c r="AO20">
+        <v>157</v>
+      </c>
+      <c r="AP20">
+        <v>50</v>
+      </c>
+      <c r="AQ20">
+        <v>600</v>
+      </c>
+      <c r="AR20">
+        <v>350</v>
+      </c>
+      <c r="AS20">
+        <v>550</v>
+      </c>
+      <c r="AT20">
+        <f>AO20*AP20</f>
+        <v>7850</v>
+      </c>
+      <c r="AU20">
+        <v>77</v>
+      </c>
+      <c r="AV20">
+        <f>AN20*AO20</f>
+        <v>1099</v>
+      </c>
+      <c r="AW20">
+        <f>AO20*AD20</f>
+        <v>1727</v>
+      </c>
+      <c r="AX20">
+        <f>AM20*AD20</f>
+        <v>3850</v>
+      </c>
+      <c r="AY20">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21">
+        <v>1.85</v>
+      </c>
+      <c r="M21">
+        <v>3.83</v>
+      </c>
+      <c r="N21">
+        <v>4.28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21">
+        <v>17</v>
+      </c>
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>12</v>
+      </c>
+      <c r="AB21">
+        <v>28</v>
+      </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+      <c r="AD21">
+        <v>9</v>
+      </c>
+      <c r="AE21">
+        <v>40</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ21">
+        <v>5</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM21">
+        <v>203</v>
+      </c>
+      <c r="AN21">
+        <v>4</v>
+      </c>
+      <c r="AO21">
+        <v>101</v>
+      </c>
+      <c r="AP21">
+        <v>50</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>200</v>
+      </c>
+      <c r="AS21">
+        <v>450</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" ref="AT21:AT28" si="0">AO21*AP21</f>
+        <v>5050</v>
+      </c>
+      <c r="AU21">
+        <v>36</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" ref="AV21:AV28" si="1">AN21*AO21</f>
+        <v>404</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" ref="AW21:AW28" si="2">AO21*AD21</f>
+        <v>909</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" ref="AX21:AX28" si="3">AM21*AD21</f>
+        <v>1827</v>
+      </c>
+      <c r="AY21">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22">
+        <v>2.35</v>
+      </c>
+      <c r="M22">
+        <v>3.38</v>
+      </c>
+      <c r="N22">
+        <v>3.22</v>
+      </c>
+      <c r="O22" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>8</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>11</v>
+      </c>
+      <c r="AB22">
+        <v>13</v>
+      </c>
+      <c r="AC22">
+        <v>4</v>
+      </c>
+      <c r="AD22">
+        <v>11</v>
+      </c>
+      <c r="AE22">
+        <v>24</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ22">
+        <v>4</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM22">
+        <v>184</v>
+      </c>
+      <c r="AN22">
+        <v>4</v>
+      </c>
+      <c r="AO22">
+        <v>105</v>
+      </c>
+      <c r="AP22">
+        <v>40</v>
+      </c>
+      <c r="AQ22">
+        <v>400</v>
+      </c>
+      <c r="AR22">
+        <v>160</v>
+      </c>
+      <c r="AS22">
+        <v>440</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="0"/>
+        <v>4200</v>
+      </c>
+      <c r="AU22">
+        <v>44</v>
+      </c>
+      <c r="AV22">
         <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="AW19">
+        <v>420</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="2"/>
+        <v>1155</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="AY22">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23">
+        <v>4.09</v>
+      </c>
+      <c r="M23">
+        <v>3.74</v>
+      </c>
+      <c r="N23">
+        <v>1.91</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>11</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23">
+        <v>12</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+      <c r="AE23">
+        <v>22</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ23">
+        <v>6</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM23">
+        <v>175</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>104</v>
+      </c>
+      <c r="AP23">
+        <v>85</v>
+      </c>
+      <c r="AQ23">
+        <v>1300</v>
+      </c>
+      <c r="AR23">
+        <v>340</v>
+      </c>
+      <c r="AS23">
+        <v>425</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="0"/>
+        <v>8840</v>
+      </c>
+      <c r="AU23">
+        <v>20</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="3"/>
+        <v>875</v>
+      </c>
+      <c r="AY23">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24">
+        <v>1.83</v>
+      </c>
+      <c r="M24">
+        <v>3.74</v>
+      </c>
+      <c r="N24">
+        <v>3.9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+      <c r="AA24">
+        <v>11</v>
+      </c>
+      <c r="AB24">
+        <v>21</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>14</v>
+      </c>
+      <c r="AE24">
+        <v>32</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM24">
+        <v>174</v>
+      </c>
+      <c r="AN24">
+        <v>2</v>
+      </c>
+      <c r="AO24">
+        <v>35</v>
+      </c>
+      <c r="AP24">
+        <v>50</v>
+      </c>
+      <c r="AQ24">
+        <v>400</v>
+      </c>
+      <c r="AR24">
+        <v>100</v>
+      </c>
+      <c r="AS24">
+        <v>700</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="AU24">
+        <v>28</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="3"/>
+        <v>2436</v>
+      </c>
+      <c r="AY24">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25">
+        <v>4.2</v>
+      </c>
+      <c r="M25">
+        <v>3.35</v>
+      </c>
+      <c r="N25">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O25" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <v>9</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AA25">
+        <v>14</v>
+      </c>
+      <c r="AB25">
+        <v>13</v>
+      </c>
+      <c r="AC25">
+        <v>5</v>
+      </c>
+      <c r="AD25">
+        <v>11</v>
+      </c>
+      <c r="AE25">
+        <v>27</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ25">
+        <v>10</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM25">
+        <v>255</v>
+      </c>
+      <c r="AN25">
+        <v>5</v>
+      </c>
+      <c r="AO25">
+        <v>151</v>
+      </c>
+      <c r="AP25">
+        <v>125</v>
+      </c>
+      <c r="AQ25">
+        <v>3900</v>
+      </c>
+      <c r="AR25">
+        <v>625</v>
+      </c>
+      <c r="AS25">
+        <v>1375</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="0"/>
+        <v>18875</v>
+      </c>
+      <c r="AU25">
+        <v>55</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="1"/>
+        <v>755</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="2"/>
+        <v>1661</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="3"/>
+        <v>2805</v>
+      </c>
+      <c r="AY25">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26">
+        <v>2.81</v>
+      </c>
+      <c r="M26">
+        <v>3.28</v>
+      </c>
+      <c r="N26">
+        <v>2.69</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26">
+        <v>21</v>
+      </c>
+      <c r="R26">
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>10</v>
+      </c>
+      <c r="AB26">
+        <v>15</v>
+      </c>
+      <c r="AC26">
+        <v>4</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AE26">
+        <v>25</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ26">
+        <v>6</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM26">
+        <v>182</v>
+      </c>
+      <c r="AN26">
+        <v>4</v>
+      </c>
+      <c r="AO26">
+        <v>165</v>
+      </c>
+      <c r="AP26">
+        <v>85</v>
+      </c>
+      <c r="AQ26">
+        <v>750</v>
+      </c>
+      <c r="AR26">
+        <v>340</v>
+      </c>
+      <c r="AS26">
+        <v>340</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="0"/>
+        <v>14025</v>
+      </c>
+      <c r="AU26">
+        <v>16</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="AW26">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="AX19">
+      <c r="AX26">
         <f t="shared" si="3"/>
-        <v>1212</v>
-      </c>
-      <c r="AY19">
-        <v>480</v>
+        <v>728</v>
+      </c>
+      <c r="AY26">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27">
+        <v>2.94</v>
+      </c>
+      <c r="M27">
+        <v>3.29</v>
+      </c>
+      <c r="N27">
+        <v>2.37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27">
+        <v>13</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>5</v>
+      </c>
+      <c r="AA27">
+        <v>9</v>
+      </c>
+      <c r="AB27">
+        <v>12</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AD27">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <v>21</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ27">
+        <v>3</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM27">
+        <v>102</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>84</v>
+      </c>
+      <c r="AP27">
+        <v>30</v>
+      </c>
+      <c r="AQ27">
+        <v>200</v>
+      </c>
+      <c r="AR27">
+        <v>90</v>
+      </c>
+      <c r="AS27">
+        <v>240</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="0"/>
+        <v>2520</v>
+      </c>
+      <c r="AU27">
+        <v>24</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="2"/>
+        <v>672</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="3"/>
+        <v>816</v>
+      </c>
+      <c r="AY27">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M28">
+        <v>3.74</v>
+      </c>
+      <c r="N28">
+        <v>1.86</v>
+      </c>
+      <c r="O28" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>7</v>
+      </c>
+      <c r="AB28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+      <c r="AD28">
+        <v>4</v>
+      </c>
+      <c r="AE28">
+        <v>12</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ28">
+        <v>5</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM28">
+        <v>237</v>
+      </c>
+      <c r="AN28">
+        <v>4</v>
+      </c>
+      <c r="AO28">
+        <v>92</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
+      <c r="AQ28">
+        <v>600</v>
+      </c>
+      <c r="AR28">
+        <v>200</v>
+      </c>
+      <c r="AS28">
+        <v>200</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+      <c r="AU28">
+        <v>16</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="3"/>
+        <v>948</v>
+      </c>
+      <c r="AY28">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/F1_spread.xlsx
+++ b/F1_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56657219-9F9F-468A-A098-87FC9545C414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A77DF-A2A6-4773-8618-0650FEE0413E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="2115" windowWidth="20355" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="218">
   <si>
     <t>Div</t>
   </si>
@@ -234,31 +234,85 @@
     <t>18</t>
   </si>
   <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>432</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>668</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>676</t>
   </si>
   <si>
     <t>F1</t>
@@ -351,6 +405,12 @@
     <t>0-2</t>
   </si>
   <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
@@ -363,21 +423,30 @@
     <t>3-0</t>
   </si>
   <si>
-    <t>6-0</t>
-  </si>
-  <si>
     <t>3-1</t>
   </si>
   <si>
-    <t>2-2</t>
-  </si>
-  <si>
     <t>4-3</t>
   </si>
   <si>
     <t>4-0</t>
   </si>
   <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>8-0</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
     <t>2-8</t>
   </si>
   <si>
@@ -411,9 +480,6 @@
     <t>0-6</t>
   </si>
   <si>
-    <t>3-2</t>
-  </si>
-  <si>
     <t>2-4</t>
   </si>
   <si>
@@ -438,12 +504,45 @@
     <t>8-3</t>
   </si>
   <si>
-    <t>2-3</t>
-  </si>
-  <si>
     <t>4-7</t>
   </si>
   <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>11-5</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -529,6 +628,60 @@
   </si>
   <si>
     <t>Lille-Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne-Lille</t>
+  </si>
+  <si>
+    <t>Marseille-Nice</t>
+  </si>
+  <si>
+    <t>Auxerre-Monaco</t>
+  </si>
+  <si>
+    <t>Paris SG-Brest</t>
+  </si>
+  <si>
+    <t>Rennes-Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes-Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg-Angers</t>
+  </si>
+  <si>
+    <t>Toulouse-Le Havre</t>
+  </si>
+  <si>
+    <t>Lens-Lyon</t>
+  </si>
+  <si>
+    <t>Nice-St Etienne</t>
+  </si>
+  <si>
+    <t>Lille-Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes-Lens</t>
+  </si>
+  <si>
+    <t>Reims-Paris SG</t>
+  </si>
+  <si>
+    <t>Monaco-Le Havre</t>
+  </si>
+  <si>
+    <t>Angers-Nantes</t>
+  </si>
+  <si>
+    <t>Brest-Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier-Auxerre</t>
+  </si>
+  <si>
+    <t>Lyon-Marseille</t>
   </si>
 </sst>
 </file>
@@ -884,60 +1037,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY28"/>
+  <dimension ref="A1:AY46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AJ26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO29" sqref="AO29"/>
+      <selection pane="bottomRight" activeCell="AO47" sqref="AO47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1097,16 +1250,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1115,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1124,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L2">
         <v>7.84</v>
@@ -1136,10 +1289,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1187,16 +1340,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AG2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1205,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="AM2">
         <v>312</v>
@@ -1252,16 +1405,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1270,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1279,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L3">
         <v>2.96</v>
@@ -1291,10 +1444,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1342,16 +1495,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="AG3" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH3" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI3" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1360,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AM3">
         <v>222</v>
@@ -1407,16 +1560,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1425,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1434,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L4">
         <v>3.36</v>
@@ -1446,10 +1599,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1497,16 +1650,16 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="AG4" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH4" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI4" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1515,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="AL4" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="AM4">
         <v>135</v>
@@ -1562,16 +1715,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1580,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1589,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L5">
         <v>1.51</v>
@@ -1601,10 +1754,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1652,16 +1805,16 @@
         <v>27</v>
       </c>
       <c r="AF5" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="AG5" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AH5" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI5" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1670,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="AM5">
         <v>29</v>
@@ -1717,16 +1870,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1735,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1744,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L6">
         <v>3.22</v>
@@ -1756,10 +1909,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -1807,16 +1960,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="AG6" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH6" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI6" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1825,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="AM6">
         <v>154</v>
@@ -1872,16 +2025,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1890,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1899,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L7">
         <v>5.66</v>
@@ -1911,10 +2064,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -1962,16 +2115,16 @@
         <v>16</v>
       </c>
       <c r="AF7" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="AG7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AH7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -1980,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="AM7">
         <v>28</v>
@@ -2027,16 +2180,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2045,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2054,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L8">
         <v>2.12</v>
@@ -2066,10 +2219,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2117,16 +2270,16 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="AG8" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH8" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI8" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ8">
         <v>7</v>
@@ -2135,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="AM8">
         <v>125</v>
@@ -2182,16 +2335,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2200,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2209,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L9">
         <v>2.11</v>
@@ -2221,10 +2374,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2272,16 +2425,16 @@
         <v>18</v>
       </c>
       <c r="AF9" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="AG9" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AH9" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI9" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ9">
         <v>4</v>
@@ -2290,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2337,16 +2490,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2355,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2364,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L10">
         <v>2.4700000000000002</v>
@@ -2376,10 +2529,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>22</v>
@@ -2427,16 +2580,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH10" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI10" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ10">
         <v>3</v>
@@ -2445,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="AM10">
         <v>130</v>
@@ -2492,16 +2645,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1">
         <v>45527</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2510,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2519,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L11">
         <v>1.25</v>
@@ -2531,10 +2684,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>21</v>
@@ -2582,16 +2735,16 @@
         <v>25</v>
       </c>
       <c r="AF11" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH11" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI11" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ11">
         <v>5</v>
@@ -2600,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AM11">
         <v>281</v>
@@ -2647,16 +2800,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2665,7 +2818,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2674,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L12">
         <v>2.62</v>
@@ -2686,10 +2839,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2737,16 +2890,16 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH12" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI12" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -2755,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2802,16 +2955,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2820,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2829,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L13">
         <v>1.33</v>
@@ -2841,10 +2994,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -2892,16 +3045,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH13" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI13" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -2910,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="AM13">
         <v>124</v>
@@ -2957,16 +3110,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2975,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2984,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L14">
         <v>2.11</v>
@@ -2996,10 +3149,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3047,16 +3200,16 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AG14" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH14" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI14" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ14">
         <v>6</v>
@@ -3065,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="AM14">
         <v>124</v>
@@ -3112,16 +3265,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1">
         <v>45529</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3130,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3139,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L15">
         <v>1.81</v>
@@ -3151,10 +3304,10 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>22</v>
@@ -3202,16 +3355,16 @@
         <v>14</v>
       </c>
       <c r="AF15" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH15" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI15" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3220,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="AL15" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="AM15">
         <v>64</v>
@@ -3267,16 +3420,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3285,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3294,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L16">
         <v>2.25</v>
@@ -3306,10 +3459,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -3357,16 +3510,16 @@
         <v>15</v>
       </c>
       <c r="AF16" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH16" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI16" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -3375,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="AM16">
         <v>104</v>
@@ -3422,16 +3575,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3440,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3449,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L17">
         <v>1.88</v>
@@ -3461,10 +3614,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -3512,16 +3665,16 @@
         <v>32</v>
       </c>
       <c r="AF17" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH17" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI17" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ17">
         <v>5</v>
@@ -3530,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AM17">
         <v>126</v>
@@ -3577,16 +3730,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3595,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3604,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L18">
         <v>3.19</v>
@@ -3616,10 +3769,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -3667,16 +3820,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="AG18" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH18" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI18" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ18">
         <v>6</v>
@@ -3685,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AM18">
         <v>215</v>
@@ -3732,16 +3885,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3750,7 +3903,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3759,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L19">
         <v>1.56</v>
@@ -3771,10 +3924,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -3822,16 +3975,16 @@
         <v>23</v>
       </c>
       <c r="AF19" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH19" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI19" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -3840,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AM19">
         <v>202</v>
@@ -3887,16 +4040,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1">
         <v>45534</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -3905,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3914,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L20">
         <v>1.89</v>
@@ -3926,10 +4079,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>22</v>
@@ -3977,16 +4130,16 @@
         <v>16</v>
       </c>
       <c r="AF20" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AG20" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH20" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI20" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -3995,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AM20">
         <v>350</v>
@@ -4019,22 +4172,18 @@
         <v>550</v>
       </c>
       <c r="AT20">
-        <f>AO20*AP20</f>
         <v>7850</v>
       </c>
       <c r="AU20">
         <v>77</v>
       </c>
       <c r="AV20">
-        <f>AN20*AO20</f>
         <v>1099</v>
       </c>
       <c r="AW20">
-        <f>AO20*AD20</f>
         <v>1727</v>
       </c>
       <c r="AX20">
-        <f>AM20*AD20</f>
         <v>3850</v>
       </c>
       <c r="AY20">
@@ -4046,16 +4195,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1">
         <v>45535</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4064,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -4073,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="L21">
         <v>1.85</v>
@@ -4085,10 +4234,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -4136,16 +4285,16 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="AG21" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH21" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI21" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4154,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AM21">
         <v>203</v>
@@ -4178,22 +4327,18 @@
         <v>450</v>
       </c>
       <c r="AT21">
-        <f t="shared" ref="AT21:AT28" si="0">AO21*AP21</f>
         <v>5050</v>
       </c>
       <c r="AU21">
         <v>36</v>
       </c>
       <c r="AV21">
-        <f t="shared" ref="AV21:AV28" si="1">AN21*AO21</f>
         <v>404</v>
       </c>
       <c r="AW21">
-        <f t="shared" ref="AW21:AW28" si="2">AO21*AD21</f>
         <v>909</v>
       </c>
       <c r="AX21">
-        <f t="shared" ref="AX21:AX28" si="3">AM21*AD21</f>
         <v>1827</v>
       </c>
       <c r="AY21">
@@ -4205,16 +4350,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1">
         <v>45535</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4223,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4232,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L22">
         <v>2.35</v>
@@ -4244,10 +4389,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="P22" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -4295,16 +4440,16 @@
         <v>24</v>
       </c>
       <c r="AF22" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AG22" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH22" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI22" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4313,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="AM22">
         <v>184</v>
@@ -4337,22 +4482,18 @@
         <v>440</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
       <c r="AU22">
         <v>44</v>
       </c>
       <c r="AV22">
-        <f t="shared" si="1"/>
         <v>420</v>
       </c>
       <c r="AW22">
-        <f t="shared" si="2"/>
         <v>1155</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="3"/>
         <v>2024</v>
       </c>
       <c r="AY22">
@@ -4364,16 +4505,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1">
         <v>45535</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4382,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4391,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L23">
         <v>4.09</v>
@@ -4403,10 +4544,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="P23" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -4454,16 +4595,16 @@
         <v>22</v>
       </c>
       <c r="AF23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH23" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI23" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ23">
         <v>6</v>
@@ -4472,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="AM23">
         <v>175</v>
@@ -4496,22 +4637,18 @@
         <v>425</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="0"/>
         <v>8840</v>
       </c>
       <c r="AU23">
         <v>20</v>
       </c>
       <c r="AV23">
-        <f t="shared" si="1"/>
         <v>416</v>
       </c>
       <c r="AW23">
-        <f t="shared" si="2"/>
         <v>520</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="3"/>
         <v>875</v>
       </c>
       <c r="AY23">
@@ -4523,16 +4660,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1">
         <v>45536</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4541,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4550,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L24">
         <v>1.83</v>
@@ -4562,10 +4699,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P24" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -4613,16 +4750,16 @@
         <v>32</v>
       </c>
       <c r="AF24" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="AG24" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH24" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AI24" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -4631,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AM24">
         <v>174</v>
@@ -4655,22 +4792,18 @@
         <v>700</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="AU24">
         <v>28</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="2"/>
         <v>490</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="3"/>
         <v>2436</v>
       </c>
       <c r="AY24">
@@ -4682,16 +4815,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>45536</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4700,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4709,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L25">
         <v>4.2</v>
@@ -4721,10 +4854,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="P25" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -4772,16 +4905,16 @@
         <v>27</v>
       </c>
       <c r="AF25" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="AG25" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH25" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI25" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ25">
         <v>10</v>
@@ -4790,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AM25">
         <v>255</v>
@@ -4814,22 +4947,18 @@
         <v>1375</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="0"/>
         <v>18875</v>
       </c>
       <c r="AU25">
         <v>55</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="1"/>
         <v>755</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="2"/>
         <v>1661</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="3"/>
         <v>2805</v>
       </c>
       <c r="AY25">
@@ -4841,16 +4970,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1">
         <v>45536</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -4859,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4868,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L26">
         <v>2.81</v>
@@ -4880,10 +5009,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>21</v>
@@ -4931,16 +5060,16 @@
         <v>25</v>
       </c>
       <c r="AF26" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="AG26" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH26" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI26" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -4949,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="AL26" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="AM26">
         <v>182</v>
@@ -4973,22 +5102,18 @@
         <v>340</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="0"/>
         <v>14025</v>
       </c>
       <c r="AU26">
         <v>16</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="1"/>
         <v>660</v>
       </c>
       <c r="AW26">
-        <f t="shared" si="2"/>
         <v>660</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="3"/>
         <v>728</v>
       </c>
       <c r="AY26">
@@ -5000,16 +5125,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>45536</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5018,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5027,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="L27">
         <v>2.94</v>
@@ -5039,10 +5164,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="P27" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -5090,16 +5215,16 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="AG27" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH27" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI27" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AJ27">
         <v>3</v>
@@ -5108,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="AM27">
         <v>102</v>
@@ -5132,22 +5257,18 @@
         <v>240</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="0"/>
         <v>2520</v>
       </c>
       <c r="AU27">
         <v>24</v>
       </c>
       <c r="AV27">
-        <f t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="AW27">
-        <f t="shared" si="2"/>
         <v>672</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="3"/>
         <v>816</v>
       </c>
       <c r="AY27">
@@ -5159,16 +5280,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>45536</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5177,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5186,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="L28">
         <v>4.3099999999999996</v>
@@ -5198,10 +5319,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="P28" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -5249,16 +5370,16 @@
         <v>12</v>
       </c>
       <c r="AF28" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="AG28" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AH28" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AI28" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AJ28">
         <v>5</v>
@@ -5267,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AM28">
         <v>237</v>
@@ -5291,26 +5412,2848 @@
         <v>200</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="0"/>
         <v>4600</v>
       </c>
       <c r="AU28">
         <v>16</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="1"/>
         <v>368</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="2"/>
         <v>368</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="3"/>
         <v>948</v>
       </c>
       <c r="AY28">
         <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29">
+        <v>5.22</v>
+      </c>
+      <c r="M29">
+        <v>3.78</v>
+      </c>
+      <c r="N29">
+        <v>1.72</v>
+      </c>
+      <c r="O29" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>17</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>2</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>12</v>
+      </c>
+      <c r="AB29">
+        <v>10</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>22</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM29">
+        <v>6</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>18</v>
+      </c>
+      <c r="AP29">
+        <v>20</v>
+      </c>
+      <c r="AQ29">
+        <v>100</v>
+      </c>
+      <c r="AR29">
+        <v>20</v>
+      </c>
+      <c r="AS29">
+        <v>180</v>
+      </c>
+      <c r="AT29">
+        <v>360</v>
+      </c>
+      <c r="AU29">
+        <v>9</v>
+      </c>
+      <c r="AV29">
+        <v>18</v>
+      </c>
+      <c r="AW29">
+        <v>162</v>
+      </c>
+      <c r="AX29">
+        <v>54</v>
+      </c>
+      <c r="AY29">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30">
+        <v>1.75</v>
+      </c>
+      <c r="M30">
+        <v>3.97</v>
+      </c>
+      <c r="N30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>5</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>18</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
+        <v>3</v>
+      </c>
+      <c r="AE30">
+        <v>22</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ30">
+        <v>7</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM30">
+        <v>93</v>
+      </c>
+      <c r="AN30">
+        <v>2</v>
+      </c>
+      <c r="AO30">
+        <v>76</v>
+      </c>
+      <c r="AP30">
+        <v>95</v>
+      </c>
+      <c r="AQ30">
+        <v>1500</v>
+      </c>
+      <c r="AR30">
+        <v>190</v>
+      </c>
+      <c r="AS30">
+        <v>285</v>
+      </c>
+      <c r="AT30">
+        <v>7220</v>
+      </c>
+      <c r="AU30">
+        <v>6</v>
+      </c>
+      <c r="AV30">
+        <v>152</v>
+      </c>
+      <c r="AW30">
+        <v>228</v>
+      </c>
+      <c r="AX30">
+        <v>279</v>
+      </c>
+      <c r="AY30">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="M31">
+        <v>3.8</v>
+      </c>
+      <c r="N31">
+        <v>1.89</v>
+      </c>
+      <c r="O31" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>19</v>
+      </c>
+      <c r="T31">
+        <v>9</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>13</v>
+      </c>
+      <c r="AB31">
+        <v>16</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AD31">
+        <v>7</v>
+      </c>
+      <c r="AE31">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ31">
+        <v>3</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM31">
+        <v>122</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>13</v>
+      </c>
+      <c r="AP31">
+        <v>30</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>90</v>
+      </c>
+      <c r="AS31">
+        <v>210</v>
+      </c>
+      <c r="AT31">
+        <v>390</v>
+      </c>
+      <c r="AU31">
+        <v>21</v>
+      </c>
+      <c r="AV31">
+        <v>39</v>
+      </c>
+      <c r="AW31">
+        <v>91</v>
+      </c>
+      <c r="AX31">
+        <v>854</v>
+      </c>
+      <c r="AY31">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32">
+        <v>1.28</v>
+      </c>
+      <c r="M32">
+        <v>6.16</v>
+      </c>
+      <c r="N32">
+        <v>9.59</v>
+      </c>
+      <c r="O32" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q32">
+        <v>22</v>
+      </c>
+      <c r="R32">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>9</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>7</v>
+      </c>
+      <c r="AB32">
+        <v>13</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32">
+        <v>20</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ32">
+        <v>5</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM32">
+        <v>218</v>
+      </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
+      <c r="AO32">
+        <v>38</v>
+      </c>
+      <c r="AP32">
+        <v>50</v>
+      </c>
+      <c r="AQ32">
+        <v>600</v>
+      </c>
+      <c r="AR32">
+        <v>200</v>
+      </c>
+      <c r="AS32">
+        <v>500</v>
+      </c>
+      <c r="AT32">
+        <v>1900</v>
+      </c>
+      <c r="AU32">
+        <v>40</v>
+      </c>
+      <c r="AV32">
+        <v>152</v>
+      </c>
+      <c r="AW32">
+        <v>380</v>
+      </c>
+      <c r="AX32">
+        <v>2180</v>
+      </c>
+      <c r="AY32">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33">
+        <v>1.63</v>
+      </c>
+      <c r="M33">
+        <v>4.26</v>
+      </c>
+      <c r="N33">
+        <v>5.16</v>
+      </c>
+      <c r="O33" t="s">
+        <v>122</v>
+      </c>
+      <c r="P33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q33">
+        <v>11</v>
+      </c>
+      <c r="R33">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>12</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>10</v>
+      </c>
+      <c r="AB33">
+        <v>7</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>7</v>
+      </c>
+      <c r="AE33">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ33">
+        <v>4</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM33">
+        <v>119</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>27</v>
+      </c>
+      <c r="AP33">
+        <v>40</v>
+      </c>
+      <c r="AQ33">
+        <v>300</v>
+      </c>
+      <c r="AR33">
+        <v>120</v>
+      </c>
+      <c r="AS33">
+        <v>280</v>
+      </c>
+      <c r="AT33">
+        <v>1080</v>
+      </c>
+      <c r="AU33">
+        <v>21</v>
+      </c>
+      <c r="AV33">
+        <v>81</v>
+      </c>
+      <c r="AW33">
+        <v>189</v>
+      </c>
+      <c r="AX33">
+        <v>833</v>
+      </c>
+      <c r="AY33">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>116</v>
+      </c>
+      <c r="L34">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M34">
+        <v>3.37</v>
+      </c>
+      <c r="N34">
+        <v>3.03</v>
+      </c>
+      <c r="O34" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q34">
+        <v>18</v>
+      </c>
+      <c r="R34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>11</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>6</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
+      </c>
+      <c r="AA34">
+        <v>14</v>
+      </c>
+      <c r="AB34">
+        <v>5</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>9</v>
+      </c>
+      <c r="AE34">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ34">
+        <v>4</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM34">
+        <v>152</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>38</v>
+      </c>
+      <c r="AP34">
+        <v>40</v>
+      </c>
+      <c r="AQ34">
+        <v>300</v>
+      </c>
+      <c r="AR34">
+        <v>120</v>
+      </c>
+      <c r="AS34">
+        <v>360</v>
+      </c>
+      <c r="AT34">
+        <v>1520</v>
+      </c>
+      <c r="AU34">
+        <v>27</v>
+      </c>
+      <c r="AV34">
+        <v>114</v>
+      </c>
+      <c r="AW34">
+        <v>342</v>
+      </c>
+      <c r="AX34">
+        <v>1368</v>
+      </c>
+      <c r="AY34">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>115</v>
+      </c>
+      <c r="L35">
+        <v>1.69</v>
+      </c>
+      <c r="M35">
+        <v>3.82</v>
+      </c>
+      <c r="N35">
+        <v>5.31</v>
+      </c>
+      <c r="O35" t="s">
+        <v>119</v>
+      </c>
+      <c r="P35" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>12</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>9</v>
+      </c>
+      <c r="AA35">
+        <v>11</v>
+      </c>
+      <c r="AB35">
+        <v>14</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+      <c r="AD35">
+        <v>15</v>
+      </c>
+      <c r="AE35">
+        <v>25</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ35">
+        <v>5</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM35">
+        <v>93</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>114</v>
+      </c>
+      <c r="AP35">
+        <v>50</v>
+      </c>
+      <c r="AQ35">
+        <v>400</v>
+      </c>
+      <c r="AR35">
+        <v>100</v>
+      </c>
+      <c r="AS35">
+        <v>750</v>
+      </c>
+      <c r="AT35">
+        <v>5700</v>
+      </c>
+      <c r="AU35">
+        <v>30</v>
+      </c>
+      <c r="AV35">
+        <v>228</v>
+      </c>
+      <c r="AW35">
+        <v>1710</v>
+      </c>
+      <c r="AX35">
+        <v>1395</v>
+      </c>
+      <c r="AY35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36">
+        <v>1.85</v>
+      </c>
+      <c r="M36">
+        <v>3.71</v>
+      </c>
+      <c r="N36">
+        <v>4.37</v>
+      </c>
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q36">
+        <v>15</v>
+      </c>
+      <c r="R36">
+        <v>7</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>6</v>
+      </c>
+      <c r="Z36">
+        <v>5</v>
+      </c>
+      <c r="AA36">
+        <v>10</v>
+      </c>
+      <c r="AB36">
+        <v>11</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>11</v>
+      </c>
+      <c r="AE36">
+        <v>21</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM36">
+        <v>156</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>90</v>
+      </c>
+      <c r="AP36">
+        <v>20</v>
+      </c>
+      <c r="AQ36">
+        <v>100</v>
+      </c>
+      <c r="AR36">
+        <v>40</v>
+      </c>
+      <c r="AS36">
+        <v>220</v>
+      </c>
+      <c r="AT36">
+        <v>1800</v>
+      </c>
+      <c r="AU36">
+        <v>22</v>
+      </c>
+      <c r="AV36">
+        <v>180</v>
+      </c>
+      <c r="AW36">
+        <v>990</v>
+      </c>
+      <c r="AX36">
+        <v>1716</v>
+      </c>
+      <c r="AY36">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37">
+        <v>1.86</v>
+      </c>
+      <c r="M37">
+        <v>3.8</v>
+      </c>
+      <c r="N37">
+        <v>4.18</v>
+      </c>
+      <c r="O37" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q37">
+        <v>12</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>5</v>
+      </c>
+      <c r="Z37">
+        <v>8</v>
+      </c>
+      <c r="AA37">
+        <v>12</v>
+      </c>
+      <c r="AB37">
+        <v>11</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>13</v>
+      </c>
+      <c r="AE37">
+        <v>23</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38">
+        <v>1.55</v>
+      </c>
+      <c r="M38">
+        <v>4.25</v>
+      </c>
+      <c r="N38">
+        <v>6.57</v>
+      </c>
+      <c r="O38" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38">
+        <v>18</v>
+      </c>
+      <c r="R38">
+        <v>12</v>
+      </c>
+      <c r="S38">
+        <v>8</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>7</v>
+      </c>
+      <c r="AB38">
+        <v>13</v>
+      </c>
+      <c r="AC38">
+        <v>8</v>
+      </c>
+      <c r="AD38">
+        <v>5</v>
+      </c>
+      <c r="AE38">
+        <v>20</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM38">
+        <v>297</v>
+      </c>
+      <c r="AN38">
+        <v>8</v>
+      </c>
+      <c r="AO38">
+        <v>145</v>
+      </c>
+      <c r="AP38">
+        <v>10</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>80</v>
+      </c>
+      <c r="AS38">
+        <v>50</v>
+      </c>
+      <c r="AT38">
+        <f>AO38*AP38</f>
+        <v>1450</v>
+      </c>
+      <c r="AU38">
+        <v>40</v>
+      </c>
+      <c r="AV38">
+        <f>AN38*AO38</f>
+        <v>1160</v>
+      </c>
+      <c r="AW38">
+        <f>AO38*AD38</f>
+        <v>725</v>
+      </c>
+      <c r="AX38">
+        <f>AM38*AD38</f>
+        <v>1485</v>
+      </c>
+      <c r="AY38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>116</v>
+      </c>
+      <c r="L39">
+        <v>1.74</v>
+      </c>
+      <c r="M39">
+        <v>3.88</v>
+      </c>
+      <c r="N39">
+        <v>4.93</v>
+      </c>
+      <c r="O39" t="s">
+        <v>126</v>
+      </c>
+      <c r="P39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q39">
+        <v>15</v>
+      </c>
+      <c r="R39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>12</v>
+      </c>
+      <c r="T39">
+        <v>9</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>9</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
+      </c>
+      <c r="AA39">
+        <v>16</v>
+      </c>
+      <c r="AB39">
+        <v>12</v>
+      </c>
+      <c r="AC39">
+        <v>6</v>
+      </c>
+      <c r="AD39">
+        <v>14</v>
+      </c>
+      <c r="AE39">
+        <v>28</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ39">
+        <v>4</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM39">
+        <v>264</v>
+      </c>
+      <c r="AN39">
+        <v>6</v>
+      </c>
+      <c r="AO39">
+        <v>88</v>
+      </c>
+      <c r="AP39">
+        <v>40</v>
+      </c>
+      <c r="AQ39">
+        <v>400</v>
+      </c>
+      <c r="AR39">
+        <v>240</v>
+      </c>
+      <c r="AS39">
+        <v>560</v>
+      </c>
+      <c r="AT39">
+        <f t="shared" ref="AT39:AT46" si="0">AO39*AP39</f>
+        <v>3520</v>
+      </c>
+      <c r="AU39">
+        <v>84</v>
+      </c>
+      <c r="AV39">
+        <f t="shared" ref="AV39:AV46" si="1">AN39*AO39</f>
+        <v>528</v>
+      </c>
+      <c r="AW39">
+        <f t="shared" ref="AW39:AW46" si="2">AO39*AD39</f>
+        <v>1232</v>
+      </c>
+      <c r="AX39">
+        <f t="shared" ref="AX39:AX46" si="3">AM39*AD39</f>
+        <v>3696</v>
+      </c>
+      <c r="AY39">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40">
+        <v>2.44</v>
+      </c>
+      <c r="M40">
+        <v>3.34</v>
+      </c>
+      <c r="N40">
+        <v>3.09</v>
+      </c>
+      <c r="O40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q40">
+        <v>11</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>4</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>4</v>
+      </c>
+      <c r="Z40">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>16</v>
+      </c>
+      <c r="AB40">
+        <v>20</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>7</v>
+      </c>
+      <c r="AE40">
+        <v>36</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ40">
+        <v>6</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM40">
+        <v>114</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>17</v>
+      </c>
+      <c r="AP40">
+        <v>60</v>
+      </c>
+      <c r="AQ40">
+        <v>800</v>
+      </c>
+      <c r="AR40">
+        <v>120</v>
+      </c>
+      <c r="AS40">
+        <v>420</v>
+      </c>
+      <c r="AT40">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="AU40">
+        <v>14</v>
+      </c>
+      <c r="AV40">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="AW40">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="AX40">
+        <f t="shared" si="3"/>
+        <v>798</v>
+      </c>
+      <c r="AY40">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41">
+        <v>6.91</v>
+      </c>
+      <c r="M41">
+        <v>5.01</v>
+      </c>
+      <c r="N41">
+        <v>1.44</v>
+      </c>
+      <c r="O41" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q41">
+        <v>8</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>11</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>11</v>
+      </c>
+      <c r="AB41">
+        <v>6</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>17</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ41">
+        <v>3</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM41">
+        <v>77</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>27</v>
+      </c>
+      <c r="AP41">
+        <v>30</v>
+      </c>
+      <c r="AQ41">
+        <v>200</v>
+      </c>
+      <c r="AR41">
+        <v>60</v>
+      </c>
+      <c r="AS41">
+        <v>240</v>
+      </c>
+      <c r="AT41">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="AU41">
+        <v>16</v>
+      </c>
+      <c r="AV41">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="AW41">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="AX41">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
+      <c r="AY41">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42">
+        <v>1.38</v>
+      </c>
+      <c r="M42">
+        <v>5.23</v>
+      </c>
+      <c r="N42">
+        <v>8.11</v>
+      </c>
+      <c r="O42" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q42">
+        <v>14</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>9</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>6</v>
+      </c>
+      <c r="Z42">
+        <v>4</v>
+      </c>
+      <c r="AA42">
+        <v>10</v>
+      </c>
+      <c r="AB42">
+        <v>17</v>
+      </c>
+      <c r="AC42">
+        <v>4</v>
+      </c>
+      <c r="AD42">
+        <v>10</v>
+      </c>
+      <c r="AE42">
+        <v>27</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ42">
+        <v>4</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM42">
+        <v>175</v>
+      </c>
+      <c r="AN42">
+        <v>4</v>
+      </c>
+      <c r="AO42">
+        <v>34</v>
+      </c>
+      <c r="AP42">
+        <v>40</v>
+      </c>
+      <c r="AQ42">
+        <v>300</v>
+      </c>
+      <c r="AR42">
+        <v>160</v>
+      </c>
+      <c r="AS42">
+        <v>400</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+      <c r="AU42">
+        <v>40</v>
+      </c>
+      <c r="AV42">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="AX42">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+      <c r="AY42">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43">
+        <v>3.32</v>
+      </c>
+      <c r="M43">
+        <v>3.2</v>
+      </c>
+      <c r="N43">
+        <v>2.39</v>
+      </c>
+      <c r="O43" t="s">
+        <v>120</v>
+      </c>
+      <c r="P43" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>9</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>4</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>6</v>
+      </c>
+      <c r="AA43">
+        <v>13</v>
+      </c>
+      <c r="AB43">
+        <v>16</v>
+      </c>
+      <c r="AC43">
+        <v>2</v>
+      </c>
+      <c r="AD43">
+        <v>9</v>
+      </c>
+      <c r="AE43">
+        <v>29</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ43">
+        <v>5</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM43">
+        <v>42</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>18</v>
+      </c>
+      <c r="AP43">
+        <v>50</v>
+      </c>
+      <c r="AQ43">
+        <v>400</v>
+      </c>
+      <c r="AR43">
+        <v>100</v>
+      </c>
+      <c r="AS43">
+        <v>450</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="AU43">
+        <v>18</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="AY43">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44">
+        <v>2.16</v>
+      </c>
+      <c r="M44">
+        <v>3.57</v>
+      </c>
+      <c r="N44">
+        <v>3.44</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q44">
+        <v>9</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>4</v>
+      </c>
+      <c r="Z44">
+        <v>3</v>
+      </c>
+      <c r="AA44">
+        <v>15</v>
+      </c>
+      <c r="AB44">
+        <v>18</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>33</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM44">
+        <v>111</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
+        <v>35</v>
+      </c>
+      <c r="AP44">
+        <v>20</v>
+      </c>
+      <c r="AQ44">
+        <v>100</v>
+      </c>
+      <c r="AR44">
+        <v>40</v>
+      </c>
+      <c r="AS44">
+        <v>140</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="AU44">
+        <v>14</v>
+      </c>
+      <c r="AV44">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="AX44">
+        <f t="shared" si="3"/>
+        <v>777</v>
+      </c>
+      <c r="AY44">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>114</v>
+      </c>
+      <c r="L45">
+        <v>2.39</v>
+      </c>
+      <c r="M45">
+        <v>3.37</v>
+      </c>
+      <c r="N45">
+        <v>3.14</v>
+      </c>
+      <c r="O45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q45">
+        <v>14</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+      <c r="V45">
+        <v>4</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>11</v>
+      </c>
+      <c r="Z45">
+        <v>5</v>
+      </c>
+      <c r="AA45">
+        <v>13</v>
+      </c>
+      <c r="AB45">
+        <v>20</v>
+      </c>
+      <c r="AC45">
+        <v>5</v>
+      </c>
+      <c r="AD45">
+        <v>16</v>
+      </c>
+      <c r="AE45">
+        <v>33</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ45">
+        <v>7</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM45">
+        <v>301</v>
+      </c>
+      <c r="AN45">
+        <v>5</v>
+      </c>
+      <c r="AO45">
+        <v>91</v>
+      </c>
+      <c r="AP45">
+        <v>70</v>
+      </c>
+      <c r="AQ45">
+        <v>1200</v>
+      </c>
+      <c r="AR45">
+        <v>350</v>
+      </c>
+      <c r="AS45">
+        <v>1120</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="0"/>
+        <v>6370</v>
+      </c>
+      <c r="AU45">
+        <v>80</v>
+      </c>
+      <c r="AV45">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="2"/>
+        <v>1456</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="3"/>
+        <v>4816</v>
+      </c>
+      <c r="AY45">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46">
+        <v>3.06</v>
+      </c>
+      <c r="M46">
+        <v>3.91</v>
+      </c>
+      <c r="N46">
+        <v>2.21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q46">
+        <v>18</v>
+      </c>
+      <c r="R46">
+        <v>9</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <v>4</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>10</v>
+      </c>
+      <c r="Z46">
+        <v>3</v>
+      </c>
+      <c r="AA46">
+        <v>13</v>
+      </c>
+      <c r="AB46">
+        <v>7</v>
+      </c>
+      <c r="AC46">
+        <v>5</v>
+      </c>
+      <c r="AD46">
+        <v>13</v>
+      </c>
+      <c r="AE46">
+        <v>20</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ46">
+        <v>7</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM46">
+        <v>384</v>
+      </c>
+      <c r="AN46">
+        <v>5</v>
+      </c>
+      <c r="AO46">
+        <v>125</v>
+      </c>
+      <c r="AP46">
+        <v>95</v>
+      </c>
+      <c r="AQ46">
+        <v>2200</v>
+      </c>
+      <c r="AR46">
+        <v>475</v>
+      </c>
+      <c r="AS46">
+        <v>1235</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="0"/>
+        <v>11875</v>
+      </c>
+      <c r="AU46">
+        <v>65</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="2"/>
+        <v>1625</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="3"/>
+        <v>4992</v>
+      </c>
+      <c r="AY46">
+        <v>6175</v>
       </c>
     </row>
   </sheetData>

--- a/F1_spread.xlsx
+++ b/F1_spread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A77DF-A2A6-4773-8618-0650FEE0413E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF2BC0C-93DA-4042-80AD-5113374BCC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2115" windowWidth="20355" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="239">
   <si>
     <t>Div</t>
   </si>
@@ -288,31 +288,58 @@
     <t>36</t>
   </si>
   <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>674</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>676</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>789</t>
   </si>
   <si>
     <t>F1</t>
@@ -543,6 +570,15 @@
     <t>10-3</t>
   </si>
   <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -682,6 +718,33 @@
   </si>
   <si>
     <t>Lyon-Marseille</t>
+  </si>
+  <si>
+    <t>Auxerre-Brest</t>
+  </si>
+  <si>
+    <t>Paris SG-Rennes</t>
+  </si>
+  <si>
+    <t>Lens-Nice</t>
+  </si>
+  <si>
+    <t>Le Havre-Lille</t>
+  </si>
+  <si>
+    <t>Monaco-Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse-Lyon</t>
+  </si>
+  <si>
+    <t>Angers-Reims</t>
+  </si>
+  <si>
+    <t>Nantes-St Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg-Marseille</t>
   </si>
 </sst>
 </file>
@@ -1037,60 +1100,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY46"/>
+  <dimension ref="A1:AY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AJ26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AA38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO47" sqref="AO47"/>
+      <selection pane="bottomRight" activeCell="AO56" sqref="AO56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1250,16 +1313,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1268,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1277,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L2">
         <v>7.84</v>
@@ -1289,10 +1352,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1340,16 +1403,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AG2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1358,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="AM2">
         <v>312</v>
@@ -1405,16 +1468,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1423,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1432,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L3">
         <v>2.96</v>
@@ -1444,10 +1507,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="O3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1495,16 +1558,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AG3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1513,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AM3">
         <v>222</v>
@@ -1560,16 +1623,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1578,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1587,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L4">
         <v>3.36</v>
@@ -1599,10 +1662,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1650,16 +1713,16 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH4" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI4" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1668,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AL4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AM4">
         <v>135</v>
@@ -1715,16 +1778,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1733,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1742,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L5">
         <v>1.51</v>
@@ -1754,10 +1817,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1805,16 +1868,16 @@
         <v>27</v>
       </c>
       <c r="AF5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AH5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1823,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AM5">
         <v>29</v>
@@ -1870,16 +1933,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1888,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1897,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L6">
         <v>3.22</v>
@@ -1909,10 +1972,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -1960,16 +2023,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AG6" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH6" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1978,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="AM6">
         <v>154</v>
@@ -2025,16 +2088,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2043,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2052,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L7">
         <v>5.66</v>
@@ -2064,10 +2127,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2115,16 +2178,16 @@
         <v>16</v>
       </c>
       <c r="AF7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AG7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AH7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2133,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AM7">
         <v>28</v>
@@ -2180,16 +2243,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2198,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2207,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L8">
         <v>2.12</v>
@@ -2219,10 +2282,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2270,16 +2333,16 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AG8" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH8" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI8" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ8">
         <v>7</v>
@@ -2288,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="AM8">
         <v>125</v>
@@ -2335,16 +2398,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2353,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2362,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L9">
         <v>2.11</v>
@@ -2374,10 +2437,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2425,16 +2488,16 @@
         <v>18</v>
       </c>
       <c r="AF9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AG9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AH9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ9">
         <v>4</v>
@@ -2443,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2490,16 +2553,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2508,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2517,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10">
         <v>2.4700000000000002</v>
@@ -2529,10 +2592,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>22</v>
@@ -2580,16 +2643,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AG10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI10" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ10">
         <v>3</v>
@@ -2598,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AM10">
         <v>130</v>
@@ -2645,16 +2708,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1">
         <v>45527</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2663,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2672,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L11">
         <v>1.25</v>
@@ -2684,10 +2747,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>21</v>
@@ -2735,16 +2798,16 @@
         <v>25</v>
       </c>
       <c r="AF11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH11" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI11" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ11">
         <v>5</v>
@@ -2753,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AM11">
         <v>281</v>
@@ -2800,16 +2863,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2818,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2827,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L12">
         <v>2.62</v>
@@ -2839,10 +2902,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2890,16 +2953,16 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH12" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI12" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -2908,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -2955,16 +3018,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2973,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2982,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L13">
         <v>1.33</v>
@@ -2994,10 +3057,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3045,16 +3108,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AG13" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH13" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI13" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -3063,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="AM13">
         <v>124</v>
@@ -3110,16 +3173,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3128,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3137,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L14">
         <v>2.11</v>
@@ -3149,10 +3212,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3200,16 +3263,16 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH14" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI14" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ14">
         <v>6</v>
@@ -3218,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AM14">
         <v>124</v>
@@ -3265,16 +3328,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1">
         <v>45529</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3283,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3292,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L15">
         <v>1.81</v>
@@ -3304,10 +3367,10 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>22</v>
@@ -3355,16 +3418,16 @@
         <v>14</v>
       </c>
       <c r="AF15" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH15" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI15" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3373,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="AL15" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="AM15">
         <v>64</v>
@@ -3420,16 +3483,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3438,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3447,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L16">
         <v>2.25</v>
@@ -3459,10 +3522,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -3510,16 +3573,16 @@
         <v>15</v>
       </c>
       <c r="AF16" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG16" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH16" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI16" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -3528,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AM16">
         <v>104</v>
@@ -3575,16 +3638,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3593,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3602,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L17">
         <v>1.88</v>
@@ -3614,10 +3677,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -3665,16 +3728,16 @@
         <v>32</v>
       </c>
       <c r="AF17" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AG17" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH17" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI17" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ17">
         <v>5</v>
@@ -3683,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AM17">
         <v>126</v>
@@ -3730,16 +3793,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3748,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3757,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L18">
         <v>3.19</v>
@@ -3769,10 +3832,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="O18" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -3820,16 +3883,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH18" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI18" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ18">
         <v>6</v>
@@ -3838,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AM18">
         <v>215</v>
@@ -3885,16 +3948,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3903,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3912,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L19">
         <v>1.56</v>
@@ -3924,10 +3987,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -3975,16 +4038,16 @@
         <v>23</v>
       </c>
       <c r="AF19" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH19" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI19" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -3993,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AM19">
         <v>202</v>
@@ -4040,16 +4103,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1">
         <v>45534</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -4058,7 +4121,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4067,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L20">
         <v>1.89</v>
@@ -4079,10 +4142,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>22</v>
@@ -4130,16 +4193,16 @@
         <v>16</v>
       </c>
       <c r="AF20" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AG20" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH20" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI20" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4148,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AM20">
         <v>350</v>
@@ -4195,16 +4258,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1">
         <v>45535</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4213,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -4222,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L21">
         <v>1.85</v>
@@ -4234,10 +4297,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -4285,16 +4348,16 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH21" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI21" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4303,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AM21">
         <v>203</v>
@@ -4350,16 +4413,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1">
         <v>45535</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4368,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4377,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L22">
         <v>2.35</v>
@@ -4389,10 +4452,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -4440,16 +4503,16 @@
         <v>24</v>
       </c>
       <c r="AF22" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH22" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI22" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4458,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AM22">
         <v>184</v>
@@ -4505,16 +4568,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1">
         <v>45535</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4523,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4532,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L23">
         <v>4.09</v>
@@ -4544,10 +4607,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -4595,16 +4658,16 @@
         <v>22</v>
       </c>
       <c r="AF23" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AG23" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH23" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI23" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ23">
         <v>6</v>
@@ -4613,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AM23">
         <v>175</v>
@@ -4660,16 +4723,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1">
         <v>45536</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4678,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4687,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L24">
         <v>1.83</v>
@@ -4699,10 +4762,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -4750,16 +4813,16 @@
         <v>32</v>
       </c>
       <c r="AF24" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AG24" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH24" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI24" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -4768,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AM24">
         <v>174</v>
@@ -4815,16 +4878,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1">
         <v>45536</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4833,7 +4896,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4842,7 +4905,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L25">
         <v>4.2</v>
@@ -4854,10 +4917,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -4905,16 +4968,16 @@
         <v>27</v>
       </c>
       <c r="AF25" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AG25" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH25" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI25" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ25">
         <v>10</v>
@@ -4923,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AM25">
         <v>255</v>
@@ -4970,16 +5033,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1">
         <v>45536</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -4988,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4997,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L26">
         <v>2.81</v>
@@ -5009,10 +5072,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>21</v>
@@ -5060,16 +5123,16 @@
         <v>25</v>
       </c>
       <c r="AF26" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AG26" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH26" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI26" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -5078,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="AL26" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AM26">
         <v>182</v>
@@ -5125,16 +5188,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1">
         <v>45536</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5143,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5152,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L27">
         <v>2.94</v>
@@ -5164,10 +5227,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -5215,16 +5278,16 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AG27" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH27" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI27" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ27">
         <v>3</v>
@@ -5233,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AM27">
         <v>102</v>
@@ -5280,16 +5343,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1">
         <v>45536</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5298,7 +5361,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5307,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L28">
         <v>4.3099999999999996</v>
@@ -5319,10 +5382,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P28" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -5370,16 +5433,16 @@
         <v>12</v>
       </c>
       <c r="AF28" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AG28" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH28" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI28" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ28">
         <v>5</v>
@@ -5388,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AM28">
         <v>237</v>
@@ -5435,16 +5498,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C29" s="1">
         <v>45548</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5453,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5462,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L29">
         <v>5.22</v>
@@ -5474,10 +5537,10 @@
         <v>1.72</v>
       </c>
       <c r="O29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -5525,16 +5588,16 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AG29" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AH29" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI29" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ29">
         <v>2</v>
@@ -5543,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AM29">
         <v>6</v>
@@ -5590,16 +5653,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1">
         <v>45549</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5608,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5617,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L30">
         <v>1.75</v>
@@ -5629,10 +5692,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -5680,16 +5743,16 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AG30" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH30" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI30" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ30">
         <v>7</v>
@@ -5698,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="AL30" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AM30">
         <v>93</v>
@@ -5745,16 +5808,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1">
         <v>45549</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5763,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5772,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L31">
         <v>4.0199999999999996</v>
@@ -5784,10 +5847,10 @@
         <v>1.89</v>
       </c>
       <c r="O31" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -5835,16 +5898,16 @@
         <v>29</v>
       </c>
       <c r="AF31" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AG31" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH31" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI31" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -5853,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AM31">
         <v>122</v>
@@ -5900,16 +5963,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C32" s="1">
         <v>45549</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -5918,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5927,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L32">
         <v>1.28</v>
@@ -5939,10 +6002,10 @@
         <v>9.59</v>
       </c>
       <c r="O32" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>22</v>
@@ -5990,16 +6053,16 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AG32" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH32" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI32" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ32">
         <v>5</v>
@@ -6008,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AM32">
         <v>218</v>
@@ -6055,16 +6118,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C33" s="1">
         <v>45550</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -6073,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -6082,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L33">
         <v>1.63</v>
@@ -6094,10 +6157,10 @@
         <v>5.16</v>
       </c>
       <c r="O33" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>11</v>
@@ -6145,16 +6208,16 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AG33" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH33" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI33" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ33">
         <v>4</v>
@@ -6163,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AM33">
         <v>119</v>
@@ -6210,16 +6273,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1">
         <v>45550</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -6228,7 +6291,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6237,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L34">
         <v>2.4300000000000002</v>
@@ -6249,10 +6312,10 @@
         <v>3.03</v>
       </c>
       <c r="O34" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q34">
         <v>18</v>
@@ -6300,16 +6363,16 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG34" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH34" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI34" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ34">
         <v>4</v>
@@ -6318,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AM34">
         <v>152</v>
@@ -6365,16 +6428,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1">
         <v>45550</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6383,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6392,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L35">
         <v>1.69</v>
@@ -6404,10 +6467,10 @@
         <v>5.31</v>
       </c>
       <c r="O35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P35" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -6455,16 +6518,16 @@
         <v>25</v>
       </c>
       <c r="AF35" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG35" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH35" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI35" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ35">
         <v>5</v>
@@ -6473,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AM35">
         <v>93</v>
@@ -6520,16 +6583,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1">
         <v>45550</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6538,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6547,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L36">
         <v>1.85</v>
@@ -6559,10 +6622,10 @@
         <v>4.37</v>
       </c>
       <c r="O36" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P36" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -6610,16 +6673,16 @@
         <v>21</v>
       </c>
       <c r="AF36" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG36" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH36" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI36" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ36">
         <v>2</v>
@@ -6628,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AM36">
         <v>156</v>
@@ -6675,16 +6738,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1">
         <v>45550</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6693,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6702,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L37">
         <v>1.86</v>
@@ -6714,10 +6777,10 @@
         <v>4.18</v>
       </c>
       <c r="O37" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P37" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Q37">
         <v>12</v>
@@ -6765,16 +6828,16 @@
         <v>23</v>
       </c>
       <c r="AF37" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AG37" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AH37" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI37" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ37">
         <v>0</v>
@@ -6783,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -6830,16 +6893,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1">
         <v>45555</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -6848,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -6857,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L38">
         <v>1.55</v>
@@ -6869,10 +6932,10 @@
         <v>6.57</v>
       </c>
       <c r="O38" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>18</v>
@@ -6920,16 +6983,16 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AG38" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH38" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI38" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ38">
         <v>1</v>
@@ -6938,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AM38">
         <v>297</v>
@@ -6962,22 +7025,18 @@
         <v>50</v>
       </c>
       <c r="AT38">
-        <f>AO38*AP38</f>
         <v>1450</v>
       </c>
       <c r="AU38">
         <v>40</v>
       </c>
       <c r="AV38">
-        <f>AN38*AO38</f>
         <v>1160</v>
       </c>
       <c r="AW38">
-        <f>AO38*AD38</f>
         <v>725</v>
       </c>
       <c r="AX38">
-        <f>AM38*AD38</f>
         <v>1485</v>
       </c>
       <c r="AY38">
@@ -6989,16 +7048,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1">
         <v>45556</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -7007,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -7016,7 +7075,7 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L39">
         <v>1.74</v>
@@ -7028,10 +7087,10 @@
         <v>4.93</v>
       </c>
       <c r="O39" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>15</v>
@@ -7079,16 +7138,16 @@
         <v>28</v>
       </c>
       <c r="AF39" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AG39" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH39" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI39" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ39">
         <v>4</v>
@@ -7097,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AM39">
         <v>264</v>
@@ -7121,22 +7180,18 @@
         <v>560</v>
       </c>
       <c r="AT39">
-        <f t="shared" ref="AT39:AT46" si="0">AO39*AP39</f>
         <v>3520</v>
       </c>
       <c r="AU39">
         <v>84</v>
       </c>
       <c r="AV39">
-        <f t="shared" ref="AV39:AV46" si="1">AN39*AO39</f>
         <v>528</v>
       </c>
       <c r="AW39">
-        <f t="shared" ref="AW39:AW46" si="2">AO39*AD39</f>
         <v>1232</v>
       </c>
       <c r="AX39">
-        <f t="shared" ref="AX39:AX46" si="3">AM39*AD39</f>
         <v>3696</v>
       </c>
       <c r="AY39">
@@ -7148,16 +7203,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C40" s="1">
         <v>45556</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -7166,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -7175,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L40">
         <v>2.44</v>
@@ -7187,10 +7242,10 @@
         <v>3.09</v>
       </c>
       <c r="O40" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P40" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q40">
         <v>11</v>
@@ -7238,16 +7293,16 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AG40" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH40" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI40" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ40">
         <v>6</v>
@@ -7256,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AM40">
         <v>114</v>
@@ -7280,22 +7335,18 @@
         <v>420</v>
       </c>
       <c r="AT40">
-        <f t="shared" si="0"/>
         <v>1020</v>
       </c>
       <c r="AU40">
         <v>14</v>
       </c>
       <c r="AV40">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="AW40">
-        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="AX40">
-        <f t="shared" si="3"/>
         <v>798</v>
       </c>
       <c r="AY40">
@@ -7307,16 +7358,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1">
         <v>45556</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7325,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7334,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L41">
         <v>6.91</v>
@@ -7346,10 +7397,10 @@
         <v>1.44</v>
       </c>
       <c r="O41" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P41" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -7397,16 +7448,16 @@
         <v>17</v>
       </c>
       <c r="AF41" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AG41" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH41" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI41" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ41">
         <v>3</v>
@@ -7415,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AM41">
         <v>77</v>
@@ -7439,22 +7490,18 @@
         <v>240</v>
       </c>
       <c r="AT41">
-        <f t="shared" si="0"/>
         <v>810</v>
       </c>
       <c r="AU41">
         <v>16</v>
       </c>
       <c r="AV41">
-        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="AW41">
-        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="AX41">
-        <f t="shared" si="3"/>
         <v>616</v>
       </c>
       <c r="AY41">
@@ -7466,16 +7513,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C42" s="1">
         <v>45557</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -7484,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -7493,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L42">
         <v>1.38</v>
@@ -7505,10 +7552,10 @@
         <v>8.11</v>
       </c>
       <c r="O42" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P42" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q42">
         <v>14</v>
@@ -7556,16 +7603,16 @@
         <v>27</v>
       </c>
       <c r="AF42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AG42" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH42" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI42" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ42">
         <v>4</v>
@@ -7574,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AM42">
         <v>175</v>
@@ -7598,22 +7645,18 @@
         <v>400</v>
       </c>
       <c r="AT42">
-        <f t="shared" si="0"/>
         <v>1360</v>
       </c>
       <c r="AU42">
         <v>40</v>
       </c>
       <c r="AV42">
-        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="AW42">
-        <f t="shared" si="2"/>
         <v>340</v>
       </c>
       <c r="AX42">
-        <f t="shared" si="3"/>
         <v>1750</v>
       </c>
       <c r="AY42">
@@ -7625,16 +7668,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1">
         <v>45557</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -7643,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7652,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L43">
         <v>3.32</v>
@@ -7664,10 +7707,10 @@
         <v>2.39</v>
       </c>
       <c r="O43" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="P43" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -7715,16 +7758,16 @@
         <v>29</v>
       </c>
       <c r="AF43" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG43" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH43" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI43" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ43">
         <v>5</v>
@@ -7733,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AM43">
         <v>42</v>
@@ -7757,22 +7800,18 @@
         <v>450</v>
       </c>
       <c r="AT43">
-        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="AU43">
         <v>18</v>
       </c>
       <c r="AV43">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="AW43">
-        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="AX43">
-        <f t="shared" si="3"/>
         <v>378</v>
       </c>
       <c r="AY43">
@@ -7784,16 +7823,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C44" s="1">
         <v>45557</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -7802,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -7811,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L44">
         <v>2.16</v>
@@ -7823,10 +7862,10 @@
         <v>3.44</v>
       </c>
       <c r="O44" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P44" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -7874,16 +7913,16 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AG44" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH44" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AI44" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AJ44">
         <v>2</v>
@@ -7892,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AM44">
         <v>111</v>
@@ -7916,22 +7955,18 @@
         <v>140</v>
       </c>
       <c r="AT44">
-        <f t="shared" si="0"/>
         <v>700</v>
       </c>
       <c r="AU44">
         <v>14</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="AW44">
-        <f t="shared" si="2"/>
         <v>245</v>
       </c>
       <c r="AX44">
-        <f t="shared" si="3"/>
         <v>777</v>
       </c>
       <c r="AY44">
@@ -7943,16 +7978,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1">
         <v>45557</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -7961,7 +7996,7 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -7970,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L45">
         <v>2.39</v>
@@ -7982,10 +8017,10 @@
         <v>3.14</v>
       </c>
       <c r="O45" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P45" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>14</v>
@@ -8033,16 +8068,16 @@
         <v>33</v>
       </c>
       <c r="AF45" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AG45" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH45" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI45" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ45">
         <v>7</v>
@@ -8051,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AM45">
         <v>301</v>
@@ -8075,22 +8110,18 @@
         <v>1120</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="0"/>
         <v>6370</v>
       </c>
       <c r="AU45">
         <v>80</v>
       </c>
       <c r="AV45">
-        <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="AW45">
-        <f t="shared" si="2"/>
         <v>1456</v>
       </c>
       <c r="AX45">
-        <f t="shared" si="3"/>
         <v>4816</v>
       </c>
       <c r="AY45">
@@ -8102,16 +8133,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1">
         <v>45557</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -8120,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -8129,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L46">
         <v>3.06</v>
@@ -8141,10 +8172,10 @@
         <v>2.21</v>
       </c>
       <c r="O46" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P46" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>18</v>
@@ -8192,16 +8223,16 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG46" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AH46" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AI46" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="AJ46">
         <v>7</v>
@@ -8210,7 +8241,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AM46">
         <v>384</v>
@@ -8234,26 +8265,1453 @@
         <v>1235</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="0"/>
         <v>11875</v>
       </c>
       <c r="AU46">
         <v>65</v>
       </c>
       <c r="AV46">
-        <f t="shared" si="1"/>
         <v>625</v>
       </c>
       <c r="AW46">
-        <f t="shared" si="2"/>
         <v>1625</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="3"/>
         <v>4992</v>
       </c>
       <c r="AY46">
         <v>6175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45562</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47">
+        <v>2.86</v>
+      </c>
+      <c r="M47">
+        <v>3.38</v>
+      </c>
+      <c r="N47">
+        <v>2.62</v>
+      </c>
+      <c r="O47" t="s">
+        <v>131</v>
+      </c>
+      <c r="P47" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q47">
+        <v>15</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <v>3</v>
+      </c>
+      <c r="AA47">
+        <v>13</v>
+      </c>
+      <c r="AB47">
+        <v>16</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47">
+        <v>5</v>
+      </c>
+      <c r="AE47">
+        <v>29</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM47">
+        <v>122</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>71</v>
+      </c>
+      <c r="AP47">
+        <v>20</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>60</v>
+      </c>
+      <c r="AS47">
+        <v>100</v>
+      </c>
+      <c r="AT47">
+        <f>AO47*AP47</f>
+        <v>1420</v>
+      </c>
+      <c r="AU47">
+        <v>15</v>
+      </c>
+      <c r="AV47">
+        <f>AN47*AO47</f>
+        <v>213</v>
+      </c>
+      <c r="AW47">
+        <f>AO47*AD47</f>
+        <v>355</v>
+      </c>
+      <c r="AX47">
+        <f>AM47*AD47</f>
+        <v>610</v>
+      </c>
+      <c r="AY47">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45562</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48">
+        <v>1.37</v>
+      </c>
+      <c r="M48">
+        <v>5.3</v>
+      </c>
+      <c r="N48">
+        <v>8.67</v>
+      </c>
+      <c r="O48" t="s">
+        <v>128</v>
+      </c>
+      <c r="P48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q48">
+        <v>22</v>
+      </c>
+      <c r="R48">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>13</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>6</v>
+      </c>
+      <c r="Z48">
+        <v>4</v>
+      </c>
+      <c r="AA48">
+        <v>9</v>
+      </c>
+      <c r="AB48">
+        <v>11</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AD48">
+        <v>10</v>
+      </c>
+      <c r="AE48">
+        <v>20</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ48">
+        <v>4</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM48">
+        <v>231</v>
+      </c>
+      <c r="AN48">
+        <v>4</v>
+      </c>
+      <c r="AO48">
+        <v>86</v>
+      </c>
+      <c r="AP48">
+        <v>40</v>
+      </c>
+      <c r="AQ48">
+        <v>300</v>
+      </c>
+      <c r="AR48">
+        <v>160</v>
+      </c>
+      <c r="AS48">
+        <v>400</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" ref="AT48:AT55" si="0">AO48*AP48</f>
+        <v>3440</v>
+      </c>
+      <c r="AU48">
+        <v>40</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" ref="AV48:AV55" si="1">AN48*AO48</f>
+        <v>344</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" ref="AW48:AW55" si="2">AO48*AD48</f>
+        <v>860</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" ref="AX48:AX55" si="3">AM48*AD48</f>
+        <v>2310</v>
+      </c>
+      <c r="AY48">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49">
+        <v>2.08</v>
+      </c>
+      <c r="M49">
+        <v>3.42</v>
+      </c>
+      <c r="N49">
+        <v>3.83</v>
+      </c>
+      <c r="O49" t="s">
+        <v>130</v>
+      </c>
+      <c r="P49" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q49">
+        <v>22</v>
+      </c>
+      <c r="R49">
+        <v>7</v>
+      </c>
+      <c r="S49">
+        <v>15</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>4</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>11</v>
+      </c>
+      <c r="Z49">
+        <v>4</v>
+      </c>
+      <c r="AA49">
+        <v>16</v>
+      </c>
+      <c r="AB49">
+        <v>7</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>15</v>
+      </c>
+      <c r="AE49">
+        <v>23</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ49">
+        <v>6</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>85</v>
+      </c>
+      <c r="AQ49">
+        <v>1300</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>1275</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50">
+        <v>4.7</v>
+      </c>
+      <c r="M50">
+        <v>3.71</v>
+      </c>
+      <c r="N50">
+        <v>1.81</v>
+      </c>
+      <c r="O50" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50">
+        <v>4</v>
+      </c>
+      <c r="S50">
+        <v>18</v>
+      </c>
+      <c r="T50">
+        <v>10</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+      <c r="AA50">
+        <v>11</v>
+      </c>
+      <c r="AB50">
+        <v>9</v>
+      </c>
+      <c r="AC50">
+        <v>3</v>
+      </c>
+      <c r="AD50">
+        <v>6</v>
+      </c>
+      <c r="AE50">
+        <v>20</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ50">
+        <v>3</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM50">
+        <v>137</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>27</v>
+      </c>
+      <c r="AP50">
+        <v>30</v>
+      </c>
+      <c r="AQ50">
+        <v>200</v>
+      </c>
+      <c r="AR50">
+        <v>90</v>
+      </c>
+      <c r="AS50">
+        <v>180</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="AU50">
+        <v>18</v>
+      </c>
+      <c r="AV50">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="AW50">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="AX50">
+        <f t="shared" si="3"/>
+        <v>822</v>
+      </c>
+      <c r="AY50">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51">
+        <v>1.34</v>
+      </c>
+      <c r="M51">
+        <v>5.7</v>
+      </c>
+      <c r="N51">
+        <v>8.48</v>
+      </c>
+      <c r="O51" t="s">
+        <v>129</v>
+      </c>
+      <c r="P51" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q51">
+        <v>21</v>
+      </c>
+      <c r="R51">
+        <v>7</v>
+      </c>
+      <c r="S51">
+        <v>9</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>4</v>
+      </c>
+      <c r="V51">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>6</v>
+      </c>
+      <c r="Z51">
+        <v>2</v>
+      </c>
+      <c r="AA51">
+        <v>17</v>
+      </c>
+      <c r="AB51">
+        <v>17</v>
+      </c>
+      <c r="AC51">
+        <v>3</v>
+      </c>
+      <c r="AD51">
+        <v>8</v>
+      </c>
+      <c r="AE51">
+        <v>34</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ51">
+        <v>7</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM51">
+        <v>138</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>43</v>
+      </c>
+      <c r="AP51">
+        <v>95</v>
+      </c>
+      <c r="AQ51">
+        <v>2200</v>
+      </c>
+      <c r="AR51">
+        <v>285</v>
+      </c>
+      <c r="AS51">
+        <v>760</v>
+      </c>
+      <c r="AT51">
+        <f t="shared" si="0"/>
+        <v>4085</v>
+      </c>
+      <c r="AU51">
+        <v>24</v>
+      </c>
+      <c r="AV51">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="AW51">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="AX51">
+        <f t="shared" si="3"/>
+        <v>1104</v>
+      </c>
+      <c r="AY51">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52">
+        <v>2.5</v>
+      </c>
+      <c r="M52">
+        <v>3.55</v>
+      </c>
+      <c r="N52">
+        <v>2.85</v>
+      </c>
+      <c r="O52" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>2</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>3</v>
+      </c>
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AA52">
+        <v>12</v>
+      </c>
+      <c r="AB52">
+        <v>15</v>
+      </c>
+      <c r="AC52">
+        <v>3</v>
+      </c>
+      <c r="AD52">
+        <v>7</v>
+      </c>
+      <c r="AE52">
+        <v>27</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ52">
+        <v>4</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM52">
+        <v>132</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>23</v>
+      </c>
+      <c r="AP52">
+        <v>40</v>
+      </c>
+      <c r="AQ52">
+        <v>400</v>
+      </c>
+      <c r="AR52">
+        <v>120</v>
+      </c>
+      <c r="AS52">
+        <v>280</v>
+      </c>
+      <c r="AT52">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+      <c r="AU52">
+        <v>21</v>
+      </c>
+      <c r="AV52">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="AX52">
+        <f t="shared" si="3"/>
+        <v>924</v>
+      </c>
+      <c r="AY52">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>123</v>
+      </c>
+      <c r="L53">
+        <v>3.59</v>
+      </c>
+      <c r="M53">
+        <v>3.28</v>
+      </c>
+      <c r="N53">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O53" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q53">
+        <v>14</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
+        <v>21</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>5</v>
+      </c>
+      <c r="Z53">
+        <v>4</v>
+      </c>
+      <c r="AA53">
+        <v>7</v>
+      </c>
+      <c r="AB53">
+        <v>11</v>
+      </c>
+      <c r="AC53">
+        <v>4</v>
+      </c>
+      <c r="AD53">
+        <v>9</v>
+      </c>
+      <c r="AE53">
+        <v>18</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ53">
+        <v>3</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM53">
+        <v>197</v>
+      </c>
+      <c r="AN53">
+        <v>4</v>
+      </c>
+      <c r="AO53">
+        <v>52</v>
+      </c>
+      <c r="AP53">
+        <v>30</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>120</v>
+      </c>
+      <c r="AS53">
+        <v>270</v>
+      </c>
+      <c r="AT53">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="AU53">
+        <v>36</v>
+      </c>
+      <c r="AV53">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" si="2"/>
+        <v>468</v>
+      </c>
+      <c r="AX53">
+        <f t="shared" si="3"/>
+        <v>1773</v>
+      </c>
+      <c r="AY53">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>124</v>
+      </c>
+      <c r="L54">
+        <v>1.78</v>
+      </c>
+      <c r="M54">
+        <v>3.71</v>
+      </c>
+      <c r="N54">
+        <v>4.92</v>
+      </c>
+      <c r="O54" t="s">
+        <v>128</v>
+      </c>
+      <c r="P54" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q54">
+        <v>16</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>3</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>8</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AA54">
+        <v>11</v>
+      </c>
+      <c r="AB54">
+        <v>12</v>
+      </c>
+      <c r="AC54">
+        <v>4</v>
+      </c>
+      <c r="AD54">
+        <v>12</v>
+      </c>
+      <c r="AE54">
+        <v>23</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ54">
+        <v>4</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM54">
+        <v>183</v>
+      </c>
+      <c r="AN54">
+        <v>4</v>
+      </c>
+      <c r="AO54">
+        <v>48</v>
+      </c>
+      <c r="AP54">
+        <v>65</v>
+      </c>
+      <c r="AQ54">
+        <v>900</v>
+      </c>
+      <c r="AR54">
+        <v>260</v>
+      </c>
+      <c r="AS54">
+        <v>780</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="0"/>
+        <v>3120</v>
+      </c>
+      <c r="AU54">
+        <v>48</v>
+      </c>
+      <c r="AV54">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="AX54">
+        <f t="shared" si="3"/>
+        <v>2196</v>
+      </c>
+      <c r="AY54">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>124</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>124</v>
+      </c>
+      <c r="L55">
+        <v>3.56</v>
+      </c>
+      <c r="M55">
+        <v>3.83</v>
+      </c>
+      <c r="N55">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O55" t="s">
+        <v>128</v>
+      </c>
+      <c r="P55" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q55">
+        <v>14</v>
+      </c>
+      <c r="R55">
+        <v>6</v>
+      </c>
+      <c r="S55">
+        <v>10</v>
+      </c>
+      <c r="T55">
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>8</v>
+      </c>
+      <c r="Z55">
+        <v>3</v>
+      </c>
+      <c r="AA55">
+        <v>17</v>
+      </c>
+      <c r="AB55">
+        <v>7</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>11</v>
+      </c>
+      <c r="AE55">
+        <v>24</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ55">
+        <v>3</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM55">
+        <v>40</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>7</v>
+      </c>
+      <c r="AP55">
+        <v>30</v>
+      </c>
+      <c r="AQ55">
+        <v>200</v>
+      </c>
+      <c r="AR55">
+        <v>30</v>
+      </c>
+      <c r="AS55">
+        <v>330</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="AU55">
+        <v>11</v>
+      </c>
+      <c r="AV55">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX55">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="AY55">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/F1_spread.xlsx
+++ b/F1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF2BC0C-93DA-4042-80AD-5113374BCC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D232F-30A2-4E3A-8A5D-CE6F7C90675B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="288">
   <si>
     <t>Div</t>
   </si>
@@ -315,31 +315,85 @@
     <t>45</t>
   </si>
   <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>783</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
-    <t>789</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1119</t>
   </si>
   <si>
     <t>F1</t>
@@ -438,15 +492,18 @@
     <t>2-2</t>
   </si>
   <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
     <t>1-5</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
     <t>3-0</t>
   </si>
   <si>
@@ -459,9 +516,6 @@
     <t>4-0</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
     <t>8-0</t>
   </si>
   <si>
@@ -474,6 +528,15 @@
     <t>2-3</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
     <t>2-8</t>
   </si>
   <si>
@@ -579,6 +642,36 @@
     <t>8-4</t>
   </si>
   <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -745,6 +838,60 @@
   </si>
   <si>
     <t>Strasbourg-Marseille</t>
+  </si>
+  <si>
+    <t>Marseille-Angers</t>
+  </si>
+  <si>
+    <t>St Etienne-Auxerre</t>
+  </si>
+  <si>
+    <t>Lille-Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes-Monaco</t>
+  </si>
+  <si>
+    <t>Lyon-Nantes</t>
+  </si>
+  <si>
+    <t>Brest-Le Havre</t>
+  </si>
+  <si>
+    <t>Reims-Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg-Lens</t>
+  </si>
+  <si>
+    <t>Nice-Paris SG</t>
+  </si>
+  <si>
+    <t>Monaco-Lille</t>
+  </si>
+  <si>
+    <t>Brest-Rennes</t>
+  </si>
+  <si>
+    <t>St Etienne-Lens</t>
+  </si>
+  <si>
+    <t>Paris SG-Strasbourg</t>
+  </si>
+  <si>
+    <t>Le Havre-Lyon</t>
+  </si>
+  <si>
+    <t>Auxerre-Reims</t>
+  </si>
+  <si>
+    <t>Nantes-Nice</t>
+  </si>
+  <si>
+    <t>Toulouse-Angers</t>
+  </si>
+  <si>
+    <t>Montpellier-Marseille</t>
   </si>
 </sst>
 </file>
@@ -1100,60 +1247,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY55"/>
+  <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AA47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO56" sqref="AO56"/>
+      <selection pane="bottomRight" activeCell="AO74" sqref="AO74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1313,16 +1460,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1331,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1340,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L2">
         <v>7.84</v>
@@ -1352,10 +1499,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1403,16 +1550,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="AG2" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH2" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI2" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1421,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AM2">
         <v>312</v>
@@ -1468,16 +1615,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1486,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1495,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L3">
         <v>2.96</v>
@@ -1507,10 +1654,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1558,16 +1705,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="AG3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1576,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="AM3">
         <v>222</v>
@@ -1623,16 +1770,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1641,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1650,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L4">
         <v>3.36</v>
@@ -1662,10 +1809,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1713,16 +1860,16 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="AG4" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH4" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI4" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1731,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="AL4" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM4">
         <v>135</v>
@@ -1778,16 +1925,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1796,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1805,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L5">
         <v>1.51</v>
@@ -1817,10 +1964,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -1868,16 +2015,16 @@
         <v>27</v>
       </c>
       <c r="AF5" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AG5" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AH5" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI5" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -1886,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AM5">
         <v>29</v>
@@ -1933,16 +2080,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1951,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1960,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L6">
         <v>3.22</v>
@@ -1972,10 +2119,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -2023,16 +2170,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="AG6" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH6" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI6" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2041,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AM6">
         <v>154</v>
@@ -2088,16 +2235,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2106,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2115,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L7">
         <v>5.66</v>
@@ -2127,10 +2274,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2178,16 +2325,16 @@
         <v>16</v>
       </c>
       <c r="AF7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AG7" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AH7" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI7" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2196,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="AM7">
         <v>28</v>
@@ -2243,16 +2390,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2261,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2270,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L8">
         <v>2.12</v>
@@ -2282,10 +2429,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2333,16 +2480,16 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AG8" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH8" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI8" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ8">
         <v>7</v>
@@ -2351,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="AM8">
         <v>125</v>
@@ -2398,16 +2545,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2416,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2425,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L9">
         <v>2.11</v>
@@ -2437,10 +2584,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2488,16 +2635,16 @@
         <v>18</v>
       </c>
       <c r="AF9" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AG9" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AH9" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI9" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ9">
         <v>4</v>
@@ -2506,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2553,16 +2700,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2571,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2580,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L10">
         <v>2.4700000000000002</v>
@@ -2592,10 +2739,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>22</v>
@@ -2643,16 +2790,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AG10" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH10" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI10" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ10">
         <v>3</v>
@@ -2661,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="AM10">
         <v>130</v>
@@ -2708,16 +2855,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1">
         <v>45527</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2726,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2735,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L11">
         <v>1.25</v>
@@ -2747,10 +2894,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>21</v>
@@ -2798,16 +2945,16 @@
         <v>25</v>
       </c>
       <c r="AF11" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AG11" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH11" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI11" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ11">
         <v>5</v>
@@ -2816,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="AM11">
         <v>281</v>
@@ -2863,16 +3010,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2881,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2890,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L12">
         <v>2.62</v>
@@ -2902,10 +3049,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2953,16 +3100,16 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="AG12" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH12" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI12" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -2971,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -3018,16 +3165,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3036,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3045,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L13">
         <v>1.33</v>
@@ -3057,10 +3204,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3108,16 +3255,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH13" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI13" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -3126,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="AM13">
         <v>124</v>
@@ -3173,16 +3320,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3191,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3200,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L14">
         <v>2.11</v>
@@ -3212,10 +3359,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3263,16 +3410,16 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH14" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI14" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ14">
         <v>6</v>
@@ -3281,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="AM14">
         <v>124</v>
@@ -3328,16 +3475,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1">
         <v>45529</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3346,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3355,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L15">
         <v>1.81</v>
@@ -3367,10 +3514,10 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O15" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>22</v>
@@ -3418,16 +3565,16 @@
         <v>14</v>
       </c>
       <c r="AF15" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH15" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI15" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3436,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="AL15" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="AM15">
         <v>64</v>
@@ -3483,16 +3630,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3501,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3510,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L16">
         <v>2.25</v>
@@ -3522,10 +3669,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -3573,16 +3720,16 @@
         <v>15</v>
       </c>
       <c r="AF16" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH16" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI16" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -3591,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="AM16">
         <v>104</v>
@@ -3638,16 +3785,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3656,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3665,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L17">
         <v>1.88</v>
@@ -3677,10 +3824,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -3728,16 +3875,16 @@
         <v>32</v>
       </c>
       <c r="AF17" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH17" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI17" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ17">
         <v>5</v>
@@ -3746,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="AM17">
         <v>126</v>
@@ -3793,16 +3940,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3811,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3820,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L18">
         <v>3.19</v>
@@ -3832,10 +3979,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -3883,16 +4030,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH18" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI18" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ18">
         <v>6</v>
@@ -3901,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="AM18">
         <v>215</v>
@@ -3948,16 +4095,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3966,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3975,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L19">
         <v>1.56</v>
@@ -3987,10 +4134,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -4038,16 +4185,16 @@
         <v>23</v>
       </c>
       <c r="AF19" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH19" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI19" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -4056,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="AM19">
         <v>202</v>
@@ -4103,16 +4250,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1">
         <v>45534</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -4121,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4130,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L20">
         <v>1.89</v>
@@ -4142,10 +4289,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>22</v>
@@ -4193,16 +4340,16 @@
         <v>16</v>
       </c>
       <c r="AF20" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="AG20" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH20" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI20" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4211,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AM20">
         <v>350</v>
@@ -4258,16 +4405,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1">
         <v>45535</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4276,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -4285,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L21">
         <v>1.85</v>
@@ -4297,10 +4444,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -4348,16 +4495,16 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH21" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI21" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4366,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AM21">
         <v>203</v>
@@ -4413,16 +4560,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C22" s="1">
         <v>45535</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4431,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4440,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L22">
         <v>2.35</v>
@@ -4452,10 +4599,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -4503,16 +4650,16 @@
         <v>24</v>
       </c>
       <c r="AF22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH22" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI22" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4521,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AM22">
         <v>184</v>
@@ -4568,16 +4715,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1">
         <v>45535</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4586,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4595,7 +4742,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L23">
         <v>4.09</v>
@@ -4607,10 +4754,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -4658,16 +4805,16 @@
         <v>22</v>
       </c>
       <c r="AF23" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="AG23" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH23" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI23" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ23">
         <v>6</v>
@@ -4676,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AM23">
         <v>175</v>
@@ -4723,16 +4870,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1">
         <v>45536</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4741,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4750,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L24">
         <v>1.83</v>
@@ -4762,10 +4909,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -4813,16 +4960,16 @@
         <v>32</v>
       </c>
       <c r="AF24" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AG24" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH24" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI24" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -4831,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AM24">
         <v>174</v>
@@ -4878,16 +5025,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1">
         <v>45536</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4896,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4905,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L25">
         <v>4.2</v>
@@ -4917,10 +5064,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -4968,16 +5115,16 @@
         <v>27</v>
       </c>
       <c r="AF25" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="AG25" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH25" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI25" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ25">
         <v>10</v>
@@ -4986,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AM25">
         <v>255</v>
@@ -5033,16 +5180,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1">
         <v>45536</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5051,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -5060,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L26">
         <v>2.81</v>
@@ -5072,10 +5219,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>21</v>
@@ -5123,16 +5270,16 @@
         <v>25</v>
       </c>
       <c r="AF26" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="AG26" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH26" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI26" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -5141,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="AL26" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AM26">
         <v>182</v>
@@ -5188,16 +5335,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1">
         <v>45536</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5206,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5215,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L27">
         <v>2.94</v>
@@ -5227,10 +5374,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -5278,16 +5425,16 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="AG27" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH27" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI27" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ27">
         <v>3</v>
@@ -5296,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AM27">
         <v>102</v>
@@ -5343,16 +5490,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1">
         <v>45536</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5361,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5370,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L28">
         <v>4.3099999999999996</v>
@@ -5382,10 +5529,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -5433,16 +5580,16 @@
         <v>12</v>
       </c>
       <c r="AF28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="AG28" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH28" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI28" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ28">
         <v>5</v>
@@ -5451,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="AM28">
         <v>237</v>
@@ -5498,16 +5645,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1">
         <v>45548</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5516,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5525,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L29">
         <v>5.22</v>
@@ -5537,10 +5684,10 @@
         <v>1.72</v>
       </c>
       <c r="O29" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -5588,16 +5735,16 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="AG29" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AH29" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI29" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ29">
         <v>2</v>
@@ -5606,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="AM29">
         <v>6</v>
@@ -5653,16 +5800,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C30" s="1">
         <v>45549</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5671,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5680,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L30">
         <v>1.75</v>
@@ -5692,10 +5839,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -5743,16 +5890,16 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="AG30" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH30" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI30" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ30">
         <v>7</v>
@@ -5761,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="AL30" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="AM30">
         <v>93</v>
@@ -5808,16 +5955,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1">
         <v>45549</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5826,7 +5973,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5835,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L31">
         <v>4.0199999999999996</v>
@@ -5847,10 +5994,10 @@
         <v>1.89</v>
       </c>
       <c r="O31" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -5898,16 +6045,16 @@
         <v>29</v>
       </c>
       <c r="AF31" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="AG31" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH31" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI31" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -5916,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="AM31">
         <v>122</v>
@@ -5963,16 +6110,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1">
         <v>45549</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -5981,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5990,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L32">
         <v>1.28</v>
@@ -6002,10 +6149,10 @@
         <v>9.59</v>
       </c>
       <c r="O32" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>22</v>
@@ -6053,16 +6200,16 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="AG32" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH32" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI32" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ32">
         <v>5</v>
@@ -6071,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="AM32">
         <v>218</v>
@@ -6118,16 +6265,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C33" s="1">
         <v>45550</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -6136,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -6145,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L33">
         <v>1.63</v>
@@ -6157,10 +6304,10 @@
         <v>5.16</v>
       </c>
       <c r="O33" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>11</v>
@@ -6208,16 +6355,16 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH33" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI33" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ33">
         <v>4</v>
@@ -6226,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AM33">
         <v>119</v>
@@ -6273,16 +6420,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1">
         <v>45550</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -6291,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6300,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L34">
         <v>2.4300000000000002</v>
@@ -6312,10 +6459,10 @@
         <v>3.03</v>
       </c>
       <c r="O34" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>18</v>
@@ -6363,16 +6510,16 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="AG34" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH34" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI34" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ34">
         <v>4</v>
@@ -6381,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AM34">
         <v>152</v>
@@ -6428,16 +6575,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C35" s="1">
         <v>45550</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6446,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6455,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L35">
         <v>1.69</v>
@@ -6467,10 +6614,10 @@
         <v>5.31</v>
       </c>
       <c r="O35" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P35" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -6518,16 +6665,16 @@
         <v>25</v>
       </c>
       <c r="AF35" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AG35" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH35" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI35" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ35">
         <v>5</v>
@@ -6536,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AM35">
         <v>93</v>
@@ -6583,16 +6730,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1">
         <v>45550</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6601,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6610,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L36">
         <v>1.85</v>
@@ -6622,10 +6769,10 @@
         <v>4.37</v>
       </c>
       <c r="O36" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -6673,16 +6820,16 @@
         <v>21</v>
       </c>
       <c r="AF36" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AG36" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH36" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI36" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ36">
         <v>2</v>
@@ -6691,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="AM36">
         <v>156</v>
@@ -6738,16 +6885,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1">
         <v>45550</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6756,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6765,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L37">
         <v>1.86</v>
@@ -6777,10 +6924,10 @@
         <v>4.18</v>
       </c>
       <c r="O37" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P37" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>12</v>
@@ -6828,16 +6975,16 @@
         <v>23</v>
       </c>
       <c r="AF37" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AG37" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AH37" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI37" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ37">
         <v>0</v>
@@ -6846,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -6893,16 +7040,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1">
         <v>45555</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -6911,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -6920,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L38">
         <v>1.55</v>
@@ -6932,10 +7079,10 @@
         <v>6.57</v>
       </c>
       <c r="O38" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>18</v>
@@ -6983,16 +7130,16 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AG38" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH38" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI38" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ38">
         <v>1</v>
@@ -7001,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AM38">
         <v>297</v>
@@ -7048,16 +7195,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1">
         <v>45556</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -7066,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -7075,7 +7222,7 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L39">
         <v>1.74</v>
@@ -7087,10 +7234,10 @@
         <v>4.93</v>
       </c>
       <c r="O39" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>15</v>
@@ -7138,16 +7285,16 @@
         <v>28</v>
       </c>
       <c r="AF39" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AG39" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH39" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI39" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ39">
         <v>4</v>
@@ -7156,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="AM39">
         <v>264</v>
@@ -7203,16 +7350,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1">
         <v>45556</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -7221,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -7230,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L40">
         <v>2.44</v>
@@ -7242,10 +7389,10 @@
         <v>3.09</v>
       </c>
       <c r="O40" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P40" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>11</v>
@@ -7293,16 +7440,16 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="AG40" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH40" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI40" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ40">
         <v>6</v>
@@ -7311,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="AM40">
         <v>114</v>
@@ -7358,16 +7505,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C41" s="1">
         <v>45556</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7376,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7385,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L41">
         <v>6.91</v>
@@ -7397,10 +7544,10 @@
         <v>1.44</v>
       </c>
       <c r="O41" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P41" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -7448,16 +7595,16 @@
         <v>17</v>
       </c>
       <c r="AF41" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="AG41" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH41" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI41" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ41">
         <v>3</v>
@@ -7466,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AM41">
         <v>77</v>
@@ -7513,16 +7660,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1">
         <v>45557</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -7531,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -7540,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L42">
         <v>1.38</v>
@@ -7552,10 +7699,10 @@
         <v>8.11</v>
       </c>
       <c r="O42" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>14</v>
@@ -7603,16 +7750,16 @@
         <v>27</v>
       </c>
       <c r="AF42" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AG42" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH42" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI42" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ42">
         <v>4</v>
@@ -7621,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AM42">
         <v>175</v>
@@ -7668,16 +7815,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1">
         <v>45557</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -7686,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7695,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L43">
         <v>3.32</v>
@@ -7707,10 +7854,10 @@
         <v>2.39</v>
       </c>
       <c r="O43" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P43" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -7758,16 +7905,16 @@
         <v>29</v>
       </c>
       <c r="AF43" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="AG43" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH43" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI43" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ43">
         <v>5</v>
@@ -7776,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AM43">
         <v>42</v>
@@ -7823,16 +7970,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1">
         <v>45557</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -7841,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -7850,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L44">
         <v>2.16</v>
@@ -7862,10 +8009,10 @@
         <v>3.44</v>
       </c>
       <c r="O44" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P44" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -7913,16 +8060,16 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="AG44" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH44" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI44" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ44">
         <v>2</v>
@@ -7931,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="AM44">
         <v>111</v>
@@ -7978,16 +8125,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C45" s="1">
         <v>45557</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -7996,7 +8143,7 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -8005,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L45">
         <v>2.39</v>
@@ -8017,10 +8164,10 @@
         <v>3.14</v>
       </c>
       <c r="O45" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>14</v>
@@ -8068,16 +8215,16 @@
         <v>33</v>
       </c>
       <c r="AF45" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="AG45" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH45" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI45" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ45">
         <v>7</v>
@@ -8086,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AM45">
         <v>301</v>
@@ -8133,16 +8280,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1">
         <v>45557</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -8151,7 +8298,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -8160,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L46">
         <v>3.06</v>
@@ -8172,10 +8319,10 @@
         <v>2.21</v>
       </c>
       <c r="O46" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>18</v>
@@ -8223,16 +8370,16 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="AG46" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH46" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI46" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ46">
         <v>7</v>
@@ -8241,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AM46">
         <v>384</v>
@@ -8288,16 +8435,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C47" s="1">
         <v>45562</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -8306,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -8315,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L47">
         <v>2.86</v>
@@ -8327,10 +8474,10 @@
         <v>2.62</v>
       </c>
       <c r="O47" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P47" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>15</v>
@@ -8378,16 +8525,16 @@
         <v>29</v>
       </c>
       <c r="AF47" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="AG47" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH47" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI47" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ47">
         <v>2</v>
@@ -8396,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AM47">
         <v>122</v>
@@ -8420,22 +8567,18 @@
         <v>100</v>
       </c>
       <c r="AT47">
-        <f>AO47*AP47</f>
         <v>1420</v>
       </c>
       <c r="AU47">
         <v>15</v>
       </c>
       <c r="AV47">
-        <f>AN47*AO47</f>
         <v>213</v>
       </c>
       <c r="AW47">
-        <f>AO47*AD47</f>
         <v>355</v>
       </c>
       <c r="AX47">
-        <f>AM47*AD47</f>
         <v>610</v>
       </c>
       <c r="AY47">
@@ -8447,16 +8590,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C48" s="1">
         <v>45562</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -8465,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8474,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L48">
         <v>1.37</v>
@@ -8486,10 +8629,10 @@
         <v>8.67</v>
       </c>
       <c r="O48" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P48" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>22</v>
@@ -8537,16 +8680,16 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AG48" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH48" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI48" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ48">
         <v>4</v>
@@ -8555,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AM48">
         <v>231</v>
@@ -8579,22 +8722,18 @@
         <v>400</v>
       </c>
       <c r="AT48">
-        <f t="shared" ref="AT48:AT55" si="0">AO48*AP48</f>
         <v>3440</v>
       </c>
       <c r="AU48">
         <v>40</v>
       </c>
       <c r="AV48">
-        <f t="shared" ref="AV48:AV55" si="1">AN48*AO48</f>
         <v>344</v>
       </c>
       <c r="AW48">
-        <f t="shared" ref="AW48:AW55" si="2">AO48*AD48</f>
         <v>860</v>
       </c>
       <c r="AX48">
-        <f t="shared" ref="AX48:AX55" si="3">AM48*AD48</f>
         <v>2310</v>
       </c>
       <c r="AY48">
@@ -8606,16 +8745,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C49" s="1">
         <v>45563</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -8624,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -8633,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L49">
         <v>2.08</v>
@@ -8645,10 +8784,10 @@
         <v>3.83</v>
       </c>
       <c r="O49" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="P49" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>22</v>
@@ -8696,16 +8835,16 @@
         <v>23</v>
       </c>
       <c r="AF49" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="AG49" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AH49" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI49" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ49">
         <v>6</v>
@@ -8714,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="AL49" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -8738,22 +8877,18 @@
         <v>1275</v>
       </c>
       <c r="AT49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU49">
         <v>0</v>
       </c>
       <c r="AV49">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AW49">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AX49">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY49">
@@ -8765,16 +8900,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C50" s="1">
         <v>45563</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -8783,7 +8918,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -8792,7 +8927,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L50">
         <v>4.7</v>
@@ -8804,10 +8939,10 @@
         <v>1.81</v>
       </c>
       <c r="O50" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P50" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -8855,16 +8990,16 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AG50" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH50" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI50" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ50">
         <v>3</v>
@@ -8873,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AM50">
         <v>137</v>
@@ -8897,22 +9032,18 @@
         <v>180</v>
       </c>
       <c r="AT50">
-        <f t="shared" si="0"/>
         <v>810</v>
       </c>
       <c r="AU50">
         <v>18</v>
       </c>
       <c r="AV50">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="AW50">
-        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="AX50">
-        <f t="shared" si="3"/>
         <v>822</v>
       </c>
       <c r="AY50">
@@ -8924,16 +9055,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1">
         <v>45563</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -8942,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8951,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L51">
         <v>1.34</v>
@@ -8963,10 +9094,10 @@
         <v>8.48</v>
       </c>
       <c r="O51" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>21</v>
@@ -9014,16 +9145,16 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="AG51" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH51" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI51" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ51">
         <v>7</v>
@@ -9032,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="AL51" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AM51">
         <v>138</v>
@@ -9056,22 +9187,18 @@
         <v>760</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="0"/>
         <v>4085</v>
       </c>
       <c r="AU51">
         <v>24</v>
       </c>
       <c r="AV51">
-        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="AW51">
-        <f t="shared" si="2"/>
         <v>344</v>
       </c>
       <c r="AX51">
-        <f t="shared" si="3"/>
         <v>1104</v>
       </c>
       <c r="AY51">
@@ -9083,16 +9210,16 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1">
         <v>45564</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -9101,7 +9228,7 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -9110,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="L52">
         <v>2.5</v>
@@ -9122,10 +9249,10 @@
         <v>2.85</v>
       </c>
       <c r="O52" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="P52" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -9173,16 +9300,16 @@
         <v>27</v>
       </c>
       <c r="AF52" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AG52" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH52" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI52" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ52">
         <v>4</v>
@@ -9191,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AM52">
         <v>132</v>
@@ -9215,22 +9342,18 @@
         <v>280</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="0"/>
         <v>920</v>
       </c>
       <c r="AU52">
         <v>21</v>
       </c>
       <c r="AV52">
-        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="AW52">
-        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="AX52">
-        <f t="shared" si="3"/>
         <v>924</v>
       </c>
       <c r="AY52">
@@ -9242,16 +9365,16 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1">
         <v>45564</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -9260,7 +9383,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -9269,7 +9392,7 @@
         <v>2</v>
       </c>
       <c r="K53" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="L53">
         <v>3.59</v>
@@ -9281,10 +9404,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="O53" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P53" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="Q53">
         <v>14</v>
@@ -9332,16 +9455,16 @@
         <v>18</v>
       </c>
       <c r="AF53" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AG53" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH53" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI53" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ53">
         <v>3</v>
@@ -9350,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="AM53">
         <v>197</v>
@@ -9374,22 +9497,18 @@
         <v>270</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="0"/>
         <v>1560</v>
       </c>
       <c r="AU53">
         <v>36</v>
       </c>
       <c r="AV53">
-        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="AW53">
-        <f t="shared" si="2"/>
         <v>468</v>
       </c>
       <c r="AX53">
-        <f t="shared" si="3"/>
         <v>1773</v>
       </c>
       <c r="AY53">
@@ -9401,16 +9520,16 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1">
         <v>45564</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -9419,7 +9538,7 @@
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9428,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L54">
         <v>1.78</v>
@@ -9440,10 +9559,10 @@
         <v>4.92</v>
       </c>
       <c r="O54" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P54" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q54">
         <v>16</v>
@@ -9491,16 +9610,16 @@
         <v>23</v>
       </c>
       <c r="AF54" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="AG54" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AH54" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AI54" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="AJ54">
         <v>4</v>
@@ -9509,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="AL54" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="AM54">
         <v>183</v>
@@ -9533,22 +9652,18 @@
         <v>780</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="0"/>
         <v>3120</v>
       </c>
       <c r="AU54">
         <v>48</v>
       </c>
       <c r="AV54">
-        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="AW54">
-        <f t="shared" si="2"/>
         <v>576</v>
       </c>
       <c r="AX54">
-        <f t="shared" si="3"/>
         <v>2196</v>
       </c>
       <c r="AY54">
@@ -9560,16 +9675,16 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C55" s="1">
         <v>45564</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9578,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -9587,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L55">
         <v>3.56</v>
@@ -9599,10 +9714,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="O55" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="P55" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="Q55">
         <v>14</v>
@@ -9650,16 +9765,16 @@
         <v>24</v>
       </c>
       <c r="AF55" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="AG55" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AH55" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AI55" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AJ55">
         <v>3</v>
@@ -9668,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="AM55">
         <v>40</v>
@@ -9692,26 +9807,2848 @@
         <v>330</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="AU55">
         <v>11</v>
       </c>
       <c r="AV55">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AW55">
-        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="AX55">
-        <f t="shared" si="3"/>
         <v>440</v>
       </c>
       <c r="AY55">
         <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45569</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>143</v>
+      </c>
+      <c r="L56">
+        <v>1.24</v>
+      </c>
+      <c r="M56">
+        <v>6.59</v>
+      </c>
+      <c r="N56">
+        <v>12.26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>148</v>
+      </c>
+      <c r="P56" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q56">
+        <v>13</v>
+      </c>
+      <c r="R56">
+        <v>4</v>
+      </c>
+      <c r="S56">
+        <v>8</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>9</v>
+      </c>
+      <c r="Z56">
+        <v>3</v>
+      </c>
+      <c r="AA56">
+        <v>12</v>
+      </c>
+      <c r="AB56">
+        <v>9</v>
+      </c>
+      <c r="AC56">
+        <v>2</v>
+      </c>
+      <c r="AD56">
+        <v>12</v>
+      </c>
+      <c r="AE56">
+        <v>21</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ56">
+        <v>4</v>
+      </c>
+      <c r="AK56">
+        <v>2</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM56">
+        <v>105</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>45</v>
+      </c>
+      <c r="AP56">
+        <v>90</v>
+      </c>
+      <c r="AQ56">
+        <v>1625</v>
+      </c>
+      <c r="AR56">
+        <v>180</v>
+      </c>
+      <c r="AS56">
+        <v>1080</v>
+      </c>
+      <c r="AT56">
+        <v>4050</v>
+      </c>
+      <c r="AU56">
+        <v>24</v>
+      </c>
+      <c r="AV56">
+        <v>90</v>
+      </c>
+      <c r="AW56">
+        <v>540</v>
+      </c>
+      <c r="AX56">
+        <v>1260</v>
+      </c>
+      <c r="AY56">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>142</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>142</v>
+      </c>
+      <c r="L57">
+        <v>2.79</v>
+      </c>
+      <c r="M57">
+        <v>3.47</v>
+      </c>
+      <c r="N57">
+        <v>2.58</v>
+      </c>
+      <c r="O57" t="s">
+        <v>146</v>
+      </c>
+      <c r="P57" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q57">
+        <v>13</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>11</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>5</v>
+      </c>
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AA57">
+        <v>13</v>
+      </c>
+      <c r="AB57">
+        <v>10</v>
+      </c>
+      <c r="AC57">
+        <v>4</v>
+      </c>
+      <c r="AD57">
+        <v>9</v>
+      </c>
+      <c r="AE57">
+        <v>23</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ57">
+        <v>4</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM57">
+        <v>229</v>
+      </c>
+      <c r="AN57">
+        <v>4</v>
+      </c>
+      <c r="AO57">
+        <v>75</v>
+      </c>
+      <c r="AP57">
+        <v>40</v>
+      </c>
+      <c r="AQ57">
+        <v>300</v>
+      </c>
+      <c r="AR57">
+        <v>160</v>
+      </c>
+      <c r="AS57">
+        <v>360</v>
+      </c>
+      <c r="AT57">
+        <v>3000</v>
+      </c>
+      <c r="AU57">
+        <v>36</v>
+      </c>
+      <c r="AV57">
+        <v>300</v>
+      </c>
+      <c r="AW57">
+        <v>675</v>
+      </c>
+      <c r="AX57">
+        <v>2061</v>
+      </c>
+      <c r="AY57">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>141</v>
+      </c>
+      <c r="L58">
+        <v>1.75</v>
+      </c>
+      <c r="M58">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N58">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="O58" t="s">
+        <v>144</v>
+      </c>
+      <c r="P58" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>9</v>
+      </c>
+      <c r="T58">
+        <v>3</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>4</v>
+      </c>
+      <c r="Z58">
+        <v>6</v>
+      </c>
+      <c r="AA58">
+        <v>13</v>
+      </c>
+      <c r="AB58">
+        <v>8</v>
+      </c>
+      <c r="AC58">
+        <v>3</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>21</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ58">
+        <v>5</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM58">
+        <v>168</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>35</v>
+      </c>
+      <c r="AP58">
+        <v>50</v>
+      </c>
+      <c r="AQ58">
+        <v>600</v>
+      </c>
+      <c r="AR58">
+        <v>150</v>
+      </c>
+      <c r="AS58">
+        <v>500</v>
+      </c>
+      <c r="AT58">
+        <v>1750</v>
+      </c>
+      <c r="AU58">
+        <v>30</v>
+      </c>
+      <c r="AV58">
+        <v>105</v>
+      </c>
+      <c r="AW58">
+        <v>350</v>
+      </c>
+      <c r="AX58">
+        <v>1680</v>
+      </c>
+      <c r="AY58">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59">
+        <v>2.75</v>
+      </c>
+      <c r="M59">
+        <v>3.65</v>
+      </c>
+      <c r="N59">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="O59" t="s">
+        <v>150</v>
+      </c>
+      <c r="P59" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q59">
+        <v>14</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>5</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>4</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>10</v>
+      </c>
+      <c r="Z59">
+        <v>4</v>
+      </c>
+      <c r="AA59">
+        <v>9</v>
+      </c>
+      <c r="AB59">
+        <v>16</v>
+      </c>
+      <c r="AC59">
+        <v>3</v>
+      </c>
+      <c r="AD59">
+        <v>14</v>
+      </c>
+      <c r="AE59">
+        <v>25</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ59">
+        <v>6</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM59">
+        <v>39</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>25</v>
+      </c>
+      <c r="AP59">
+        <v>60</v>
+      </c>
+      <c r="AQ59">
+        <v>800</v>
+      </c>
+      <c r="AR59">
+        <v>180</v>
+      </c>
+      <c r="AS59">
+        <v>840</v>
+      </c>
+      <c r="AT59">
+        <v>1500</v>
+      </c>
+      <c r="AU59">
+        <v>42</v>
+      </c>
+      <c r="AV59">
+        <v>75</v>
+      </c>
+      <c r="AW59">
+        <v>350</v>
+      </c>
+      <c r="AX59">
+        <v>546</v>
+      </c>
+      <c r="AY59">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>142</v>
+      </c>
+      <c r="L60">
+        <v>1.79</v>
+      </c>
+      <c r="M60">
+        <v>3.95</v>
+      </c>
+      <c r="N60">
+        <v>4.43</v>
+      </c>
+      <c r="O60" t="s">
+        <v>146</v>
+      </c>
+      <c r="P60" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q60">
+        <v>17</v>
+      </c>
+      <c r="R60">
+        <v>6</v>
+      </c>
+      <c r="S60">
+        <v>11</v>
+      </c>
+      <c r="T60">
+        <v>6</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>2</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>6</v>
+      </c>
+      <c r="Z60">
+        <v>9</v>
+      </c>
+      <c r="AA60">
+        <v>10</v>
+      </c>
+      <c r="AB60">
+        <v>5</v>
+      </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
+      <c r="AD60">
+        <v>15</v>
+      </c>
+      <c r="AE60">
+        <v>15</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ60">
+        <v>3</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM60">
+        <v>76</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>7</v>
+      </c>
+      <c r="AP60">
+        <v>30</v>
+      </c>
+      <c r="AQ60">
+        <v>200</v>
+      </c>
+      <c r="AR60">
+        <v>60</v>
+      </c>
+      <c r="AS60">
+        <v>450</v>
+      </c>
+      <c r="AT60">
+        <v>210</v>
+      </c>
+      <c r="AU60">
+        <v>30</v>
+      </c>
+      <c r="AV60">
+        <v>14</v>
+      </c>
+      <c r="AW60">
+        <v>105</v>
+      </c>
+      <c r="AX60">
+        <v>1140</v>
+      </c>
+      <c r="AY60">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>142</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>142</v>
+      </c>
+      <c r="L61">
+        <v>1.83</v>
+      </c>
+      <c r="M61">
+        <v>3.55</v>
+      </c>
+      <c r="N61">
+        <v>4.83</v>
+      </c>
+      <c r="O61" t="s">
+        <v>146</v>
+      </c>
+      <c r="P61" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q61">
+        <v>8</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61">
+        <v>14</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>9</v>
+      </c>
+      <c r="AA61">
+        <v>19</v>
+      </c>
+      <c r="AB61">
+        <v>11</v>
+      </c>
+      <c r="AC61">
+        <v>2</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>30</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ61">
+        <v>4</v>
+      </c>
+      <c r="AK61">
+        <v>2</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM61">
+        <v>102</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>53</v>
+      </c>
+      <c r="AP61">
+        <v>90</v>
+      </c>
+      <c r="AQ61">
+        <v>1625</v>
+      </c>
+      <c r="AR61">
+        <v>180</v>
+      </c>
+      <c r="AS61">
+        <v>900</v>
+      </c>
+      <c r="AT61">
+        <v>4770</v>
+      </c>
+      <c r="AU61">
+        <v>20</v>
+      </c>
+      <c r="AV61">
+        <v>106</v>
+      </c>
+      <c r="AW61">
+        <v>530</v>
+      </c>
+      <c r="AX61">
+        <v>1020</v>
+      </c>
+      <c r="AY61">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>142</v>
+      </c>
+      <c r="L62">
+        <v>1.81</v>
+      </c>
+      <c r="M62">
+        <v>3.99</v>
+      </c>
+      <c r="N62">
+        <v>4.28</v>
+      </c>
+      <c r="O62" t="s">
+        <v>154</v>
+      </c>
+      <c r="P62" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q62">
+        <v>18</v>
+      </c>
+      <c r="R62">
+        <v>5</v>
+      </c>
+      <c r="S62">
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+      <c r="V62">
+        <v>5</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>4</v>
+      </c>
+      <c r="Z62">
+        <v>4</v>
+      </c>
+      <c r="AA62">
+        <v>15</v>
+      </c>
+      <c r="AB62">
+        <v>13</v>
+      </c>
+      <c r="AC62">
+        <v>6</v>
+      </c>
+      <c r="AD62">
+        <v>8</v>
+      </c>
+      <c r="AE62">
+        <v>28</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ62">
+        <v>8</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM62">
+        <v>305</v>
+      </c>
+      <c r="AN62">
+        <v>6</v>
+      </c>
+      <c r="AO62">
+        <v>78</v>
+      </c>
+      <c r="AP62">
+        <v>80</v>
+      </c>
+      <c r="AQ62">
+        <v>1500</v>
+      </c>
+      <c r="AR62">
+        <v>480</v>
+      </c>
+      <c r="AS62">
+        <v>640</v>
+      </c>
+      <c r="AT62">
+        <v>6240</v>
+      </c>
+      <c r="AU62">
+        <v>48</v>
+      </c>
+      <c r="AV62">
+        <v>468</v>
+      </c>
+      <c r="AW62">
+        <v>624</v>
+      </c>
+      <c r="AX62">
+        <v>2440</v>
+      </c>
+      <c r="AY62">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>141</v>
+      </c>
+      <c r="L63">
+        <v>2.99</v>
+      </c>
+      <c r="M63">
+        <v>3.48</v>
+      </c>
+      <c r="N63">
+        <v>2.44</v>
+      </c>
+      <c r="O63" t="s">
+        <v>150</v>
+      </c>
+      <c r="P63" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q63">
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
+      </c>
+      <c r="S63">
+        <v>12</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>4</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>3</v>
+      </c>
+      <c r="Z63">
+        <v>5</v>
+      </c>
+      <c r="AA63">
+        <v>15</v>
+      </c>
+      <c r="AB63">
+        <v>18</v>
+      </c>
+      <c r="AC63">
+        <v>4</v>
+      </c>
+      <c r="AD63">
+        <v>8</v>
+      </c>
+      <c r="AE63">
+        <v>33</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ63">
+        <v>6</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM63">
+        <v>127</v>
+      </c>
+      <c r="AN63">
+        <v>4</v>
+      </c>
+      <c r="AO63">
+        <v>50</v>
+      </c>
+      <c r="AP63">
+        <v>60</v>
+      </c>
+      <c r="AQ63">
+        <v>800</v>
+      </c>
+      <c r="AR63">
+        <v>240</v>
+      </c>
+      <c r="AS63">
+        <v>480</v>
+      </c>
+      <c r="AT63">
+        <v>3000</v>
+      </c>
+      <c r="AU63">
+        <v>32</v>
+      </c>
+      <c r="AV63">
+        <v>200</v>
+      </c>
+      <c r="AW63">
+        <v>400</v>
+      </c>
+      <c r="AX63">
+        <v>1016</v>
+      </c>
+      <c r="AY63">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>142</v>
+      </c>
+      <c r="L64">
+        <v>5.07</v>
+      </c>
+      <c r="M64">
+        <v>4.03</v>
+      </c>
+      <c r="N64">
+        <v>1.69</v>
+      </c>
+      <c r="O64" t="s">
+        <v>146</v>
+      </c>
+      <c r="P64" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q64">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>19</v>
+      </c>
+      <c r="T64">
+        <v>9</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>2</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>5</v>
+      </c>
+      <c r="Z64">
+        <v>15</v>
+      </c>
+      <c r="AA64">
+        <v>7</v>
+      </c>
+      <c r="AB64">
+        <v>9</v>
+      </c>
+      <c r="AC64">
+        <v>2</v>
+      </c>
+      <c r="AD64">
+        <v>20</v>
+      </c>
+      <c r="AE64">
+        <v>16</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ64">
+        <v>3</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM64">
+        <v>91</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>27</v>
+      </c>
+      <c r="AP64">
+        <v>30</v>
+      </c>
+      <c r="AQ64">
+        <v>200</v>
+      </c>
+      <c r="AR64">
+        <v>60</v>
+      </c>
+      <c r="AS64">
+        <v>600</v>
+      </c>
+      <c r="AT64">
+        <v>810</v>
+      </c>
+      <c r="AU64">
+        <v>40</v>
+      </c>
+      <c r="AV64">
+        <v>54</v>
+      </c>
+      <c r="AW64">
+        <v>540</v>
+      </c>
+      <c r="AX64">
+        <v>1820</v>
+      </c>
+      <c r="AY64">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45583</v>
+      </c>
+      <c r="D65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>143</v>
+      </c>
+      <c r="L65">
+        <v>1.94</v>
+      </c>
+      <c r="M65">
+        <v>3.75</v>
+      </c>
+      <c r="N65">
+        <v>4.04</v>
+      </c>
+      <c r="O65" t="s">
+        <v>148</v>
+      </c>
+      <c r="P65" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q65">
+        <v>14</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>6</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>13</v>
+      </c>
+      <c r="AB65">
+        <v>14</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>7</v>
+      </c>
+      <c r="AE65">
+        <v>27</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ65">
+        <v>6</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>85</v>
+      </c>
+      <c r="AQ65">
+        <v>1750</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>595</v>
+      </c>
+      <c r="AT65">
+        <f>AO65*AP65</f>
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <f>AN65*AO65</f>
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <f>AO65*AD65</f>
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <f>AM65*AD65</f>
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>143</v>
+      </c>
+      <c r="L66">
+        <v>2.99</v>
+      </c>
+      <c r="M66">
+        <v>3.22</v>
+      </c>
+      <c r="N66">
+        <v>2.58</v>
+      </c>
+      <c r="O66" t="s">
+        <v>148</v>
+      </c>
+      <c r="P66" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q66">
+        <v>12</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>4</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>4</v>
+      </c>
+      <c r="AA66">
+        <v>18</v>
+      </c>
+      <c r="AB66">
+        <v>15</v>
+      </c>
+      <c r="AC66">
+        <v>2</v>
+      </c>
+      <c r="AD66">
+        <v>6</v>
+      </c>
+      <c r="AE66">
+        <v>33</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ66">
+        <v>4</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM66">
+        <v>140</v>
+      </c>
+      <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <v>37</v>
+      </c>
+      <c r="AP66">
+        <v>40</v>
+      </c>
+      <c r="AQ66">
+        <v>400</v>
+      </c>
+      <c r="AR66">
+        <v>80</v>
+      </c>
+      <c r="AS66">
+        <v>240</v>
+      </c>
+      <c r="AT66">
+        <f t="shared" ref="AT66:AT73" si="0">AO66*AP66</f>
+        <v>1480</v>
+      </c>
+      <c r="AU66">
+        <v>12</v>
+      </c>
+      <c r="AV66">
+        <f t="shared" ref="AV66:AV73" si="1">AN66*AO66</f>
+        <v>74</v>
+      </c>
+      <c r="AW66">
+        <f t="shared" ref="AW66:AW73" si="2">AO66*AD66</f>
+        <v>222</v>
+      </c>
+      <c r="AX66">
+        <f t="shared" ref="AX66:AX73" si="3">AM66*AD66</f>
+        <v>840</v>
+      </c>
+      <c r="AY66">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>141</v>
+      </c>
+      <c r="L67">
+        <v>5.3</v>
+      </c>
+      <c r="M67">
+        <v>3.84</v>
+      </c>
+      <c r="N67">
+        <v>1.7</v>
+      </c>
+      <c r="O67" t="s">
+        <v>144</v>
+      </c>
+      <c r="P67" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q67">
+        <v>15</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>13</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+      <c r="Z67">
+        <v>7</v>
+      </c>
+      <c r="AA67">
+        <v>12</v>
+      </c>
+      <c r="AB67">
+        <v>16</v>
+      </c>
+      <c r="AC67">
+        <v>2</v>
+      </c>
+      <c r="AD67">
+        <v>9</v>
+      </c>
+      <c r="AE67">
+        <v>28</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ67">
+        <v>3</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM67">
+        <v>99</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>65</v>
+      </c>
+      <c r="AP67">
+        <v>30</v>
+      </c>
+      <c r="AQ67">
+        <v>200</v>
+      </c>
+      <c r="AR67">
+        <v>60</v>
+      </c>
+      <c r="AS67">
+        <v>270</v>
+      </c>
+      <c r="AT67">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+      <c r="AU67">
+        <v>18</v>
+      </c>
+      <c r="AV67">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="AW67">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
+      <c r="AX67">
+        <f t="shared" si="3"/>
+        <v>891</v>
+      </c>
+      <c r="AY67">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>142</v>
+      </c>
+      <c r="L68">
+        <v>1.26</v>
+      </c>
+      <c r="M68">
+        <v>6.67</v>
+      </c>
+      <c r="N68">
+        <v>9.83</v>
+      </c>
+      <c r="O68" t="s">
+        <v>146</v>
+      </c>
+      <c r="P68" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q68">
+        <v>18</v>
+      </c>
+      <c r="R68">
+        <v>10</v>
+      </c>
+      <c r="S68">
+        <v>16</v>
+      </c>
+      <c r="T68">
+        <v>8</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>5</v>
+      </c>
+      <c r="Z68">
+        <v>5</v>
+      </c>
+      <c r="AA68">
+        <v>10</v>
+      </c>
+      <c r="AB68">
+        <v>12</v>
+      </c>
+      <c r="AC68">
+        <v>6</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+      <c r="AE68">
+        <v>22</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ68">
+        <v>4</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM68">
+        <v>369</v>
+      </c>
+      <c r="AN68">
+        <v>6</v>
+      </c>
+      <c r="AO68">
+        <v>114</v>
+      </c>
+      <c r="AP68">
+        <v>40</v>
+      </c>
+      <c r="AQ68">
+        <v>400</v>
+      </c>
+      <c r="AR68">
+        <v>240</v>
+      </c>
+      <c r="AS68">
+        <v>400</v>
+      </c>
+      <c r="AT68">
+        <f t="shared" si="0"/>
+        <v>4560</v>
+      </c>
+      <c r="AU68">
+        <v>60</v>
+      </c>
+      <c r="AV68">
+        <f t="shared" si="1"/>
+        <v>684</v>
+      </c>
+      <c r="AW68">
+        <f t="shared" si="2"/>
+        <v>1140</v>
+      </c>
+      <c r="AX68">
+        <f t="shared" si="3"/>
+        <v>3690</v>
+      </c>
+      <c r="AY68">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>141</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>141</v>
+      </c>
+      <c r="L69">
+        <v>3.88</v>
+      </c>
+      <c r="M69">
+        <v>3.57</v>
+      </c>
+      <c r="N69">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O69" t="s">
+        <v>144</v>
+      </c>
+      <c r="P69" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q69">
+        <v>7</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>16</v>
+      </c>
+      <c r="T69">
+        <v>8</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>4</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>4</v>
+      </c>
+      <c r="Z69">
+        <v>6</v>
+      </c>
+      <c r="AA69">
+        <v>17</v>
+      </c>
+      <c r="AB69">
+        <v>11</v>
+      </c>
+      <c r="AC69">
+        <v>4</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>28</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ69">
+        <v>7</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM69">
+        <v>247</v>
+      </c>
+      <c r="AN69">
+        <v>4</v>
+      </c>
+      <c r="AO69">
+        <v>54</v>
+      </c>
+      <c r="AP69">
+        <v>70</v>
+      </c>
+      <c r="AQ69">
+        <v>1200</v>
+      </c>
+      <c r="AR69">
+        <v>280</v>
+      </c>
+      <c r="AS69">
+        <v>700</v>
+      </c>
+      <c r="AT69">
+        <f t="shared" si="0"/>
+        <v>3780</v>
+      </c>
+      <c r="AU69">
+        <v>40</v>
+      </c>
+      <c r="AV69">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="AW69">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="AX69">
+        <f t="shared" si="3"/>
+        <v>2470</v>
+      </c>
+      <c r="AY69">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>142</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>142</v>
+      </c>
+      <c r="L70">
+        <v>2.78</v>
+      </c>
+      <c r="M70">
+        <v>3.46</v>
+      </c>
+      <c r="N70">
+        <v>2.6</v>
+      </c>
+      <c r="O70" t="s">
+        <v>146</v>
+      </c>
+      <c r="P70" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q70">
+        <v>10</v>
+      </c>
+      <c r="R70">
+        <v>8</v>
+      </c>
+      <c r="S70">
+        <v>15</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>3</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>5</v>
+      </c>
+      <c r="Z70">
+        <v>9</v>
+      </c>
+      <c r="AA70">
+        <v>6</v>
+      </c>
+      <c r="AB70">
+        <v>10</v>
+      </c>
+      <c r="AC70">
+        <v>3</v>
+      </c>
+      <c r="AD70">
+        <v>14</v>
+      </c>
+      <c r="AE70">
+        <v>16</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ70">
+        <v>5</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM70">
+        <v>158</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>62</v>
+      </c>
+      <c r="AP70">
+        <v>50</v>
+      </c>
+      <c r="AQ70">
+        <v>600</v>
+      </c>
+      <c r="AR70">
+        <v>150</v>
+      </c>
+      <c r="AS70">
+        <v>700</v>
+      </c>
+      <c r="AT70">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+      <c r="AU70">
+        <v>42</v>
+      </c>
+      <c r="AV70">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="AW70">
+        <f t="shared" si="2"/>
+        <v>868</v>
+      </c>
+      <c r="AX70">
+        <f t="shared" si="3"/>
+        <v>2212</v>
+      </c>
+      <c r="AY70">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>143</v>
+      </c>
+      <c r="L71">
+        <v>3.26</v>
+      </c>
+      <c r="M71">
+        <v>3.16</v>
+      </c>
+      <c r="N71">
+        <v>2.44</v>
+      </c>
+      <c r="O71" t="s">
+        <v>148</v>
+      </c>
+      <c r="P71" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q71">
+        <v>11</v>
+      </c>
+      <c r="R71">
+        <v>7</v>
+      </c>
+      <c r="S71">
+        <v>13</v>
+      </c>
+      <c r="T71">
+        <v>7</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>4</v>
+      </c>
+      <c r="Z71">
+        <v>8</v>
+      </c>
+      <c r="AA71">
+        <v>10</v>
+      </c>
+      <c r="AB71">
+        <v>11</v>
+      </c>
+      <c r="AC71">
+        <v>2</v>
+      </c>
+      <c r="AD71">
+        <v>12</v>
+      </c>
+      <c r="AE71">
+        <v>21</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ71">
+        <v>3</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM71">
+        <v>139</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>68</v>
+      </c>
+      <c r="AP71">
+        <v>30</v>
+      </c>
+      <c r="AQ71">
+        <v>200</v>
+      </c>
+      <c r="AR71">
+        <v>60</v>
+      </c>
+      <c r="AS71">
+        <v>360</v>
+      </c>
+      <c r="AT71">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AU71">
+        <v>24</v>
+      </c>
+      <c r="AV71">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="AW71">
+        <f t="shared" si="2"/>
+        <v>816</v>
+      </c>
+      <c r="AX71">
+        <f t="shared" si="3"/>
+        <v>1668</v>
+      </c>
+      <c r="AY71">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>141</v>
+      </c>
+      <c r="L72">
+        <v>1.6</v>
+      </c>
+      <c r="M72">
+        <v>3.95</v>
+      </c>
+      <c r="N72">
+        <v>6.24</v>
+      </c>
+      <c r="O72" t="s">
+        <v>144</v>
+      </c>
+      <c r="P72" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q72">
+        <v>18</v>
+      </c>
+      <c r="R72">
+        <v>6</v>
+      </c>
+      <c r="S72">
+        <v>8</v>
+      </c>
+      <c r="T72">
+        <v>4</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
+        <v>4</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>8</v>
+      </c>
+      <c r="Z72">
+        <v>2</v>
+      </c>
+      <c r="AA72">
+        <v>11</v>
+      </c>
+      <c r="AB72">
+        <v>9</v>
+      </c>
+      <c r="AC72">
+        <v>2</v>
+      </c>
+      <c r="AD72">
+        <v>10</v>
+      </c>
+      <c r="AE72">
+        <v>20</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ72">
+        <v>6</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM72">
+        <v>69</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>20</v>
+      </c>
+      <c r="AP72">
+        <v>60</v>
+      </c>
+      <c r="AQ72">
+        <v>800</v>
+      </c>
+      <c r="AR72">
+        <v>120</v>
+      </c>
+      <c r="AS72">
+        <v>600</v>
+      </c>
+      <c r="AT72">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="AU72">
+        <v>20</v>
+      </c>
+      <c r="AV72">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AW72">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="AX72">
+        <f t="shared" si="3"/>
+        <v>690</v>
+      </c>
+      <c r="AY72">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73" t="s">
+        <v>141</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73" t="s">
+        <v>141</v>
+      </c>
+      <c r="L73">
+        <v>4.37</v>
+      </c>
+      <c r="M73">
+        <v>4.04</v>
+      </c>
+      <c r="N73">
+        <v>1.79</v>
+      </c>
+      <c r="O73" t="s">
+        <v>155</v>
+      </c>
+      <c r="P73" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q73">
+        <v>13</v>
+      </c>
+      <c r="R73">
+        <v>5</v>
+      </c>
+      <c r="S73">
+        <v>21</v>
+      </c>
+      <c r="T73">
+        <v>10</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>3</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>2</v>
+      </c>
+      <c r="AA73">
+        <v>11</v>
+      </c>
+      <c r="AB73">
+        <v>18</v>
+      </c>
+      <c r="AC73">
+        <v>5</v>
+      </c>
+      <c r="AD73">
+        <v>5</v>
+      </c>
+      <c r="AE73">
+        <v>29</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ73">
+        <v>4</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM73">
+        <v>208</v>
+      </c>
+      <c r="AN73">
+        <v>5</v>
+      </c>
+      <c r="AO73">
+        <v>97</v>
+      </c>
+      <c r="AP73">
+        <v>65</v>
+      </c>
+      <c r="AQ73">
+        <v>1050</v>
+      </c>
+      <c r="AR73">
+        <v>325</v>
+      </c>
+      <c r="AS73">
+        <v>325</v>
+      </c>
+      <c r="AT73">
+        <f t="shared" si="0"/>
+        <v>6305</v>
+      </c>
+      <c r="AU73">
+        <v>25</v>
+      </c>
+      <c r="AV73">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="AW73">
+        <f t="shared" si="2"/>
+        <v>485</v>
+      </c>
+      <c r="AX73">
+        <f t="shared" si="3"/>
+        <v>1040</v>
+      </c>
+      <c r="AY73">
+        <v>1625</v>
       </c>
     </row>
   </sheetData>

--- a/F1_spread.xlsx
+++ b/F1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D232F-30A2-4E3A-8A5D-CE6F7C90675B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19EEF59-896C-4069-B3D8-A7B042CD0A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="331">
   <si>
     <t>Div</t>
   </si>
@@ -369,31 +369,85 @@
     <t>63</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>1119</t>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>1307</t>
   </si>
   <si>
     <t>F1</t>
@@ -672,6 +726,27 @@
     <t>8-2</t>
   </si>
   <si>
+    <t>14-0</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -892,6 +967,60 @@
   </si>
   <si>
     <t>Montpellier-Marseille</t>
+  </si>
+  <si>
+    <t>Rennes-Le Havre</t>
+  </si>
+  <si>
+    <t>Angers-St Etienne</t>
+  </si>
+  <si>
+    <t>Reims-Brest</t>
+  </si>
+  <si>
+    <t>Lens-Lille</t>
+  </si>
+  <si>
+    <t>Lyon-Auxerre</t>
+  </si>
+  <si>
+    <t>Montpellier-Toulouse</t>
+  </si>
+  <si>
+    <t>Nice-Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg-Nantes</t>
+  </si>
+  <si>
+    <t>Marseille-Paris SG</t>
+  </si>
+  <si>
+    <t>Monaco-Angers</t>
+  </si>
+  <si>
+    <t>Lille-Lyon</t>
+  </si>
+  <si>
+    <t>Paris SG-Lens</t>
+  </si>
+  <si>
+    <t>Brest-Nice</t>
+  </si>
+  <si>
+    <t>St Etienne-Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse-Reims</t>
+  </si>
+  <si>
+    <t>Auxerre-Rennes</t>
+  </si>
+  <si>
+    <t>Le Havre-Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes-Marseille</t>
   </si>
 </sst>
 </file>
@@ -1247,13 +1376,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY73"/>
+  <dimension ref="A1:AY91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AA47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Z62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO74" sqref="AO74"/>
+      <selection pane="bottomRight" activeCell="AO92" sqref="AO92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,16 +1589,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1478,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1487,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L2">
         <v>7.84</v>
@@ -1499,10 +1628,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1550,16 +1679,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="AG2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI2" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1568,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AM2">
         <v>312</v>
@@ -1615,16 +1744,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1633,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1642,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L3">
         <v>2.96</v>
@@ -1654,10 +1783,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="O3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1705,16 +1834,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AG3" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH3" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI3" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1723,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AM3">
         <v>222</v>
@@ -1770,16 +1899,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1788,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1797,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L4">
         <v>3.36</v>
@@ -1809,10 +1938,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1860,16 +1989,16 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AG4" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH4" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI4" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -1878,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="AL4" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="AM4">
         <v>135</v>
@@ -1925,16 +2054,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1943,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1952,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L5">
         <v>1.51</v>
@@ -1964,10 +2093,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2015,16 +2144,16 @@
         <v>27</v>
       </c>
       <c r="AF5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AG5" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AH5" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI5" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -2033,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="AM5">
         <v>29</v>
@@ -2080,16 +2209,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2098,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2107,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L6">
         <v>3.22</v>
@@ -2119,10 +2248,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O6" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -2170,16 +2299,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AG6" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH6" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI6" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2188,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="AM6">
         <v>154</v>
@@ -2235,16 +2364,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2253,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2262,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L7">
         <v>5.66</v>
@@ -2274,10 +2403,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2325,16 +2454,16 @@
         <v>16</v>
       </c>
       <c r="AF7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="AG7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AH7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2343,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="AM7">
         <v>28</v>
@@ -2390,16 +2519,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2408,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2417,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L8">
         <v>2.12</v>
@@ -2429,10 +2558,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2480,16 +2609,16 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AG8" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI8" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ8">
         <v>7</v>
@@ -2498,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="AM8">
         <v>125</v>
@@ -2545,16 +2674,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2563,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2572,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L9">
         <v>2.11</v>
@@ -2584,10 +2713,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2635,16 +2764,16 @@
         <v>18</v>
       </c>
       <c r="AF9" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AG9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AH9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ9">
         <v>4</v>
@@ -2653,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2700,16 +2829,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2718,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2727,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L10">
         <v>2.4700000000000002</v>
@@ -2739,10 +2868,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>22</v>
@@ -2790,16 +2919,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="AG10" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH10" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI10" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ10">
         <v>3</v>
@@ -2808,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="AM10">
         <v>130</v>
@@ -2855,16 +2984,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1">
         <v>45527</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2873,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2882,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L11">
         <v>1.25</v>
@@ -2894,10 +3023,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>21</v>
@@ -2945,16 +3074,16 @@
         <v>25</v>
       </c>
       <c r="AF11" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AG11" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH11" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI11" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ11">
         <v>5</v>
@@ -2963,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="AM11">
         <v>281</v>
@@ -3010,16 +3139,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3028,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3037,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L12">
         <v>2.62</v>
@@ -3049,10 +3178,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3100,16 +3229,16 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="AG12" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH12" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI12" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -3118,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -3165,16 +3294,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3183,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3192,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L13">
         <v>1.33</v>
@@ -3204,10 +3333,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3255,16 +3384,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="AG13" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH13" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI13" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -3273,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="AM13">
         <v>124</v>
@@ -3320,16 +3449,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3338,7 +3467,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3347,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L14">
         <v>2.11</v>
@@ -3359,10 +3488,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3410,16 +3539,16 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AG14" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH14" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI14" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ14">
         <v>6</v>
@@ -3428,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="AM14">
         <v>124</v>
@@ -3475,16 +3604,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1">
         <v>45529</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3493,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3502,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L15">
         <v>1.81</v>
@@ -3514,10 +3643,10 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>22</v>
@@ -3565,16 +3694,16 @@
         <v>14</v>
       </c>
       <c r="AF15" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AG15" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH15" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI15" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3583,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="AL15" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AM15">
         <v>64</v>
@@ -3630,16 +3759,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3648,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3657,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L16">
         <v>2.25</v>
@@ -3669,10 +3798,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -3720,16 +3849,16 @@
         <v>15</v>
       </c>
       <c r="AF16" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH16" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI16" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -3738,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="AM16">
         <v>104</v>
@@ -3785,16 +3914,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3803,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3812,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L17">
         <v>1.88</v>
@@ -3824,10 +3953,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -3875,16 +4004,16 @@
         <v>32</v>
       </c>
       <c r="AF17" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH17" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI17" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ17">
         <v>5</v>
@@ -3893,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AM17">
         <v>126</v>
@@ -3940,16 +4069,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3958,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3967,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L18">
         <v>3.19</v>
@@ -3979,10 +4108,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="O18" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4030,16 +4159,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH18" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI18" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ18">
         <v>6</v>
@@ -4048,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="AM18">
         <v>215</v>
@@ -4095,16 +4224,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4113,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4122,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L19">
         <v>1.56</v>
@@ -4134,10 +4263,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -4185,16 +4314,16 @@
         <v>23</v>
       </c>
       <c r="AF19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH19" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI19" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -4203,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="AM19">
         <v>202</v>
@@ -4250,16 +4379,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1">
         <v>45534</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -4268,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4277,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L20">
         <v>1.89</v>
@@ -4289,10 +4418,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>22</v>
@@ -4340,16 +4469,16 @@
         <v>16</v>
       </c>
       <c r="AF20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH20" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI20" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4358,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AM20">
         <v>350</v>
@@ -4405,16 +4534,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1">
         <v>45535</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4423,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -4432,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L21">
         <v>1.85</v>
@@ -4444,10 +4573,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -4495,16 +4624,16 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH21" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI21" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4513,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="AM21">
         <v>203</v>
@@ -4560,16 +4689,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1">
         <v>45535</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4578,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4587,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L22">
         <v>2.35</v>
@@ -4599,10 +4728,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -4650,16 +4779,16 @@
         <v>24</v>
       </c>
       <c r="AF22" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH22" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI22" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4668,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="AM22">
         <v>184</v>
@@ -4715,16 +4844,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1">
         <v>45535</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4733,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4742,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L23">
         <v>4.09</v>
@@ -4754,10 +4883,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -4805,16 +4934,16 @@
         <v>22</v>
       </c>
       <c r="AF23" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AG23" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH23" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI23" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ23">
         <v>6</v>
@@ -4823,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="AM23">
         <v>175</v>
@@ -4870,16 +4999,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1">
         <v>45536</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4888,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4897,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L24">
         <v>1.83</v>
@@ -4909,10 +5038,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -4960,16 +5089,16 @@
         <v>32</v>
       </c>
       <c r="AF24" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH24" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI24" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -4978,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="AM24">
         <v>174</v>
@@ -5025,16 +5154,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1">
         <v>45536</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5043,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5052,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L25">
         <v>4.2</v>
@@ -5064,10 +5193,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5115,16 +5244,16 @@
         <v>27</v>
       </c>
       <c r="AF25" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="AG25" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH25" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI25" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ25">
         <v>10</v>
@@ -5133,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="AM25">
         <v>255</v>
@@ -5180,16 +5309,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1">
         <v>45536</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5198,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -5207,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L26">
         <v>2.81</v>
@@ -5219,10 +5348,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>21</v>
@@ -5270,16 +5399,16 @@
         <v>25</v>
       </c>
       <c r="AF26" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AG26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -5288,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="AL26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="AM26">
         <v>182</v>
@@ -5335,16 +5464,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C27" s="1">
         <v>45536</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5353,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5362,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L27">
         <v>2.94</v>
@@ -5374,10 +5503,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -5425,16 +5554,16 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AG27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI27" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ27">
         <v>3</v>
@@ -5443,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="AM27">
         <v>102</v>
@@ -5490,16 +5619,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1">
         <v>45536</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5508,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5517,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L28">
         <v>4.3099999999999996</v>
@@ -5529,10 +5658,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -5580,16 +5709,16 @@
         <v>12</v>
       </c>
       <c r="AF28" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH28" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI28" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ28">
         <v>5</v>
@@ -5598,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="AM28">
         <v>237</v>
@@ -5645,16 +5774,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1">
         <v>45548</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5663,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5672,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L29">
         <v>5.22</v>
@@ -5684,10 +5813,10 @@
         <v>1.72</v>
       </c>
       <c r="O29" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -5735,16 +5864,16 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AG29" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AH29" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI29" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ29">
         <v>2</v>
@@ -5753,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="AM29">
         <v>6</v>
@@ -5800,16 +5929,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1">
         <v>45549</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5818,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5827,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L30">
         <v>1.75</v>
@@ -5839,10 +5968,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -5890,16 +6019,16 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AG30" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH30" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI30" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ30">
         <v>7</v>
@@ -5908,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="AL30" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="AM30">
         <v>93</v>
@@ -5955,16 +6084,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C31" s="1">
         <v>45549</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5973,7 +6102,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -5982,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L31">
         <v>4.0199999999999996</v>
@@ -5994,10 +6123,10 @@
         <v>1.89</v>
       </c>
       <c r="O31" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -6045,16 +6174,16 @@
         <v>29</v>
       </c>
       <c r="AF31" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="AG31" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH31" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI31" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -6063,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="AM31">
         <v>122</v>
@@ -6110,16 +6239,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1">
         <v>45549</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -6128,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -6137,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L32">
         <v>1.28</v>
@@ -6149,10 +6278,10 @@
         <v>9.59</v>
       </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>22</v>
@@ -6200,16 +6329,16 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AG32" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH32" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI32" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ32">
         <v>5</v>
@@ -6218,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="AM32">
         <v>218</v>
@@ -6265,16 +6394,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1">
         <v>45550</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -6283,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -6292,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L33">
         <v>1.63</v>
@@ -6304,10 +6433,10 @@
         <v>5.16</v>
       </c>
       <c r="O33" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>11</v>
@@ -6355,16 +6484,16 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AG33" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH33" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI33" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ33">
         <v>4</v>
@@ -6373,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="AM33">
         <v>119</v>
@@ -6420,16 +6549,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C34" s="1">
         <v>45550</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -6438,7 +6567,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6447,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L34">
         <v>2.4300000000000002</v>
@@ -6459,10 +6588,10 @@
         <v>3.03</v>
       </c>
       <c r="O34" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>18</v>
@@ -6510,16 +6639,16 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AG34" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH34" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI34" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ34">
         <v>4</v>
@@ -6528,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="AM34">
         <v>152</v>
@@ -6575,16 +6704,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1">
         <v>45550</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6593,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6602,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L35">
         <v>1.69</v>
@@ -6614,10 +6743,10 @@
         <v>5.31</v>
       </c>
       <c r="O35" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -6665,16 +6794,16 @@
         <v>25</v>
       </c>
       <c r="AF35" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AG35" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH35" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI35" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ35">
         <v>5</v>
@@ -6683,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="AM35">
         <v>93</v>
@@ -6730,16 +6859,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1">
         <v>45550</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6748,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6757,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L36">
         <v>1.85</v>
@@ -6769,10 +6898,10 @@
         <v>4.37</v>
       </c>
       <c r="O36" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -6820,16 +6949,16 @@
         <v>21</v>
       </c>
       <c r="AF36" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AG36" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH36" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI36" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ36">
         <v>2</v>
@@ -6838,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="AM36">
         <v>156</v>
@@ -6885,16 +7014,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1">
         <v>45550</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -6903,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -6912,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L37">
         <v>1.86</v>
@@ -6924,10 +7053,10 @@
         <v>4.18</v>
       </c>
       <c r="O37" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>12</v>
@@ -6975,16 +7104,16 @@
         <v>23</v>
       </c>
       <c r="AF37" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="AG37" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AH37" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI37" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ37">
         <v>0</v>
@@ -6993,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -7040,16 +7169,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1">
         <v>45555</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -7058,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -7067,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L38">
         <v>1.55</v>
@@ -7079,10 +7208,10 @@
         <v>6.57</v>
       </c>
       <c r="O38" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>18</v>
@@ -7130,16 +7259,16 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="AG38" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH38" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI38" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ38">
         <v>1</v>
@@ -7148,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="AM38">
         <v>297</v>
@@ -7195,16 +7324,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1">
         <v>45556</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -7213,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -7222,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L39">
         <v>1.74</v>
@@ -7234,10 +7363,10 @@
         <v>4.93</v>
       </c>
       <c r="O39" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>15</v>
@@ -7285,16 +7414,16 @@
         <v>28</v>
       </c>
       <c r="AF39" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AG39" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH39" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI39" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ39">
         <v>4</v>
@@ -7303,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="AM39">
         <v>264</v>
@@ -7350,16 +7479,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1">
         <v>45556</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -7368,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -7377,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L40">
         <v>2.44</v>
@@ -7389,10 +7518,10 @@
         <v>3.09</v>
       </c>
       <c r="O40" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>11</v>
@@ -7440,16 +7569,16 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="AG40" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH40" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI40" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ40">
         <v>6</v>
@@ -7458,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="AM40">
         <v>114</v>
@@ -7505,16 +7634,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1">
         <v>45556</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7523,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7532,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L41">
         <v>6.91</v>
@@ -7544,10 +7673,10 @@
         <v>1.44</v>
       </c>
       <c r="O41" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -7595,16 +7724,16 @@
         <v>17</v>
       </c>
       <c r="AF41" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AG41" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH41" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI41" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ41">
         <v>3</v>
@@ -7613,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="AM41">
         <v>77</v>
@@ -7660,16 +7789,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1">
         <v>45557</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -7678,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -7687,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L42">
         <v>1.38</v>
@@ -7699,10 +7828,10 @@
         <v>8.11</v>
       </c>
       <c r="O42" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>14</v>
@@ -7750,16 +7879,16 @@
         <v>27</v>
       </c>
       <c r="AF42" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AG42" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH42" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI42" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ42">
         <v>4</v>
@@ -7768,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="AM42">
         <v>175</v>
@@ -7815,16 +7944,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1">
         <v>45557</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -7833,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7842,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L43">
         <v>3.32</v>
@@ -7854,10 +7983,10 @@
         <v>2.39</v>
       </c>
       <c r="O43" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -7905,16 +8034,16 @@
         <v>29</v>
       </c>
       <c r="AF43" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AG43" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH43" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI43" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ43">
         <v>5</v>
@@ -7923,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="AM43">
         <v>42</v>
@@ -7970,16 +8099,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C44" s="1">
         <v>45557</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -7988,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -7997,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L44">
         <v>2.16</v>
@@ -8009,10 +8138,10 @@
         <v>3.44</v>
       </c>
       <c r="O44" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -8060,16 +8189,16 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="AG44" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH44" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI44" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ44">
         <v>2</v>
@@ -8078,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="AM44">
         <v>111</v>
@@ -8125,16 +8254,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C45" s="1">
         <v>45557</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -8143,7 +8272,7 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -8152,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L45">
         <v>2.39</v>
@@ -8164,10 +8293,10 @@
         <v>3.14</v>
       </c>
       <c r="O45" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>14</v>
@@ -8215,16 +8344,16 @@
         <v>33</v>
       </c>
       <c r="AF45" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AG45" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH45" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI45" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ45">
         <v>7</v>
@@ -8233,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="AM45">
         <v>301</v>
@@ -8280,16 +8409,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1">
         <v>45557</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -8298,7 +8427,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -8307,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L46">
         <v>3.06</v>
@@ -8319,10 +8448,10 @@
         <v>2.21</v>
       </c>
       <c r="O46" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>18</v>
@@ -8370,16 +8499,16 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH46" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI46" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ46">
         <v>7</v>
@@ -8388,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="AM46">
         <v>384</v>
@@ -8435,16 +8564,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1">
         <v>45562</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -8453,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -8462,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L47">
         <v>2.86</v>
@@ -8474,10 +8603,10 @@
         <v>2.62</v>
       </c>
       <c r="O47" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>15</v>
@@ -8525,16 +8654,16 @@
         <v>29</v>
       </c>
       <c r="AF47" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AG47" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH47" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI47" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ47">
         <v>2</v>
@@ -8543,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="AM47">
         <v>122</v>
@@ -8590,16 +8719,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1">
         <v>45562</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -8608,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8617,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L48">
         <v>1.37</v>
@@ -8629,10 +8758,10 @@
         <v>8.67</v>
       </c>
       <c r="O48" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>22</v>
@@ -8680,16 +8809,16 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AG48" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH48" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI48" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ48">
         <v>4</v>
@@ -8698,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="AM48">
         <v>231</v>
@@ -8745,16 +8874,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1">
         <v>45563</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -8763,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -8772,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L49">
         <v>2.08</v>
@@ -8784,10 +8913,10 @@
         <v>3.83</v>
       </c>
       <c r="O49" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>22</v>
@@ -8835,16 +8964,16 @@
         <v>23</v>
       </c>
       <c r="AF49" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="AG49" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AH49" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI49" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ49">
         <v>6</v>
@@ -8853,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AL49" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -8900,16 +9029,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1">
         <v>45563</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -8918,7 +9047,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -8927,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L50">
         <v>4.7</v>
@@ -8939,10 +9068,10 @@
         <v>1.81</v>
       </c>
       <c r="O50" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -8990,16 +9119,16 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AG50" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH50" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI50" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ50">
         <v>3</v>
@@ -9008,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="AM50">
         <v>137</v>
@@ -9055,16 +9184,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1">
         <v>45563</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -9073,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -9082,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L51">
         <v>1.34</v>
@@ -9094,10 +9223,10 @@
         <v>8.48</v>
       </c>
       <c r="O51" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>21</v>
@@ -9145,16 +9274,16 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AG51" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH51" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI51" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ51">
         <v>7</v>
@@ -9163,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="AL51" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="AM51">
         <v>138</v>
@@ -9210,16 +9339,16 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1">
         <v>45564</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -9228,7 +9357,7 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -9237,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L52">
         <v>2.5</v>
@@ -9249,10 +9378,10 @@
         <v>2.85</v>
       </c>
       <c r="O52" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -9300,16 +9429,16 @@
         <v>27</v>
       </c>
       <c r="AF52" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AG52" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH52" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI52" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ52">
         <v>4</v>
@@ -9318,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AM52">
         <v>132</v>
@@ -9365,16 +9494,16 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1">
         <v>45564</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -9383,7 +9512,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -9392,7 +9521,7 @@
         <v>2</v>
       </c>
       <c r="K53" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L53">
         <v>3.59</v>
@@ -9404,10 +9533,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="O53" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P53" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>14</v>
@@ -9455,16 +9584,16 @@
         <v>18</v>
       </c>
       <c r="AF53" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AG53" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH53" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI53" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ53">
         <v>3</v>
@@ -9473,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="AM53">
         <v>197</v>
@@ -9520,16 +9649,16 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C54" s="1">
         <v>45564</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -9538,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9547,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L54">
         <v>1.78</v>
@@ -9559,10 +9688,10 @@
         <v>4.92</v>
       </c>
       <c r="O54" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>16</v>
@@ -9610,16 +9739,16 @@
         <v>23</v>
       </c>
       <c r="AF54" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH54" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI54" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ54">
         <v>4</v>
@@ -9628,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="AL54" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="AM54">
         <v>183</v>
@@ -9675,16 +9804,16 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1">
         <v>45564</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9693,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -9702,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L55">
         <v>3.56</v>
@@ -9714,10 +9843,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="O55" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P55" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>14</v>
@@ -9765,16 +9894,16 @@
         <v>24</v>
       </c>
       <c r="AF55" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AG55" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AH55" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI55" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ55">
         <v>3</v>
@@ -9783,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="AM55">
         <v>40</v>
@@ -9830,16 +9959,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1">
         <v>45569</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -9848,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -9857,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L56">
         <v>1.24</v>
@@ -9869,10 +9998,10 @@
         <v>12.26</v>
       </c>
       <c r="O56" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P56" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>13</v>
@@ -9920,16 +10049,16 @@
         <v>21</v>
       </c>
       <c r="AF56" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="AG56" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH56" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI56" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ56">
         <v>4</v>
@@ -9938,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="AL56" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="AM56">
         <v>105</v>
@@ -9985,16 +10114,16 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C57" s="1">
         <v>45570</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -10003,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -10012,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L57">
         <v>2.79</v>
@@ -10024,10 +10153,10 @@
         <v>2.58</v>
       </c>
       <c r="O57" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -10075,16 +10204,16 @@
         <v>23</v>
       </c>
       <c r="AF57" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AG57" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH57" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI57" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ57">
         <v>4</v>
@@ -10093,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="AM57">
         <v>229</v>
@@ -10140,16 +10269,16 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1">
         <v>45570</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -10158,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -10167,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L58">
         <v>1.75</v>
@@ -10179,10 +10308,10 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="O58" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P58" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -10230,16 +10359,16 @@
         <v>21</v>
       </c>
       <c r="AF58" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AG58" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH58" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI58" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ58">
         <v>5</v>
@@ -10248,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="AM58">
         <v>168</v>
@@ -10295,16 +10424,16 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1">
         <v>45570</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -10313,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -10322,7 +10451,7 @@
         <v>2</v>
       </c>
       <c r="K59" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L59">
         <v>2.75</v>
@@ -10334,10 +10463,10 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="O59" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P59" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>14</v>
@@ -10385,16 +10514,16 @@
         <v>25</v>
       </c>
       <c r="AF59" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AG59" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH59" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI59" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ59">
         <v>6</v>
@@ -10403,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="AM59">
         <v>39</v>
@@ -10450,16 +10579,16 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1">
         <v>45571</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -10468,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -10477,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L60">
         <v>1.79</v>
@@ -10489,10 +10618,10 @@
         <v>4.43</v>
       </c>
       <c r="O60" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P60" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>17</v>
@@ -10540,16 +10669,16 @@
         <v>15</v>
       </c>
       <c r="AF60" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AG60" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH60" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI60" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ60">
         <v>3</v>
@@ -10558,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="AM60">
         <v>76</v>
@@ -10605,16 +10734,16 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C61" s="1">
         <v>45571</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -10623,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -10632,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L61">
         <v>1.83</v>
@@ -10644,10 +10773,10 @@
         <v>4.83</v>
       </c>
       <c r="O61" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -10695,16 +10824,16 @@
         <v>30</v>
       </c>
       <c r="AF61" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="AG61" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH61" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI61" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ61">
         <v>4</v>
@@ -10713,7 +10842,7 @@
         <v>2</v>
       </c>
       <c r="AL61" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="AM61">
         <v>102</v>
@@ -10760,16 +10889,16 @@
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1">
         <v>45571</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -10778,7 +10907,7 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -10787,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L62">
         <v>1.81</v>
@@ -10799,10 +10928,10 @@
         <v>4.28</v>
       </c>
       <c r="O62" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>18</v>
@@ -10850,16 +10979,16 @@
         <v>28</v>
       </c>
       <c r="AF62" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="AG62" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH62" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI62" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ62">
         <v>8</v>
@@ -10868,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="AL62" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="AM62">
         <v>305</v>
@@ -10915,16 +11044,16 @@
         <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1">
         <v>45571</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -10933,7 +11062,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -10942,7 +11071,7 @@
         <v>2</v>
       </c>
       <c r="K63" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L63">
         <v>2.99</v>
@@ -10954,10 +11083,10 @@
         <v>2.44</v>
       </c>
       <c r="O63" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P63" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -11005,16 +11134,16 @@
         <v>33</v>
       </c>
       <c r="AF63" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AG63" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH63" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI63" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ63">
         <v>6</v>
@@ -11023,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="AM63">
         <v>127</v>
@@ -11070,16 +11199,16 @@
         <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C64" s="1">
         <v>45571</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -11088,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -11097,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L64">
         <v>5.07</v>
@@ -11109,10 +11238,10 @@
         <v>1.69</v>
       </c>
       <c r="O64" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P64" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -11160,16 +11289,16 @@
         <v>16</v>
       </c>
       <c r="AF64" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="AG64" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH64" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI64" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ64">
         <v>3</v>
@@ -11178,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="AL64" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="AM64">
         <v>91</v>
@@ -11225,16 +11354,16 @@
         <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C65" s="1">
         <v>45583</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -11243,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -11252,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L65">
         <v>1.94</v>
@@ -11264,10 +11393,10 @@
         <v>4.04</v>
       </c>
       <c r="O65" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P65" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -11315,16 +11444,16 @@
         <v>27</v>
       </c>
       <c r="AF65" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="AG65" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AH65" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI65" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ65">
         <v>6</v>
@@ -11333,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="AL65" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="AM65">
         <v>0</v>
@@ -11357,22 +11486,18 @@
         <v>595</v>
       </c>
       <c r="AT65">
-        <f>AO65*AP65</f>
         <v>0</v>
       </c>
       <c r="AU65">
         <v>0</v>
       </c>
       <c r="AV65">
-        <f>AN65*AO65</f>
         <v>0</v>
       </c>
       <c r="AW65">
-        <f>AO65*AD65</f>
         <v>0</v>
       </c>
       <c r="AX65">
-        <f>AM65*AD65</f>
         <v>0</v>
       </c>
       <c r="AY65">
@@ -11384,16 +11509,16 @@
         <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C66" s="1">
         <v>45584</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -11402,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -11411,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L66">
         <v>2.99</v>
@@ -11423,10 +11548,10 @@
         <v>2.58</v>
       </c>
       <c r="O66" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P66" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q66">
         <v>12</v>
@@ -11474,16 +11599,16 @@
         <v>33</v>
       </c>
       <c r="AF66" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AG66" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH66" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI66" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ66">
         <v>4</v>
@@ -11492,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="AL66" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="AM66">
         <v>140</v>
@@ -11516,22 +11641,18 @@
         <v>240</v>
       </c>
       <c r="AT66">
-        <f t="shared" ref="AT66:AT73" si="0">AO66*AP66</f>
         <v>1480</v>
       </c>
       <c r="AU66">
         <v>12</v>
       </c>
       <c r="AV66">
-        <f t="shared" ref="AV66:AV73" si="1">AN66*AO66</f>
         <v>74</v>
       </c>
       <c r="AW66">
-        <f t="shared" ref="AW66:AW73" si="2">AO66*AD66</f>
         <v>222</v>
       </c>
       <c r="AX66">
-        <f t="shared" ref="AX66:AX73" si="3">AM66*AD66</f>
         <v>840</v>
       </c>
       <c r="AY66">
@@ -11543,16 +11664,16 @@
         <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C67" s="1">
         <v>45584</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -11561,7 +11682,7 @@
         <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -11570,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L67">
         <v>5.3</v>
@@ -11582,10 +11703,10 @@
         <v>1.7</v>
       </c>
       <c r="O67" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P67" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>15</v>
@@ -11633,16 +11754,16 @@
         <v>28</v>
       </c>
       <c r="AF67" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AG67" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH67" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI67" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ67">
         <v>3</v>
@@ -11651,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AL67" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="AM67">
         <v>99</v>
@@ -11675,22 +11796,18 @@
         <v>270</v>
       </c>
       <c r="AT67">
-        <f t="shared" si="0"/>
         <v>1950</v>
       </c>
       <c r="AU67">
         <v>18</v>
       </c>
       <c r="AV67">
-        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="AW67">
-        <f t="shared" si="2"/>
         <v>585</v>
       </c>
       <c r="AX67">
-        <f t="shared" si="3"/>
         <v>891</v>
       </c>
       <c r="AY67">
@@ -11702,16 +11819,16 @@
         <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C68" s="1">
         <v>45584</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F68">
         <v>4</v>
@@ -11720,7 +11837,7 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -11729,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L68">
         <v>1.26</v>
@@ -11741,10 +11858,10 @@
         <v>9.83</v>
       </c>
       <c r="O68" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>18</v>
@@ -11792,16 +11909,16 @@
         <v>22</v>
       </c>
       <c r="AF68" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="AG68" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH68" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI68" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ68">
         <v>4</v>
@@ -11810,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="AL68" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="AM68">
         <v>369</v>
@@ -11834,22 +11951,18 @@
         <v>400</v>
       </c>
       <c r="AT68">
-        <f t="shared" si="0"/>
         <v>4560</v>
       </c>
       <c r="AU68">
         <v>60</v>
       </c>
       <c r="AV68">
-        <f t="shared" si="1"/>
         <v>684</v>
       </c>
       <c r="AW68">
-        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
       <c r="AX68">
-        <f t="shared" si="3"/>
         <v>3690</v>
       </c>
       <c r="AY68">
@@ -11861,16 +11974,16 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1">
         <v>45585</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -11879,7 +11992,7 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -11888,7 +12001,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L69">
         <v>3.88</v>
@@ -11900,10 +12013,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="O69" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P69" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -11951,16 +12064,16 @@
         <v>28</v>
       </c>
       <c r="AF69" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="AG69" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH69" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI69" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ69">
         <v>7</v>
@@ -11969,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="AL69" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="AM69">
         <v>247</v>
@@ -11993,22 +12106,18 @@
         <v>700</v>
       </c>
       <c r="AT69">
-        <f t="shared" si="0"/>
         <v>3780</v>
       </c>
       <c r="AU69">
         <v>40</v>
       </c>
       <c r="AV69">
-        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="AW69">
-        <f t="shared" si="2"/>
         <v>540</v>
       </c>
       <c r="AX69">
-        <f t="shared" si="3"/>
         <v>2470</v>
       </c>
       <c r="AY69">
@@ -12020,16 +12129,16 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1">
         <v>45585</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -12038,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -12047,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L70">
         <v>2.78</v>
@@ -12059,10 +12168,10 @@
         <v>2.6</v>
       </c>
       <c r="O70" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P70" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -12110,16 +12219,16 @@
         <v>16</v>
       </c>
       <c r="AF70" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="AG70" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH70" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI70" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ70">
         <v>5</v>
@@ -12128,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="AL70" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="AM70">
         <v>158</v>
@@ -12152,22 +12261,18 @@
         <v>700</v>
       </c>
       <c r="AT70">
-        <f t="shared" si="0"/>
         <v>3100</v>
       </c>
       <c r="AU70">
         <v>42</v>
       </c>
       <c r="AV70">
-        <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="AW70">
-        <f t="shared" si="2"/>
         <v>868</v>
       </c>
       <c r="AX70">
-        <f t="shared" si="3"/>
         <v>2212</v>
       </c>
       <c r="AY70">
@@ -12179,16 +12284,16 @@
         <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1">
         <v>45585</v>
       </c>
       <c r="D71" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -12197,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -12206,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L71">
         <v>3.26</v>
@@ -12218,10 +12323,10 @@
         <v>2.44</v>
       </c>
       <c r="O71" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P71" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -12269,16 +12374,16 @@
         <v>21</v>
       </c>
       <c r="AF71" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AG71" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH71" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI71" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ71">
         <v>3</v>
@@ -12287,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="AL71" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="AM71">
         <v>139</v>
@@ -12311,22 +12416,18 @@
         <v>360</v>
       </c>
       <c r="AT71">
-        <f t="shared" si="0"/>
         <v>2040</v>
       </c>
       <c r="AU71">
         <v>24</v>
       </c>
       <c r="AV71">
-        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="AW71">
-        <f t="shared" si="2"/>
         <v>816</v>
       </c>
       <c r="AX71">
-        <f t="shared" si="3"/>
         <v>1668</v>
       </c>
       <c r="AY71">
@@ -12338,16 +12439,16 @@
         <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C72" s="1">
         <v>45585</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -12356,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -12365,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L72">
         <v>1.6</v>
@@ -12377,10 +12478,10 @@
         <v>6.24</v>
       </c>
       <c r="O72" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P72" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q72">
         <v>18</v>
@@ -12428,16 +12529,16 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AG72" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH72" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AI72" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AJ72">
         <v>6</v>
@@ -12446,7 +12547,7 @@
         <v>0</v>
       </c>
       <c r="AL72" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="AM72">
         <v>69</v>
@@ -12470,22 +12571,18 @@
         <v>600</v>
       </c>
       <c r="AT72">
-        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="AU72">
         <v>20</v>
       </c>
       <c r="AV72">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AW72">
-        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="AX72">
-        <f t="shared" si="3"/>
         <v>690</v>
       </c>
       <c r="AY72">
@@ -12497,16 +12594,16 @@
         <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1">
         <v>45585</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -12515,7 +12612,7 @@
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -12524,7 +12621,7 @@
         <v>3</v>
       </c>
       <c r="K73" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L73">
         <v>4.37</v>
@@ -12536,10 +12633,10 @@
         <v>1.79</v>
       </c>
       <c r="O73" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P73" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -12587,16 +12684,16 @@
         <v>29</v>
       </c>
       <c r="AF73" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="AG73" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AH73" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AI73" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AJ73">
         <v>4</v>
@@ -12605,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="AL73" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="AM73">
         <v>208</v>
@@ -12629,26 +12726,2848 @@
         <v>325</v>
       </c>
       <c r="AT73">
-        <f t="shared" si="0"/>
         <v>6305</v>
       </c>
       <c r="AU73">
         <v>25</v>
       </c>
       <c r="AV73">
-        <f t="shared" si="1"/>
         <v>485</v>
       </c>
       <c r="AW73">
-        <f t="shared" si="2"/>
         <v>485</v>
       </c>
       <c r="AX73">
-        <f t="shared" si="3"/>
         <v>1040</v>
       </c>
       <c r="AY73">
         <v>1625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45590</v>
+      </c>
+      <c r="D74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>160</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>161</v>
+      </c>
+      <c r="L74">
+        <v>1.49</v>
+      </c>
+      <c r="M74">
+        <v>4.37</v>
+      </c>
+      <c r="N74">
+        <v>7.65</v>
+      </c>
+      <c r="O74" t="s">
+        <v>166</v>
+      </c>
+      <c r="P74" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q74">
+        <v>20</v>
+      </c>
+      <c r="R74">
+        <v>4</v>
+      </c>
+      <c r="S74">
+        <v>5</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>14</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>10</v>
+      </c>
+      <c r="AB74">
+        <v>7</v>
+      </c>
+      <c r="AC74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>14</v>
+      </c>
+      <c r="AE74">
+        <v>17</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ74">
+        <v>6</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM74">
+        <v>54</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>20</v>
+      </c>
+      <c r="AP74">
+        <v>85</v>
+      </c>
+      <c r="AQ74">
+        <v>1300</v>
+      </c>
+      <c r="AR74">
+        <v>85</v>
+      </c>
+      <c r="AS74">
+        <v>1190</v>
+      </c>
+      <c r="AT74">
+        <v>1700</v>
+      </c>
+      <c r="AU74">
+        <v>14</v>
+      </c>
+      <c r="AV74">
+        <v>20</v>
+      </c>
+      <c r="AW74">
+        <v>280</v>
+      </c>
+      <c r="AX74">
+        <v>756</v>
+      </c>
+      <c r="AY74">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>160</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>160</v>
+      </c>
+      <c r="L75">
+        <v>2.48</v>
+      </c>
+      <c r="M75">
+        <v>3.19</v>
+      </c>
+      <c r="N75">
+        <v>3.16</v>
+      </c>
+      <c r="O75" t="s">
+        <v>172</v>
+      </c>
+      <c r="P75" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q75">
+        <v>13</v>
+      </c>
+      <c r="R75">
+        <v>8</v>
+      </c>
+      <c r="S75">
+        <v>19</v>
+      </c>
+      <c r="T75">
+        <v>7</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>3</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>2</v>
+      </c>
+      <c r="Z75">
+        <v>3</v>
+      </c>
+      <c r="AA75">
+        <v>10</v>
+      </c>
+      <c r="AB75">
+        <v>13</v>
+      </c>
+      <c r="AC75">
+        <v>6</v>
+      </c>
+      <c r="AD75">
+        <v>5</v>
+      </c>
+      <c r="AE75">
+        <v>23</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ75">
+        <v>4</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM75">
+        <v>278</v>
+      </c>
+      <c r="AN75">
+        <v>6</v>
+      </c>
+      <c r="AO75">
+        <v>166</v>
+      </c>
+      <c r="AP75">
+        <v>40</v>
+      </c>
+      <c r="AQ75">
+        <v>300</v>
+      </c>
+      <c r="AR75">
+        <v>240</v>
+      </c>
+      <c r="AS75">
+        <v>200</v>
+      </c>
+      <c r="AT75">
+        <v>6640</v>
+      </c>
+      <c r="AU75">
+        <v>30</v>
+      </c>
+      <c r="AV75">
+        <v>996</v>
+      </c>
+      <c r="AW75">
+        <v>830</v>
+      </c>
+      <c r="AX75">
+        <v>1390</v>
+      </c>
+      <c r="AY75">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D76" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>159</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76" t="s">
+        <v>159</v>
+      </c>
+      <c r="L76">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M76">
+        <v>3.55</v>
+      </c>
+      <c r="N76">
+        <v>3.38</v>
+      </c>
+      <c r="O76" t="s">
+        <v>168</v>
+      </c>
+      <c r="P76" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q76">
+        <v>11</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>13</v>
+      </c>
+      <c r="T76">
+        <v>4</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>7</v>
+      </c>
+      <c r="Z76">
+        <v>3</v>
+      </c>
+      <c r="AA76">
+        <v>15</v>
+      </c>
+      <c r="AB76">
+        <v>11</v>
+      </c>
+      <c r="AC76">
+        <v>3</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>26</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ76">
+        <v>5</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM76">
+        <v>51</v>
+      </c>
+      <c r="AN76">
+        <v>3</v>
+      </c>
+      <c r="AO76">
+        <v>37</v>
+      </c>
+      <c r="AP76">
+        <v>50</v>
+      </c>
+      <c r="AQ76">
+        <v>600</v>
+      </c>
+      <c r="AR76">
+        <v>150</v>
+      </c>
+      <c r="AS76">
+        <v>500</v>
+      </c>
+      <c r="AT76">
+        <v>1850</v>
+      </c>
+      <c r="AU76">
+        <v>30</v>
+      </c>
+      <c r="AV76">
+        <v>111</v>
+      </c>
+      <c r="AW76">
+        <v>370</v>
+      </c>
+      <c r="AX76">
+        <v>510</v>
+      </c>
+      <c r="AY76">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>161</v>
+      </c>
+      <c r="L77">
+        <v>2.38</v>
+      </c>
+      <c r="M77">
+        <v>3.35</v>
+      </c>
+      <c r="N77">
+        <v>3.18</v>
+      </c>
+      <c r="O77" t="s">
+        <v>166</v>
+      </c>
+      <c r="P77" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q77">
+        <v>11</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>11</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>4</v>
+      </c>
+      <c r="V77">
+        <v>4</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>8</v>
+      </c>
+      <c r="Z77">
+        <v>2</v>
+      </c>
+      <c r="AA77">
+        <v>16</v>
+      </c>
+      <c r="AB77">
+        <v>14</v>
+      </c>
+      <c r="AC77">
+        <v>2</v>
+      </c>
+      <c r="AD77">
+        <v>10</v>
+      </c>
+      <c r="AE77">
+        <v>30</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ77">
+        <v>8</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM77">
+        <v>180</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>36</v>
+      </c>
+      <c r="AP77">
+        <v>80</v>
+      </c>
+      <c r="AQ77">
+        <v>1600</v>
+      </c>
+      <c r="AR77">
+        <v>160</v>
+      </c>
+      <c r="AS77">
+        <v>800</v>
+      </c>
+      <c r="AT77">
+        <v>2880</v>
+      </c>
+      <c r="AU77">
+        <v>20</v>
+      </c>
+      <c r="AV77">
+        <v>72</v>
+      </c>
+      <c r="AW77">
+        <v>360</v>
+      </c>
+      <c r="AX77">
+        <v>1800</v>
+      </c>
+      <c r="AY77">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>161</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>160</v>
+      </c>
+      <c r="L78">
+        <v>1.49</v>
+      </c>
+      <c r="M78">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="N78">
+        <v>6.14</v>
+      </c>
+      <c r="O78" t="s">
+        <v>164</v>
+      </c>
+      <c r="P78" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q78">
+        <v>12</v>
+      </c>
+      <c r="R78">
+        <v>8</v>
+      </c>
+      <c r="S78">
+        <v>17</v>
+      </c>
+      <c r="T78">
+        <v>4</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>4</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>5</v>
+      </c>
+      <c r="Z78">
+        <v>4</v>
+      </c>
+      <c r="AA78">
+        <v>7</v>
+      </c>
+      <c r="AB78">
+        <v>14</v>
+      </c>
+      <c r="AC78">
+        <v>4</v>
+      </c>
+      <c r="AD78">
+        <v>9</v>
+      </c>
+      <c r="AE78">
+        <v>21</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ78">
+        <v>4</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM78">
+        <v>226</v>
+      </c>
+      <c r="AN78">
+        <v>4</v>
+      </c>
+      <c r="AO78">
+        <v>183</v>
+      </c>
+      <c r="AP78">
+        <v>40</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>160</v>
+      </c>
+      <c r="AS78">
+        <v>360</v>
+      </c>
+      <c r="AT78">
+        <v>7320</v>
+      </c>
+      <c r="AU78">
+        <v>36</v>
+      </c>
+      <c r="AV78">
+        <v>732</v>
+      </c>
+      <c r="AW78">
+        <v>1647</v>
+      </c>
+      <c r="AX78">
+        <v>2034</v>
+      </c>
+      <c r="AY78">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D79" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79" t="s">
+        <v>159</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79" t="s">
+        <v>159</v>
+      </c>
+      <c r="L79">
+        <v>3.23</v>
+      </c>
+      <c r="M79">
+        <v>3.68</v>
+      </c>
+      <c r="N79">
+        <v>2.21</v>
+      </c>
+      <c r="O79" t="s">
+        <v>173</v>
+      </c>
+      <c r="P79" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q79">
+        <v>9</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>15</v>
+      </c>
+      <c r="T79">
+        <v>6</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>2</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>3</v>
+      </c>
+      <c r="AA79">
+        <v>8</v>
+      </c>
+      <c r="AB79">
+        <v>20</v>
+      </c>
+      <c r="AC79">
+        <v>3</v>
+      </c>
+      <c r="AD79">
+        <v>4</v>
+      </c>
+      <c r="AE79">
+        <v>28</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ79">
+        <v>3</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM79">
+        <v>40</v>
+      </c>
+      <c r="AN79">
+        <v>3</v>
+      </c>
+      <c r="AO79">
+        <v>27</v>
+      </c>
+      <c r="AP79">
+        <v>55</v>
+      </c>
+      <c r="AQ79">
+        <v>700</v>
+      </c>
+      <c r="AR79">
+        <v>165</v>
+      </c>
+      <c r="AS79">
+        <v>220</v>
+      </c>
+      <c r="AT79">
+        <v>1485</v>
+      </c>
+      <c r="AU79">
+        <v>12</v>
+      </c>
+      <c r="AV79">
+        <v>81</v>
+      </c>
+      <c r="AW79">
+        <v>108</v>
+      </c>
+      <c r="AX79">
+        <v>160</v>
+      </c>
+      <c r="AY79">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>160</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>161</v>
+      </c>
+      <c r="L80">
+        <v>3.35</v>
+      </c>
+      <c r="M80">
+        <v>3.5</v>
+      </c>
+      <c r="N80">
+        <v>2.23</v>
+      </c>
+      <c r="O80" t="s">
+        <v>165</v>
+      </c>
+      <c r="P80" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q80">
+        <v>17</v>
+      </c>
+      <c r="R80">
+        <v>9</v>
+      </c>
+      <c r="S80">
+        <v>11</v>
+      </c>
+      <c r="T80">
+        <v>5</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>6</v>
+      </c>
+      <c r="Z80">
+        <v>6</v>
+      </c>
+      <c r="AA80">
+        <v>16</v>
+      </c>
+      <c r="AB80">
+        <v>11</v>
+      </c>
+      <c r="AC80">
+        <v>3</v>
+      </c>
+      <c r="AD80">
+        <v>12</v>
+      </c>
+      <c r="AE80">
+        <v>27</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ80">
+        <v>7</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM80">
+        <v>155</v>
+      </c>
+      <c r="AN80">
+        <v>3</v>
+      </c>
+      <c r="AO80">
+        <v>89</v>
+      </c>
+      <c r="AP80">
+        <v>95</v>
+      </c>
+      <c r="AQ80">
+        <v>1500</v>
+      </c>
+      <c r="AR80">
+        <v>285</v>
+      </c>
+      <c r="AS80">
+        <v>1140</v>
+      </c>
+      <c r="AT80">
+        <v>8455</v>
+      </c>
+      <c r="AU80">
+        <v>36</v>
+      </c>
+      <c r="AV80">
+        <v>267</v>
+      </c>
+      <c r="AW80">
+        <v>1068</v>
+      </c>
+      <c r="AX80">
+        <v>1860</v>
+      </c>
+      <c r="AY80">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>160</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>160</v>
+      </c>
+      <c r="L81">
+        <v>1.88</v>
+      </c>
+      <c r="M81">
+        <v>3.69</v>
+      </c>
+      <c r="N81">
+        <v>4.33</v>
+      </c>
+      <c r="O81" t="s">
+        <v>164</v>
+      </c>
+      <c r="P81" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q81">
+        <v>9</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="S81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>6</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>5</v>
+      </c>
+      <c r="Z81">
+        <v>4</v>
+      </c>
+      <c r="AA81">
+        <v>15</v>
+      </c>
+      <c r="AB81">
+        <v>17</v>
+      </c>
+      <c r="AC81">
+        <v>4</v>
+      </c>
+      <c r="AD81">
+        <v>9</v>
+      </c>
+      <c r="AE81">
+        <v>32</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ81">
+        <v>5</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM81">
+        <v>147</v>
+      </c>
+      <c r="AN81">
+        <v>4</v>
+      </c>
+      <c r="AO81">
+        <v>42</v>
+      </c>
+      <c r="AP81">
+        <v>50</v>
+      </c>
+      <c r="AQ81">
+        <v>600</v>
+      </c>
+      <c r="AR81">
+        <v>200</v>
+      </c>
+      <c r="AS81">
+        <v>450</v>
+      </c>
+      <c r="AT81">
+        <v>2100</v>
+      </c>
+      <c r="AU81">
+        <v>36</v>
+      </c>
+      <c r="AV81">
+        <v>168</v>
+      </c>
+      <c r="AW81">
+        <v>378</v>
+      </c>
+      <c r="AX81">
+        <v>1323</v>
+      </c>
+      <c r="AY81">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82" t="s">
+        <v>159</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82" t="s">
+        <v>159</v>
+      </c>
+      <c r="L82">
+        <v>3.8</v>
+      </c>
+      <c r="M82">
+        <v>4.05</v>
+      </c>
+      <c r="N82">
+        <v>1.91</v>
+      </c>
+      <c r="O82" t="s">
+        <v>173</v>
+      </c>
+      <c r="P82" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>19</v>
+      </c>
+      <c r="T82">
+        <v>8</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>2</v>
+      </c>
+      <c r="AA82">
+        <v>4</v>
+      </c>
+      <c r="AB82">
+        <v>7</v>
+      </c>
+      <c r="AC82">
+        <v>3</v>
+      </c>
+      <c r="AD82">
+        <v>3</v>
+      </c>
+      <c r="AE82">
+        <v>11</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM82">
+        <v>76</v>
+      </c>
+      <c r="AN82">
+        <v>3</v>
+      </c>
+      <c r="AO82">
+        <v>120</v>
+      </c>
+      <c r="AP82">
+        <v>35</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>105</v>
+      </c>
+      <c r="AS82">
+        <v>105</v>
+      </c>
+      <c r="AT82">
+        <v>4200</v>
+      </c>
+      <c r="AU82">
+        <v>9</v>
+      </c>
+      <c r="AV82">
+        <v>360</v>
+      </c>
+      <c r="AW82">
+        <v>360</v>
+      </c>
+      <c r="AX82">
+        <v>228</v>
+      </c>
+      <c r="AY82">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>159</v>
+      </c>
+      <c r="L83">
+        <v>1.21</v>
+      </c>
+      <c r="M83">
+        <v>7.49</v>
+      </c>
+      <c r="N83">
+        <v>12.84</v>
+      </c>
+      <c r="O83" t="s">
+        <v>162</v>
+      </c>
+      <c r="P83" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q83">
+        <v>11</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>10</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>4</v>
+      </c>
+      <c r="Z83">
+        <v>4</v>
+      </c>
+      <c r="AA83">
+        <v>16</v>
+      </c>
+      <c r="AB83">
+        <v>12</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>8</v>
+      </c>
+      <c r="AE83">
+        <v>28</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ83">
+        <v>2</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM83">
+        <v>29</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>6</v>
+      </c>
+      <c r="AP83">
+        <v>20</v>
+      </c>
+      <c r="AQ83">
+        <v>100</v>
+      </c>
+      <c r="AR83">
+        <v>20</v>
+      </c>
+      <c r="AS83">
+        <v>160</v>
+      </c>
+      <c r="AT83">
+        <f>AO83*AP83</f>
+        <v>120</v>
+      </c>
+      <c r="AU83">
+        <v>8</v>
+      </c>
+      <c r="AV83">
+        <f>AN83*AO83</f>
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <f>AO83*AD83</f>
+        <v>48</v>
+      </c>
+      <c r="AX83">
+        <f>AM83*AD83</f>
+        <v>232</v>
+      </c>
+      <c r="AY83">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D84" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" t="s">
+        <v>151</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>161</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>160</v>
+      </c>
+      <c r="L84">
+        <v>2.25</v>
+      </c>
+      <c r="M84">
+        <v>3.69</v>
+      </c>
+      <c r="N84">
+        <v>3.2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>164</v>
+      </c>
+      <c r="P84" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q84">
+        <v>14</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>14</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>4</v>
+      </c>
+      <c r="Z84">
+        <v>9</v>
+      </c>
+      <c r="AA84">
+        <v>12</v>
+      </c>
+      <c r="AB84">
+        <v>10</v>
+      </c>
+      <c r="AC84">
+        <v>2</v>
+      </c>
+      <c r="AD84">
+        <v>13</v>
+      </c>
+      <c r="AE84">
+        <v>22</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ84">
+        <v>4</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM84">
+        <v>107</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+      <c r="AO84">
+        <v>20</v>
+      </c>
+      <c r="AP84">
+        <v>40</v>
+      </c>
+      <c r="AQ84">
+        <v>300</v>
+      </c>
+      <c r="AR84">
+        <v>80</v>
+      </c>
+      <c r="AS84">
+        <v>520</v>
+      </c>
+      <c r="AT84">
+        <f t="shared" ref="AT84:AT91" si="0">AO84*AP84</f>
+        <v>800</v>
+      </c>
+      <c r="AU84">
+        <v>26</v>
+      </c>
+      <c r="AV84">
+        <f t="shared" ref="AV84:AV91" si="1">AN84*AO84</f>
+        <v>40</v>
+      </c>
+      <c r="AW84">
+        <f t="shared" ref="AW84:AW91" si="2">AO84*AD84</f>
+        <v>260</v>
+      </c>
+      <c r="AX84">
+        <f t="shared" ref="AX84:AX91" si="3">AM84*AD84</f>
+        <v>1391</v>
+      </c>
+      <c r="AY84">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D85" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>160</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>160</v>
+      </c>
+      <c r="L85">
+        <v>1.43</v>
+      </c>
+      <c r="M85">
+        <v>5.01</v>
+      </c>
+      <c r="N85">
+        <v>7.21</v>
+      </c>
+      <c r="O85" t="s">
+        <v>164</v>
+      </c>
+      <c r="P85" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q85">
+        <v>18</v>
+      </c>
+      <c r="R85">
+        <v>8</v>
+      </c>
+      <c r="S85">
+        <v>13</v>
+      </c>
+      <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>5</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+      <c r="Y85">
+        <v>7</v>
+      </c>
+      <c r="Z85">
+        <v>4</v>
+      </c>
+      <c r="AA85">
+        <v>3</v>
+      </c>
+      <c r="AB85">
+        <v>20</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>11</v>
+      </c>
+      <c r="AE85">
+        <v>23</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ85">
+        <v>6</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM85">
+        <v>4</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>10</v>
+      </c>
+      <c r="AP85">
+        <v>85</v>
+      </c>
+      <c r="AQ85">
+        <v>750</v>
+      </c>
+      <c r="AR85">
+        <v>85</v>
+      </c>
+      <c r="AS85">
+        <v>935</v>
+      </c>
+      <c r="AT85">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="AU85">
+        <v>11</v>
+      </c>
+      <c r="AV85">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AW85">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="AX85">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AY85">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D86" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>159</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>159</v>
+      </c>
+      <c r="L86">
+        <v>2.71</v>
+      </c>
+      <c r="M86">
+        <v>3.17</v>
+      </c>
+      <c r="N86">
+        <v>2.87</v>
+      </c>
+      <c r="O86" t="s">
+        <v>162</v>
+      </c>
+      <c r="P86" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q86">
+        <v>16</v>
+      </c>
+      <c r="R86">
+        <v>6</v>
+      </c>
+      <c r="S86">
+        <v>12</v>
+      </c>
+      <c r="T86">
+        <v>3</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>2</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>6</v>
+      </c>
+      <c r="Z86">
+        <v>2</v>
+      </c>
+      <c r="AA86">
+        <v>9</v>
+      </c>
+      <c r="AB86">
+        <v>4</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>8</v>
+      </c>
+      <c r="AE86">
+        <v>13</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM86">
+        <v>42</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>29</v>
+      </c>
+      <c r="AP86">
+        <v>20</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>20</v>
+      </c>
+      <c r="AS86">
+        <v>160</v>
+      </c>
+      <c r="AT86">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="AU86">
+        <v>8</v>
+      </c>
+      <c r="AV86">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AW86">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="AX86">
+        <f t="shared" si="3"/>
+        <v>336</v>
+      </c>
+      <c r="AY86">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D87" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>160</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>161</v>
+      </c>
+      <c r="L87">
+        <v>3.76</v>
+      </c>
+      <c r="M87">
+        <v>3.82</v>
+      </c>
+      <c r="N87">
+        <v>1.97</v>
+      </c>
+      <c r="O87" t="s">
+        <v>166</v>
+      </c>
+      <c r="P87" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q87">
+        <v>13</v>
+      </c>
+      <c r="R87">
+        <v>3</v>
+      </c>
+      <c r="S87">
+        <v>9</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>2</v>
+      </c>
+      <c r="Z87">
+        <v>3</v>
+      </c>
+      <c r="AA87">
+        <v>9</v>
+      </c>
+      <c r="AB87">
+        <v>4</v>
+      </c>
+      <c r="AC87">
+        <v>2</v>
+      </c>
+      <c r="AD87">
+        <v>5</v>
+      </c>
+      <c r="AE87">
+        <v>13</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ87">
+        <v>3</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM87">
+        <v>129</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>12</v>
+      </c>
+      <c r="AP87">
+        <v>30</v>
+      </c>
+      <c r="AQ87">
+        <v>200</v>
+      </c>
+      <c r="AR87">
+        <v>60</v>
+      </c>
+      <c r="AS87">
+        <v>150</v>
+      </c>
+      <c r="AT87">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="AU87">
+        <v>10</v>
+      </c>
+      <c r="AV87">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AW87">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AX87">
+        <f t="shared" si="3"/>
+        <v>645</v>
+      </c>
+      <c r="AY87">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45599</v>
+      </c>
+      <c r="D88" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>160</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>161</v>
+      </c>
+      <c r="L88">
+        <v>2.12</v>
+      </c>
+      <c r="M88">
+        <v>3.52</v>
+      </c>
+      <c r="N88">
+        <v>3.6</v>
+      </c>
+      <c r="O88" t="s">
+        <v>166</v>
+      </c>
+      <c r="P88" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q88">
+        <v>13</v>
+      </c>
+      <c r="R88">
+        <v>6</v>
+      </c>
+      <c r="S88">
+        <v>13</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>6</v>
+      </c>
+      <c r="Z88">
+        <v>7</v>
+      </c>
+      <c r="AA88">
+        <v>16</v>
+      </c>
+      <c r="AB88">
+        <v>15</v>
+      </c>
+      <c r="AC88">
+        <v>1</v>
+      </c>
+      <c r="AD88">
+        <v>13</v>
+      </c>
+      <c r="AE88">
+        <v>31</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ88">
+        <v>3</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM88">
+        <v>84</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>7</v>
+      </c>
+      <c r="AP88">
+        <v>30</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>30</v>
+      </c>
+      <c r="AS88">
+        <v>390</v>
+      </c>
+      <c r="AT88">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="AU88">
+        <v>13</v>
+      </c>
+      <c r="AV88">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="AX88">
+        <f t="shared" si="3"/>
+        <v>1092</v>
+      </c>
+      <c r="AY88">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45599</v>
+      </c>
+      <c r="D89" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>160</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>160</v>
+      </c>
+      <c r="L89">
+        <v>3.51</v>
+      </c>
+      <c r="M89">
+        <v>3.59</v>
+      </c>
+      <c r="N89">
+        <v>2.13</v>
+      </c>
+      <c r="O89" t="s">
+        <v>167</v>
+      </c>
+      <c r="P89" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q89">
+        <v>16</v>
+      </c>
+      <c r="R89">
+        <v>8</v>
+      </c>
+      <c r="S89">
+        <v>7</v>
+      </c>
+      <c r="T89">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>2</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>3</v>
+      </c>
+      <c r="Z89">
+        <v>8</v>
+      </c>
+      <c r="AA89">
+        <v>11</v>
+      </c>
+      <c r="AB89">
+        <v>15</v>
+      </c>
+      <c r="AC89">
+        <v>4</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>26</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM89">
+        <v>221</v>
+      </c>
+      <c r="AN89">
+        <v>4</v>
+      </c>
+      <c r="AO89">
+        <v>82</v>
+      </c>
+      <c r="AP89">
+        <v>20</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>80</v>
+      </c>
+      <c r="AS89">
+        <v>220</v>
+      </c>
+      <c r="AT89">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="AU89">
+        <v>44</v>
+      </c>
+      <c r="AV89">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="AW89">
+        <f t="shared" si="2"/>
+        <v>902</v>
+      </c>
+      <c r="AX89">
+        <f t="shared" si="3"/>
+        <v>2431</v>
+      </c>
+      <c r="AY89">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45599</v>
+      </c>
+      <c r="D90" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>160</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>161</v>
+      </c>
+      <c r="L90">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="M90">
+        <v>3.37</v>
+      </c>
+      <c r="N90">
+        <v>3.37</v>
+      </c>
+      <c r="O90" t="s">
+        <v>166</v>
+      </c>
+      <c r="P90" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q90">
+        <v>12</v>
+      </c>
+      <c r="R90">
+        <v>4</v>
+      </c>
+      <c r="S90">
+        <v>15</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>2</v>
+      </c>
+      <c r="Z90">
+        <v>10</v>
+      </c>
+      <c r="AA90">
+        <v>11</v>
+      </c>
+      <c r="AB90">
+        <v>13</v>
+      </c>
+      <c r="AC90">
+        <v>1</v>
+      </c>
+      <c r="AD90">
+        <v>12</v>
+      </c>
+      <c r="AE90">
+        <v>24</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ90">
+        <v>3</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM90">
+        <v>73</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
+        <v>94</v>
+      </c>
+      <c r="AP90">
+        <v>30</v>
+      </c>
+      <c r="AQ90">
+        <v>200</v>
+      </c>
+      <c r="AR90">
+        <v>30</v>
+      </c>
+      <c r="AS90">
+        <v>360</v>
+      </c>
+      <c r="AT90">
+        <f t="shared" si="0"/>
+        <v>2820</v>
+      </c>
+      <c r="AU90">
+        <v>12</v>
+      </c>
+      <c r="AV90">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="AW90">
+        <f t="shared" si="2"/>
+        <v>1128</v>
+      </c>
+      <c r="AX90">
+        <f t="shared" si="3"/>
+        <v>876</v>
+      </c>
+      <c r="AY90">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45599</v>
+      </c>
+      <c r="D91" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" t="s">
+        <v>158</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>159</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>161</v>
+      </c>
+      <c r="L91">
+        <v>3.74</v>
+      </c>
+      <c r="M91">
+        <v>3.5</v>
+      </c>
+      <c r="N91">
+        <v>2.08</v>
+      </c>
+      <c r="O91" t="s">
+        <v>165</v>
+      </c>
+      <c r="P91" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q91">
+        <v>7</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>9</v>
+      </c>
+      <c r="T91">
+        <v>4</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>2</v>
+      </c>
+      <c r="Z91">
+        <v>5</v>
+      </c>
+      <c r="AA91">
+        <v>16</v>
+      </c>
+      <c r="AB91">
+        <v>6</v>
+      </c>
+      <c r="AC91">
+        <v>3</v>
+      </c>
+      <c r="AD91">
+        <v>7</v>
+      </c>
+      <c r="AE91">
+        <v>22</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ91">
+        <v>2</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM91">
+        <v>85</v>
+      </c>
+      <c r="AN91">
+        <v>3</v>
+      </c>
+      <c r="AO91">
+        <v>28</v>
+      </c>
+      <c r="AP91">
+        <v>20</v>
+      </c>
+      <c r="AQ91">
+        <v>100</v>
+      </c>
+      <c r="AR91">
+        <v>60</v>
+      </c>
+      <c r="AS91">
+        <v>140</v>
+      </c>
+      <c r="AT91">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="AU91">
+        <v>21</v>
+      </c>
+      <c r="AV91">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="AW91">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="AX91">
+        <f t="shared" si="3"/>
+        <v>595</v>
+      </c>
+      <c r="AY91">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/F1_spread.xlsx
+++ b/F1_spread.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19EEF59-896C-4069-B3D8-A7B042CD0A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA684B31-4C60-44A1-872A-3C3C473C9CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="354">
   <si>
     <t>Div</t>
   </si>
@@ -423,31 +423,58 @@
     <t>81</t>
   </si>
   <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>1304</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>1306</t>
-  </si>
-  <si>
-    <t>1307</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1411</t>
   </si>
   <si>
     <t>F1</t>
@@ -552,6 +579,9 @@
     <t>0-3</t>
   </si>
   <si>
+    <t>0-4</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
@@ -585,12 +615,12 @@
     <t>4-2</t>
   </si>
   <si>
-    <t>0-4</t>
-  </si>
-  <si>
     <t>0-5</t>
   </si>
   <si>
+    <t>2-4</t>
+  </si>
+  <si>
     <t>2-8</t>
   </si>
   <si>
@@ -624,9 +654,6 @@
     <t>0-6</t>
   </si>
   <si>
-    <t>2-4</t>
-  </si>
-  <si>
     <t>5-2</t>
   </si>
   <si>
@@ -747,6 +774,21 @@
     <t>2-10</t>
   </si>
   <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -1021,6 +1063,33 @@
   </si>
   <si>
     <t>Nantes-Marseille</t>
+  </si>
+  <si>
+    <t>Marseille-Auxerre</t>
+  </si>
+  <si>
+    <t>Strasbourg-Monaco</t>
+  </si>
+  <si>
+    <t>Lens-Nantes</t>
+  </si>
+  <si>
+    <t>Angers-Paris SG</t>
+  </si>
+  <si>
+    <t>Nice-Lille</t>
+  </si>
+  <si>
+    <t>Le Havre-Reims</t>
+  </si>
+  <si>
+    <t>Montpellier-Brest</t>
+  </si>
+  <si>
+    <t>Rennes-Toulouse</t>
+  </si>
+  <si>
+    <t>Lyon-St Etienne</t>
   </si>
 </sst>
 </file>
@@ -1376,60 +1445,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY91"/>
+  <dimension ref="A1:AY100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Z62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AA77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO92" sqref="AO92"/>
+      <selection pane="bottomRight" activeCell="AO101" sqref="AO101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -1589,16 +1659,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1">
         <v>45520</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1607,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1616,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L2">
         <v>7.84</v>
@@ -1628,10 +1698,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1679,16 +1749,16 @@
         <v>18</v>
       </c>
       <c r="AF2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AG2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1697,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AM2">
         <v>312</v>
@@ -1744,16 +1814,16 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1">
         <v>45521</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1762,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1771,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L3">
         <v>2.96</v>
@@ -1783,10 +1853,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1834,16 +1904,16 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="AG3" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH3" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI3" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1852,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AM3">
         <v>222</v>
@@ -1899,16 +1969,16 @@
         <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1">
         <v>45521</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1917,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1926,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L4">
         <v>3.36</v>
@@ -1938,10 +2008,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1989,16 +2059,16 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AG4" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ4">
         <v>4</v>
@@ -2007,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="AL4" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="AM4">
         <v>135</v>
@@ -2054,16 +2124,16 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1">
         <v>45521</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2072,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2081,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L5">
         <v>1.51</v>
@@ -2093,10 +2163,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>13</v>
@@ -2144,16 +2214,16 @@
         <v>27</v>
       </c>
       <c r="AF5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG5" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH5" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI5" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ5">
         <v>2</v>
@@ -2162,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="AM5">
         <v>29</v>
@@ -2209,16 +2279,16 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1">
         <v>45522</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2227,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2236,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L6">
         <v>3.22</v>
@@ -2248,10 +2318,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>16</v>
@@ -2299,16 +2369,16 @@
         <v>28</v>
       </c>
       <c r="AF6" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AG6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2317,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="AM6">
         <v>154</v>
@@ -2364,16 +2434,16 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1">
         <v>45522</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2382,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2391,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L7">
         <v>5.66</v>
@@ -2403,10 +2473,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2454,16 +2524,16 @@
         <v>16</v>
       </c>
       <c r="AF7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AG7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2472,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="AM7">
         <v>28</v>
@@ -2519,16 +2589,16 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1">
         <v>45522</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2537,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2546,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L8">
         <v>2.12</v>
@@ -2558,10 +2628,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2609,16 +2679,16 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG8" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH8" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI8" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ8">
         <v>7</v>
@@ -2627,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AM8">
         <v>125</v>
@@ -2674,16 +2744,16 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1">
         <v>45522</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2692,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2701,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L9">
         <v>2.11</v>
@@ -2713,10 +2783,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2764,16 +2834,16 @@
         <v>18</v>
       </c>
       <c r="AF9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AG9" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH9" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI9" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ9">
         <v>4</v>
@@ -2782,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -2829,16 +2899,16 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1">
         <v>45522</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2847,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2856,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L10">
         <v>2.4700000000000002</v>
@@ -2868,10 +2938,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>22</v>
@@ -2919,16 +2989,16 @@
         <v>25</v>
       </c>
       <c r="AF10" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AG10" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH10" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI10" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ10">
         <v>3</v>
@@ -2937,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="AM10">
         <v>130</v>
@@ -2984,16 +3054,16 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1">
         <v>45527</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -3002,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -3011,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L11">
         <v>1.25</v>
@@ -3023,10 +3093,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>21</v>
@@ -3074,16 +3144,16 @@
         <v>25</v>
       </c>
       <c r="AF11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AG11" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH11" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI11" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ11">
         <v>5</v>
@@ -3092,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="AM11">
         <v>281</v>
@@ -3139,16 +3209,16 @@
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1">
         <v>45528</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3157,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3166,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L12">
         <v>2.62</v>
@@ -3178,10 +3248,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3229,16 +3299,16 @@
         <v>17</v>
       </c>
       <c r="AF12" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="AG12" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH12" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI12" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -3247,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="AM12">
         <v>145</v>
@@ -3294,16 +3364,16 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1">
         <v>45528</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -3312,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3321,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L13">
         <v>1.33</v>
@@ -3333,10 +3403,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -3384,16 +3454,16 @@
         <v>26</v>
       </c>
       <c r="AF13" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AG13" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH13" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI13" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ13">
         <v>3</v>
@@ -3402,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="AM13">
         <v>124</v>
@@ -3449,16 +3519,16 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C14" s="1">
         <v>45528</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3467,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3476,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L14">
         <v>2.11</v>
@@ -3488,10 +3558,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3539,16 +3609,16 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG14" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH14" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI14" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ14">
         <v>6</v>
@@ -3557,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="AM14">
         <v>124</v>
@@ -3604,16 +3674,16 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1">
         <v>45529</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3622,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3631,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L15">
         <v>1.81</v>
@@ -3643,10 +3713,10 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="O15" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>22</v>
@@ -3694,16 +3764,16 @@
         <v>14</v>
       </c>
       <c r="AF15" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AG15" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH15" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI15" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -3712,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="AL15" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="AM15">
         <v>64</v>
@@ -3759,16 +3829,16 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C16" s="1">
         <v>45529</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3777,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3786,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L16">
         <v>2.25</v>
@@ -3798,10 +3868,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -3849,16 +3919,16 @@
         <v>15</v>
       </c>
       <c r="AF16" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AG16" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH16" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI16" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -3867,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="AM16">
         <v>104</v>
@@ -3914,16 +3984,16 @@
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1">
         <v>45529</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3932,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -3941,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L17">
         <v>1.88</v>
@@ -3953,10 +4023,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4004,16 +4074,16 @@
         <v>32</v>
       </c>
       <c r="AF17" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH17" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI17" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ17">
         <v>5</v>
@@ -4022,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="AM17">
         <v>126</v>
@@ -4069,16 +4139,16 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1">
         <v>45529</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -4087,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4096,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L18">
         <v>3.19</v>
@@ -4108,10 +4178,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="O18" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4159,16 +4229,16 @@
         <v>26</v>
       </c>
       <c r="AF18" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH18" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI18" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ18">
         <v>6</v>
@@ -4177,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AM18">
         <v>215</v>
@@ -4224,16 +4294,16 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C19" s="1">
         <v>45529</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4242,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4251,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L19">
         <v>1.56</v>
@@ -4263,10 +4333,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>16</v>
@@ -4314,16 +4384,16 @@
         <v>23</v>
       </c>
       <c r="AF19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH19" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI19" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ19">
         <v>2</v>
@@ -4332,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AM19">
         <v>202</v>
@@ -4379,16 +4449,16 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C20" s="1">
         <v>45534</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -4397,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4406,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L20">
         <v>1.89</v>
@@ -4418,10 +4488,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>22</v>
@@ -4469,16 +4539,16 @@
         <v>16</v>
       </c>
       <c r="AF20" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH20" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI20" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ20">
         <v>5</v>
@@ -4487,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AM20">
         <v>350</v>
@@ -4534,16 +4604,16 @@
         <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1">
         <v>45535</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4552,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -4561,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L21">
         <v>1.85</v>
@@ -4573,10 +4643,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -4624,16 +4694,16 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH21" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI21" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ21">
         <v>5</v>
@@ -4642,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="AM21">
         <v>203</v>
@@ -4689,16 +4759,16 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1">
         <v>45535</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4707,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4716,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L22">
         <v>2.35</v>
@@ -4728,10 +4798,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -4779,16 +4849,16 @@
         <v>24</v>
       </c>
       <c r="AF22" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH22" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI22" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ22">
         <v>4</v>
@@ -4797,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AM22">
         <v>184</v>
@@ -4844,16 +4914,16 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1">
         <v>45535</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4862,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4871,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L23">
         <v>4.09</v>
@@ -4883,10 +4953,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -4934,16 +5004,16 @@
         <v>22</v>
       </c>
       <c r="AF23" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH23" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI23" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ23">
         <v>6</v>
@@ -4952,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AM23">
         <v>175</v>
@@ -4999,16 +5069,16 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1">
         <v>45536</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5017,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5026,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L24">
         <v>1.83</v>
@@ -5038,10 +5108,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -5089,16 +5159,16 @@
         <v>32</v>
       </c>
       <c r="AF24" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH24" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI24" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ24">
         <v>5</v>
@@ -5107,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AM24">
         <v>174</v>
@@ -5154,16 +5224,16 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1">
         <v>45536</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5172,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5181,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L25">
         <v>4.2</v>
@@ -5193,10 +5263,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="O25" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -5244,16 +5314,16 @@
         <v>27</v>
       </c>
       <c r="AF25" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH25" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI25" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ25">
         <v>10</v>
@@ -5262,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AM25">
         <v>255</v>
@@ -5309,16 +5379,16 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1">
         <v>45536</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5327,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -5336,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L26">
         <v>2.81</v>
@@ -5348,10 +5418,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>21</v>
@@ -5399,16 +5469,16 @@
         <v>25</v>
       </c>
       <c r="AF26" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH26" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI26" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ26">
         <v>6</v>
@@ -5417,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="AL26" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="AM26">
         <v>182</v>
@@ -5464,16 +5534,16 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C27" s="1">
         <v>45536</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -5482,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5491,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L27">
         <v>2.94</v>
@@ -5503,10 +5573,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -5554,16 +5624,16 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AG27" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH27" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI27" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ27">
         <v>3</v>
@@ -5572,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="AM27">
         <v>102</v>
@@ -5619,16 +5689,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C28" s="1">
         <v>45536</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5637,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5646,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L28">
         <v>4.3099999999999996</v>
@@ -5658,10 +5728,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -5709,16 +5779,16 @@
         <v>12</v>
       </c>
       <c r="AF28" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH28" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI28" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ28">
         <v>5</v>
@@ -5727,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="AM28">
         <v>237</v>
@@ -5774,16 +5844,16 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1">
         <v>45548</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5792,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5801,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L29">
         <v>5.22</v>
@@ -5813,10 +5883,10 @@
         <v>1.72</v>
       </c>
       <c r="O29" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -5864,16 +5934,16 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH29" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI29" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ29">
         <v>2</v>
@@ -5882,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AM29">
         <v>6</v>
@@ -5929,16 +5999,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1">
         <v>45549</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5947,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5956,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L30">
         <v>1.75</v>
@@ -5968,10 +6038,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="O30" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>10</v>
@@ -6019,16 +6089,16 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG30" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH30" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI30" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ30">
         <v>7</v>
@@ -6037,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="AL30" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="AM30">
         <v>93</v>
@@ -6084,16 +6154,16 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1">
         <v>45549</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -6102,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6111,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L31">
         <v>4.0199999999999996</v>
@@ -6123,10 +6193,10 @@
         <v>1.89</v>
       </c>
       <c r="O31" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -6174,16 +6244,16 @@
         <v>29</v>
       </c>
       <c r="AF31" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AG31" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH31" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI31" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ31">
         <v>3</v>
@@ -6192,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="AM31">
         <v>122</v>
@@ -6239,16 +6309,16 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C32" s="1">
         <v>45549</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -6257,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -6266,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L32">
         <v>1.28</v>
@@ -6278,10 +6348,10 @@
         <v>9.59</v>
       </c>
       <c r="O32" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>22</v>
@@ -6329,16 +6399,16 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH32" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI32" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ32">
         <v>5</v>
@@ -6347,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AM32">
         <v>218</v>
@@ -6394,16 +6464,16 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1">
         <v>45550</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -6412,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -6421,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L33">
         <v>1.63</v>
@@ -6433,10 +6503,10 @@
         <v>5.16</v>
       </c>
       <c r="O33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>11</v>
@@ -6484,16 +6554,16 @@
         <v>17</v>
       </c>
       <c r="AF33" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH33" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI33" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ33">
         <v>4</v>
@@ -6502,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AM33">
         <v>119</v>
@@ -6549,16 +6619,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1">
         <v>45550</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -6567,7 +6637,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6576,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L34">
         <v>2.4300000000000002</v>
@@ -6588,10 +6658,10 @@
         <v>3.03</v>
       </c>
       <c r="O34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>18</v>
@@ -6639,16 +6709,16 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AG34" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH34" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI34" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ34">
         <v>4</v>
@@ -6657,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="AM34">
         <v>152</v>
@@ -6704,16 +6774,16 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1">
         <v>45550</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6722,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6731,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L35">
         <v>1.69</v>
@@ -6743,10 +6813,10 @@
         <v>5.31</v>
       </c>
       <c r="O35" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>10</v>
@@ -6794,16 +6864,16 @@
         <v>25</v>
       </c>
       <c r="AF35" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AG35" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH35" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI35" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ35">
         <v>5</v>
@@ -6812,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AM35">
         <v>93</v>
@@ -6859,16 +6929,16 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1">
         <v>45550</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -6877,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -6886,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L36">
         <v>1.85</v>
@@ -6898,10 +6968,10 @@
         <v>4.37</v>
       </c>
       <c r="O36" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>15</v>
@@ -6949,16 +7019,16 @@
         <v>21</v>
       </c>
       <c r="AF36" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AG36" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH36" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI36" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ36">
         <v>2</v>
@@ -6967,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AM36">
         <v>156</v>
@@ -7014,16 +7084,16 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1">
         <v>45550</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -7032,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -7041,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L37">
         <v>1.86</v>
@@ -7053,10 +7123,10 @@
         <v>4.18</v>
       </c>
       <c r="O37" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>12</v>
@@ -7104,16 +7174,16 @@
         <v>23</v>
       </c>
       <c r="AF37" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AG37" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH37" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI37" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ37">
         <v>0</v>
@@ -7122,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -7169,16 +7239,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1">
         <v>45555</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -7187,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -7196,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L38">
         <v>1.55</v>
@@ -7208,10 +7278,10 @@
         <v>6.57</v>
       </c>
       <c r="O38" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>18</v>
@@ -7259,16 +7329,16 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AG38" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH38" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI38" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ38">
         <v>1</v>
@@ -7277,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AM38">
         <v>297</v>
@@ -7324,16 +7394,16 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1">
         <v>45556</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -7342,7 +7412,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -7351,7 +7421,7 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L39">
         <v>1.74</v>
@@ -7363,10 +7433,10 @@
         <v>4.93</v>
       </c>
       <c r="O39" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>15</v>
@@ -7414,16 +7484,16 @@
         <v>28</v>
       </c>
       <c r="AF39" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG39" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH39" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI39" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ39">
         <v>4</v>
@@ -7432,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AM39">
         <v>264</v>
@@ -7479,16 +7549,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1">
         <v>45556</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -7497,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -7506,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L40">
         <v>2.44</v>
@@ -7518,10 +7588,10 @@
         <v>3.09</v>
       </c>
       <c r="O40" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>11</v>
@@ -7569,16 +7639,16 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AG40" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH40" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI40" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ40">
         <v>6</v>
@@ -7587,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AM40">
         <v>114</v>
@@ -7634,16 +7704,16 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C41" s="1">
         <v>45556</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7652,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -7661,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L41">
         <v>6.91</v>
@@ -7673,10 +7743,10 @@
         <v>1.44</v>
       </c>
       <c r="O41" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -7724,16 +7794,16 @@
         <v>17</v>
       </c>
       <c r="AF41" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AG41" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH41" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI41" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ41">
         <v>3</v>
@@ -7742,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="AM41">
         <v>77</v>
@@ -7789,16 +7859,16 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C42" s="1">
         <v>45557</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -7807,7 +7877,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -7816,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L42">
         <v>1.38</v>
@@ -7828,10 +7898,10 @@
         <v>8.11</v>
       </c>
       <c r="O42" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>14</v>
@@ -7879,16 +7949,16 @@
         <v>27</v>
       </c>
       <c r="AF42" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG42" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH42" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI42" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ42">
         <v>4</v>
@@ -7897,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="AM42">
         <v>175</v>
@@ -7944,16 +8014,16 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1">
         <v>45557</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -7962,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -7971,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L43">
         <v>3.32</v>
@@ -7983,10 +8053,10 @@
         <v>2.39</v>
       </c>
       <c r="O43" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -8034,16 +8104,16 @@
         <v>29</v>
       </c>
       <c r="AF43" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH43" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI43" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ43">
         <v>5</v>
@@ -8052,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AM43">
         <v>42</v>
@@ -8099,16 +8169,16 @@
         <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C44" s="1">
         <v>45557</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -8117,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8126,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L44">
         <v>2.16</v>
@@ -8138,10 +8208,10 @@
         <v>3.44</v>
       </c>
       <c r="O44" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -8189,16 +8259,16 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AG44" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH44" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI44" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ44">
         <v>2</v>
@@ -8207,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="AM44">
         <v>111</v>
@@ -8254,16 +8324,16 @@
         <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C45" s="1">
         <v>45557</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -8272,7 +8342,7 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -8281,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L45">
         <v>2.39</v>
@@ -8293,10 +8363,10 @@
         <v>3.14</v>
       </c>
       <c r="O45" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>14</v>
@@ -8344,16 +8414,16 @@
         <v>33</v>
       </c>
       <c r="AF45" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AG45" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH45" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI45" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ45">
         <v>7</v>
@@ -8362,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="AM45">
         <v>301</v>
@@ -8409,16 +8479,16 @@
         <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C46" s="1">
         <v>45557</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -8427,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -8436,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L46">
         <v>3.06</v>
@@ -8448,10 +8518,10 @@
         <v>2.21</v>
       </c>
       <c r="O46" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>18</v>
@@ -8499,16 +8569,16 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AG46" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH46" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI46" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ46">
         <v>7</v>
@@ -8517,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="AL46" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AM46">
         <v>384</v>
@@ -8564,16 +8634,16 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C47" s="1">
         <v>45562</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -8582,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -8591,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L47">
         <v>2.86</v>
@@ -8603,10 +8673,10 @@
         <v>2.62</v>
       </c>
       <c r="O47" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>15</v>
@@ -8654,16 +8724,16 @@
         <v>29</v>
       </c>
       <c r="AF47" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AG47" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH47" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI47" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ47">
         <v>2</v>
@@ -8672,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AM47">
         <v>122</v>
@@ -8719,16 +8789,16 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1">
         <v>45562</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -8737,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8746,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L48">
         <v>1.37</v>
@@ -8758,10 +8828,10 @@
         <v>8.67</v>
       </c>
       <c r="O48" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>22</v>
@@ -8809,16 +8879,16 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG48" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH48" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI48" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ48">
         <v>4</v>
@@ -8827,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="AM48">
         <v>231</v>
@@ -8874,16 +8944,16 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1">
         <v>45563</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -8892,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -8901,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L49">
         <v>2.08</v>
@@ -8913,10 +8983,10 @@
         <v>3.83</v>
       </c>
       <c r="O49" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>22</v>
@@ -8964,16 +9034,16 @@
         <v>23</v>
       </c>
       <c r="AF49" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AG49" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH49" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI49" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ49">
         <v>6</v>
@@ -8982,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="AL49" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -9029,16 +9099,16 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C50" s="1">
         <v>45563</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -9047,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -9056,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L50">
         <v>4.7</v>
@@ -9068,10 +9138,10 @@
         <v>1.81</v>
       </c>
       <c r="O50" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -9119,16 +9189,16 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AG50" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH50" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI50" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ50">
         <v>3</v>
@@ -9137,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="AM50">
         <v>137</v>
@@ -9184,16 +9254,16 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C51" s="1">
         <v>45563</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -9202,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -9211,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L51">
         <v>1.34</v>
@@ -9223,10 +9293,10 @@
         <v>8.48</v>
       </c>
       <c r="O51" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>21</v>
@@ -9274,16 +9344,16 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AG51" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH51" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI51" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ51">
         <v>7</v>
@@ -9292,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="AL51" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="AM51">
         <v>138</v>
@@ -9339,16 +9409,16 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1">
         <v>45564</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -9357,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -9366,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L52">
         <v>2.5</v>
@@ -9378,10 +9448,10 @@
         <v>2.85</v>
       </c>
       <c r="O52" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>10</v>
@@ -9429,16 +9499,16 @@
         <v>27</v>
       </c>
       <c r="AF52" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AG52" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH52" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI52" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ52">
         <v>4</v>
@@ -9447,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="AL52" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="AM52">
         <v>132</v>
@@ -9494,16 +9564,16 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C53" s="1">
         <v>45564</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -9512,7 +9582,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -9521,7 +9591,7 @@
         <v>2</v>
       </c>
       <c r="K53" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L53">
         <v>3.59</v>
@@ -9533,10 +9603,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="O53" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>14</v>
@@ -9584,16 +9654,16 @@
         <v>18</v>
       </c>
       <c r="AF53" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG53" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH53" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI53" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ53">
         <v>3</v>
@@ -9602,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="AL53" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="AM53">
         <v>197</v>
@@ -9649,16 +9719,16 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C54" s="1">
         <v>45564</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -9667,7 +9737,7 @@
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9676,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L54">
         <v>1.78</v>
@@ -9688,10 +9758,10 @@
         <v>4.92</v>
       </c>
       <c r="O54" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>16</v>
@@ -9739,16 +9809,16 @@
         <v>23</v>
       </c>
       <c r="AF54" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG54" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH54" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI54" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ54">
         <v>4</v>
@@ -9757,7 +9827,7 @@
         <v>1</v>
       </c>
       <c r="AL54" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AM54">
         <v>183</v>
@@ -9804,16 +9874,16 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C55" s="1">
         <v>45564</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -9822,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -9831,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L55">
         <v>3.56</v>
@@ -9843,10 +9913,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="O55" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>14</v>
@@ -9894,16 +9964,16 @@
         <v>24</v>
       </c>
       <c r="AF55" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AG55" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH55" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI55" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ55">
         <v>3</v>
@@ -9912,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="AM55">
         <v>40</v>
@@ -9959,16 +10029,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1">
         <v>45569</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -9977,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -9986,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L56">
         <v>1.24</v>
@@ -9998,10 +10068,10 @@
         <v>12.26</v>
       </c>
       <c r="O56" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>13</v>
@@ -10049,16 +10119,16 @@
         <v>21</v>
       </c>
       <c r="AF56" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AG56" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH56" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI56" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ56">
         <v>4</v>
@@ -10067,7 +10137,7 @@
         <v>2</v>
       </c>
       <c r="AL56" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AM56">
         <v>105</v>
@@ -10114,16 +10184,16 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C57" s="1">
         <v>45570</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -10132,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -10141,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L57">
         <v>2.79</v>
@@ -10153,10 +10223,10 @@
         <v>2.58</v>
       </c>
       <c r="O57" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -10204,16 +10274,16 @@
         <v>23</v>
       </c>
       <c r="AF57" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG57" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH57" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI57" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ57">
         <v>4</v>
@@ -10222,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AM57">
         <v>229</v>
@@ -10269,16 +10339,16 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C58" s="1">
         <v>45570</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -10287,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -10296,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L58">
         <v>1.75</v>
@@ -10308,10 +10378,10 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="O58" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -10359,16 +10429,16 @@
         <v>21</v>
       </c>
       <c r="AF58" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG58" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH58" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI58" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ58">
         <v>5</v>
@@ -10377,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="AM58">
         <v>168</v>
@@ -10424,16 +10494,16 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C59" s="1">
         <v>45570</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -10442,7 +10512,7 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -10451,7 +10521,7 @@
         <v>2</v>
       </c>
       <c r="K59" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L59">
         <v>2.75</v>
@@ -10463,10 +10533,10 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="O59" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>14</v>
@@ -10514,16 +10584,16 @@
         <v>25</v>
       </c>
       <c r="AF59" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AG59" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH59" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI59" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ59">
         <v>6</v>
@@ -10532,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="AL59" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="AM59">
         <v>39</v>
@@ -10579,16 +10649,16 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C60" s="1">
         <v>45571</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -10597,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -10606,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L60">
         <v>1.79</v>
@@ -10618,10 +10688,10 @@
         <v>4.43</v>
       </c>
       <c r="O60" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>17</v>
@@ -10669,16 +10739,16 @@
         <v>15</v>
       </c>
       <c r="AF60" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AG60" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH60" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI60" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ60">
         <v>3</v>
@@ -10687,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AM60">
         <v>76</v>
@@ -10734,16 +10804,16 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1">
         <v>45571</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -10752,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -10761,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L61">
         <v>1.83</v>
@@ -10773,10 +10843,10 @@
         <v>4.83</v>
       </c>
       <c r="O61" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -10824,16 +10894,16 @@
         <v>30</v>
       </c>
       <c r="AF61" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AG61" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH61" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI61" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ61">
         <v>4</v>
@@ -10842,7 +10912,7 @@
         <v>2</v>
       </c>
       <c r="AL61" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AM61">
         <v>102</v>
@@ -10889,16 +10959,16 @@
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C62" s="1">
         <v>45571</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -10907,7 +10977,7 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -10916,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L62">
         <v>1.81</v>
@@ -10928,10 +10998,10 @@
         <v>4.28</v>
       </c>
       <c r="O62" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>18</v>
@@ -10979,16 +11049,16 @@
         <v>28</v>
       </c>
       <c r="AF62" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG62" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH62" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI62" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ62">
         <v>8</v>
@@ -10997,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="AL62" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AM62">
         <v>305</v>
@@ -11044,16 +11114,16 @@
         <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C63" s="1">
         <v>45571</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -11062,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -11071,7 +11141,7 @@
         <v>2</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L63">
         <v>2.99</v>
@@ -11083,10 +11153,10 @@
         <v>2.44</v>
       </c>
       <c r="O63" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -11134,16 +11204,16 @@
         <v>33</v>
       </c>
       <c r="AF63" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AG63" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH63" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI63" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ63">
         <v>6</v>
@@ -11152,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="AM63">
         <v>127</v>
@@ -11199,16 +11269,16 @@
         <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1">
         <v>45571</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -11217,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -11226,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L64">
         <v>5.07</v>
@@ -11238,10 +11308,10 @@
         <v>1.69</v>
       </c>
       <c r="O64" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -11289,16 +11359,16 @@
         <v>16</v>
       </c>
       <c r="AF64" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AG64" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH64" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI64" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ64">
         <v>3</v>
@@ -11307,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="AL64" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="AM64">
         <v>91</v>
@@ -11354,16 +11424,16 @@
         <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C65" s="1">
         <v>45583</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -11372,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -11381,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L65">
         <v>1.94</v>
@@ -11393,10 +11463,10 @@
         <v>4.04</v>
       </c>
       <c r="O65" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P65" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -11444,16 +11514,16 @@
         <v>27</v>
       </c>
       <c r="AF65" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="AG65" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH65" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI65" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ65">
         <v>6</v>
@@ -11462,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="AL65" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AM65">
         <v>0</v>
@@ -11509,16 +11579,16 @@
         <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C66" s="1">
         <v>45584</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -11527,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -11536,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L66">
         <v>2.99</v>
@@ -11548,10 +11618,10 @@
         <v>2.58</v>
       </c>
       <c r="O66" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P66" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>12</v>
@@ -11599,16 +11669,16 @@
         <v>33</v>
       </c>
       <c r="AF66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG66" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH66" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI66" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ66">
         <v>4</v>
@@ -11617,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="AL66" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="AM66">
         <v>140</v>
@@ -11664,16 +11734,16 @@
         <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C67" s="1">
         <v>45584</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -11682,7 +11752,7 @@
         <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -11691,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L67">
         <v>5.3</v>
@@ -11703,10 +11773,10 @@
         <v>1.7</v>
       </c>
       <c r="O67" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>15</v>
@@ -11754,16 +11824,16 @@
         <v>28</v>
       </c>
       <c r="AF67" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AG67" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH67" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI67" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ67">
         <v>3</v>
@@ -11772,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="AL67" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="AM67">
         <v>99</v>
@@ -11819,16 +11889,16 @@
         <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C68" s="1">
         <v>45584</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F68">
         <v>4</v>
@@ -11837,7 +11907,7 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -11846,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L68">
         <v>1.26</v>
@@ -11858,10 +11928,10 @@
         <v>9.83</v>
       </c>
       <c r="O68" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>18</v>
@@ -11909,16 +11979,16 @@
         <v>22</v>
       </c>
       <c r="AF68" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AG68" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH68" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI68" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ68">
         <v>4</v>
@@ -11927,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="AL68" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="AM68">
         <v>369</v>
@@ -11974,16 +12044,16 @@
         <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C69" s="1">
         <v>45585</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -11992,7 +12062,7 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -12001,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L69">
         <v>3.88</v>
@@ -12013,10 +12083,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="O69" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -12064,16 +12134,16 @@
         <v>28</v>
       </c>
       <c r="AF69" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AG69" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH69" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI69" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ69">
         <v>7</v>
@@ -12082,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="AL69" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AM69">
         <v>247</v>
@@ -12129,16 +12199,16 @@
         <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C70" s="1">
         <v>45585</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -12147,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -12156,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L70">
         <v>2.78</v>
@@ -12168,10 +12238,10 @@
         <v>2.6</v>
       </c>
       <c r="O70" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P70" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>10</v>
@@ -12219,16 +12289,16 @@
         <v>16</v>
       </c>
       <c r="AF70" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AG70" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH70" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI70" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ70">
         <v>5</v>
@@ -12237,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="AL70" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AM70">
         <v>158</v>
@@ -12284,16 +12354,16 @@
         <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1">
         <v>45585</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E71" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -12302,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -12311,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L71">
         <v>3.26</v>
@@ -12323,10 +12393,10 @@
         <v>2.44</v>
       </c>
       <c r="O71" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P71" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -12374,16 +12444,16 @@
         <v>21</v>
       </c>
       <c r="AF71" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AG71" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH71" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI71" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ71">
         <v>3</v>
@@ -12392,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="AL71" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="AM71">
         <v>139</v>
@@ -12439,16 +12509,16 @@
         <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C72" s="1">
         <v>45585</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -12457,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -12466,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L72">
         <v>1.6</v>
@@ -12478,10 +12548,10 @@
         <v>6.24</v>
       </c>
       <c r="O72" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P72" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q72">
         <v>18</v>
@@ -12529,16 +12599,16 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AG72" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH72" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI72" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ72">
         <v>6</v>
@@ -12547,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AL72" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AM72">
         <v>69</v>
@@ -12594,16 +12664,16 @@
         <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C73" s="1">
         <v>45585</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -12612,7 +12682,7 @@
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -12621,7 +12691,7 @@
         <v>3</v>
       </c>
       <c r="K73" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L73">
         <v>4.37</v>
@@ -12633,10 +12703,10 @@
         <v>1.79</v>
       </c>
       <c r="O73" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -12684,16 +12754,16 @@
         <v>29</v>
       </c>
       <c r="AF73" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AG73" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH73" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI73" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ73">
         <v>4</v>
@@ -12702,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="AL73" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AM73">
         <v>208</v>
@@ -12749,16 +12819,16 @@
         <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C74" s="1">
         <v>45590</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -12767,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -12776,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L74">
         <v>1.49</v>
@@ -12788,10 +12858,10 @@
         <v>7.65</v>
       </c>
       <c r="O74" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P74" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q74">
         <v>20</v>
@@ -12839,16 +12909,16 @@
         <v>17</v>
       </c>
       <c r="AF74" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AG74" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH74" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI74" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ74">
         <v>6</v>
@@ -12857,7 +12927,7 @@
         <v>1</v>
       </c>
       <c r="AL74" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AM74">
         <v>54</v>
@@ -12904,16 +12974,16 @@
         <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C75" s="1">
         <v>45591</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F75">
         <v>4</v>
@@ -12922,7 +12992,7 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -12931,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L75">
         <v>2.48</v>
@@ -12943,10 +13013,10 @@
         <v>3.16</v>
       </c>
       <c r="O75" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>13</v>
@@ -12994,16 +13064,16 @@
         <v>23</v>
       </c>
       <c r="AF75" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AG75" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH75" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI75" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ75">
         <v>4</v>
@@ -13012,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="AL75" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="AM75">
         <v>278</v>
@@ -13059,16 +13129,16 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1">
         <v>45591</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -13077,7 +13147,7 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -13086,7 +13156,7 @@
         <v>2</v>
       </c>
       <c r="K76" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L76">
         <v>2.2000000000000002</v>
@@ -13098,10 +13168,10 @@
         <v>3.38</v>
       </c>
       <c r="O76" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="P76" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -13149,16 +13219,16 @@
         <v>26</v>
       </c>
       <c r="AF76" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AG76" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH76" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI76" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ76">
         <v>5</v>
@@ -13167,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="AL76" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AM76">
         <v>51</v>
@@ -13214,16 +13284,16 @@
         <v>125</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C77" s="1">
         <v>45591</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -13232,7 +13302,7 @@
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -13241,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L77">
         <v>2.38</v>
@@ -13253,10 +13323,10 @@
         <v>3.18</v>
       </c>
       <c r="O77" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P77" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q77">
         <v>11</v>
@@ -13304,16 +13374,16 @@
         <v>30</v>
       </c>
       <c r="AF77" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AG77" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH77" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI77" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ77">
         <v>8</v>
@@ -13322,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="AL77" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="AM77">
         <v>180</v>
@@ -13369,16 +13439,16 @@
         <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1">
         <v>45592</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -13387,7 +13457,7 @@
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -13396,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L78">
         <v>1.49</v>
@@ -13408,10 +13478,10 @@
         <v>6.14</v>
       </c>
       <c r="O78" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P78" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q78">
         <v>12</v>
@@ -13459,16 +13529,16 @@
         <v>21</v>
       </c>
       <c r="AF78" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG78" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH78" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI78" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ78">
         <v>4</v>
@@ -13477,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="AL78" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="AM78">
         <v>226</v>
@@ -13524,16 +13594,16 @@
         <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C79" s="1">
         <v>45592</v>
       </c>
       <c r="D79" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -13542,7 +13612,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -13551,7 +13621,7 @@
         <v>3</v>
       </c>
       <c r="K79" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L79">
         <v>3.23</v>
@@ -13563,10 +13633,10 @@
         <v>2.21</v>
       </c>
       <c r="O79" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P79" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -13614,16 +13684,16 @@
         <v>28</v>
       </c>
       <c r="AF79" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG79" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH79" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI79" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ79">
         <v>3</v>
@@ -13632,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="AL79" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="AM79">
         <v>40</v>
@@ -13679,16 +13749,16 @@
         <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C80" s="1">
         <v>45592</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -13697,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -13706,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L80">
         <v>3.35</v>
@@ -13718,10 +13788,10 @@
         <v>2.23</v>
       </c>
       <c r="O80" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P80" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q80">
         <v>17</v>
@@ -13769,16 +13839,16 @@
         <v>27</v>
       </c>
       <c r="AF80" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AG80" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH80" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI80" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ80">
         <v>7</v>
@@ -13787,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="AL80" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="AM80">
         <v>155</v>
@@ -13834,16 +13904,16 @@
         <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C81" s="1">
         <v>45592</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F81">
         <v>3</v>
@@ -13852,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -13861,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L81">
         <v>1.88</v>
@@ -13873,10 +13943,10 @@
         <v>4.33</v>
       </c>
       <c r="O81" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P81" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -13924,16 +13994,16 @@
         <v>32</v>
       </c>
       <c r="AF81" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG81" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH81" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI81" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ81">
         <v>5</v>
@@ -13942,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="AL81" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="AM81">
         <v>147</v>
@@ -13989,16 +14059,16 @@
         <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1">
         <v>45592</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -14007,7 +14077,7 @@
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -14016,7 +14086,7 @@
         <v>3</v>
       </c>
       <c r="K82" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L82">
         <v>3.8</v>
@@ -14028,10 +14098,10 @@
         <v>1.91</v>
       </c>
       <c r="O82" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="P82" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -14079,16 +14149,16 @@
         <v>11</v>
       </c>
       <c r="AF82" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG82" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH82" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI82" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ82">
         <v>1</v>
@@ -14097,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="AL82" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="AM82">
         <v>76</v>
@@ -14144,16 +14214,16 @@
         <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C83" s="1">
         <v>45597</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -14162,7 +14232,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -14171,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L83">
         <v>1.21</v>
@@ -14183,10 +14253,10 @@
         <v>12.84</v>
       </c>
       <c r="O83" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P83" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q83">
         <v>11</v>
@@ -14234,16 +14304,16 @@
         <v>28</v>
       </c>
       <c r="AF83" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG83" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH83" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI83" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ83">
         <v>2</v>
@@ -14252,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="AL83" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="AM83">
         <v>29</v>
@@ -14276,22 +14346,18 @@
         <v>160</v>
       </c>
       <c r="AT83">
-        <f>AO83*AP83</f>
         <v>120</v>
       </c>
       <c r="AU83">
         <v>8</v>
       </c>
       <c r="AV83">
-        <f>AN83*AO83</f>
         <v>6</v>
       </c>
       <c r="AW83">
-        <f>AO83*AD83</f>
         <v>48</v>
       </c>
       <c r="AX83">
-        <f>AM83*AD83</f>
         <v>232</v>
       </c>
       <c r="AY83">
@@ -14303,16 +14369,16 @@
         <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C84" s="1">
         <v>45597</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -14321,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -14330,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L84">
         <v>2.25</v>
@@ -14342,10 +14408,10 @@
         <v>3.2</v>
       </c>
       <c r="O84" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P84" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q84">
         <v>14</v>
@@ -14393,16 +14459,16 @@
         <v>22</v>
       </c>
       <c r="AF84" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AG84" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH84" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI84" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ84">
         <v>4</v>
@@ -14411,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="AL84" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="AM84">
         <v>107</v>
@@ -14435,22 +14501,18 @@
         <v>520</v>
       </c>
       <c r="AT84">
-        <f t="shared" ref="AT84:AT91" si="0">AO84*AP84</f>
         <v>800</v>
       </c>
       <c r="AU84">
         <v>26</v>
       </c>
       <c r="AV84">
-        <f t="shared" ref="AV84:AV91" si="1">AN84*AO84</f>
         <v>40</v>
       </c>
       <c r="AW84">
-        <f t="shared" ref="AW84:AW91" si="2">AO84*AD84</f>
         <v>260</v>
       </c>
       <c r="AX84">
-        <f t="shared" ref="AX84:AX91" si="3">AM84*AD84</f>
         <v>1391</v>
       </c>
       <c r="AY84">
@@ -14462,16 +14524,16 @@
         <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C85" s="1">
         <v>45598</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -14480,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -14489,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L85">
         <v>1.43</v>
@@ -14501,10 +14563,10 @@
         <v>7.21</v>
       </c>
       <c r="O85" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P85" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q85">
         <v>18</v>
@@ -14552,16 +14614,16 @@
         <v>23</v>
       </c>
       <c r="AF85" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG85" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH85" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI85" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ85">
         <v>6</v>
@@ -14570,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="AL85" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="AM85">
         <v>4</v>
@@ -14594,22 +14656,18 @@
         <v>935</v>
       </c>
       <c r="AT85">
-        <f t="shared" si="0"/>
         <v>850</v>
       </c>
       <c r="AU85">
         <v>11</v>
       </c>
       <c r="AV85">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AW85">
-        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="AX85">
-        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AY85">
@@ -14621,16 +14679,16 @@
         <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C86" s="1">
         <v>45598</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E86" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -14639,7 +14697,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -14648,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L86">
         <v>2.71</v>
@@ -14660,10 +14718,10 @@
         <v>2.87</v>
       </c>
       <c r="O86" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P86" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q86">
         <v>16</v>
@@ -14711,16 +14769,16 @@
         <v>13</v>
       </c>
       <c r="AF86" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AG86" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH86" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI86" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ86">
         <v>2</v>
@@ -14729,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="AL86" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AM86">
         <v>42</v>
@@ -14753,22 +14811,18 @@
         <v>160</v>
       </c>
       <c r="AT86">
-        <f t="shared" si="0"/>
         <v>580</v>
       </c>
       <c r="AU86">
         <v>8</v>
       </c>
       <c r="AV86">
-        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AW86">
-        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="AX86">
-        <f t="shared" si="3"/>
         <v>336</v>
       </c>
       <c r="AY86">
@@ -14780,16 +14834,16 @@
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C87" s="1">
         <v>45598</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -14798,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -14807,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L87">
         <v>3.76</v>
@@ -14819,10 +14873,10 @@
         <v>1.97</v>
       </c>
       <c r="O87" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q87">
         <v>13</v>
@@ -14870,16 +14924,16 @@
         <v>13</v>
       </c>
       <c r="AF87" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AG87" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH87" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI87" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ87">
         <v>3</v>
@@ -14888,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="AL87" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AM87">
         <v>129</v>
@@ -14912,22 +14966,18 @@
         <v>150</v>
       </c>
       <c r="AT87">
-        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="AU87">
         <v>10</v>
       </c>
       <c r="AV87">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AW87">
-        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AX87">
-        <f t="shared" si="3"/>
         <v>645</v>
       </c>
       <c r="AY87">
@@ -14939,16 +14989,16 @@
         <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C88" s="1">
         <v>45599</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -14957,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -14966,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L88">
         <v>2.12</v>
@@ -14978,10 +15028,10 @@
         <v>3.6</v>
       </c>
       <c r="O88" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P88" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -15029,16 +15079,16 @@
         <v>31</v>
       </c>
       <c r="AF88" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AG88" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH88" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI88" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ88">
         <v>3</v>
@@ -15047,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="AL88" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AM88">
         <v>84</v>
@@ -15071,22 +15121,18 @@
         <v>390</v>
       </c>
       <c r="AT88">
-        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="AU88">
         <v>13</v>
       </c>
       <c r="AV88">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AW88">
-        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="AX88">
-        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
       <c r="AY88">
@@ -15098,16 +15144,16 @@
         <v>137</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C89" s="1">
         <v>45599</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F89">
         <v>4</v>
@@ -15116,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -15125,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L89">
         <v>3.51</v>
@@ -15137,10 +15183,10 @@
         <v>2.13</v>
       </c>
       <c r="O89" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="P89" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q89">
         <v>16</v>
@@ -15188,16 +15234,16 @@
         <v>26</v>
       </c>
       <c r="AF89" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AG89" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH89" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI89" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AJ89">
         <v>2</v>
@@ -15206,7 +15252,7 @@
         <v>0</v>
       </c>
       <c r="AL89" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AM89">
         <v>221</v>
@@ -15230,22 +15276,18 @@
         <v>220</v>
       </c>
       <c r="AT89">
-        <f t="shared" si="0"/>
         <v>1640</v>
       </c>
       <c r="AU89">
         <v>44</v>
       </c>
       <c r="AV89">
-        <f t="shared" si="1"/>
         <v>328</v>
       </c>
       <c r="AW89">
-        <f t="shared" si="2"/>
         <v>902</v>
       </c>
       <c r="AX89">
-        <f t="shared" si="3"/>
         <v>2431</v>
       </c>
       <c r="AY89">
@@ -15257,16 +15299,16 @@
         <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C90" s="1">
         <v>45599</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -15275,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -15284,7 +15326,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L90">
         <v>2.2799999999999998</v>
@@ -15296,10 +15338,10 @@
         <v>3.37</v>
       </c>
       <c r="O90" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P90" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -15347,16 +15389,16 @@
         <v>24</v>
       </c>
       <c r="AF90" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG90" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AH90" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AI90" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ90">
         <v>3</v>
@@ -15365,7 +15407,7 @@
         <v>0</v>
       </c>
       <c r="AL90" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="AM90">
         <v>73</v>
@@ -15389,22 +15431,18 @@
         <v>360</v>
       </c>
       <c r="AT90">
-        <f t="shared" si="0"/>
         <v>2820</v>
       </c>
       <c r="AU90">
         <v>12</v>
       </c>
       <c r="AV90">
-        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="AW90">
-        <f t="shared" si="2"/>
         <v>1128</v>
       </c>
       <c r="AX90">
-        <f t="shared" si="3"/>
         <v>876</v>
       </c>
       <c r="AY90">
@@ -15416,16 +15454,16 @@
         <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C91" s="1">
         <v>45599</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -15434,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="H91" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -15443,7 +15481,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L91">
         <v>3.74</v>
@@ -15455,10 +15493,10 @@
         <v>2.08</v>
       </c>
       <c r="O91" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P91" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -15506,16 +15544,16 @@
         <v>22</v>
       </c>
       <c r="AF91" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AG91" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AH91" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AI91" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AJ91">
         <v>2</v>
@@ -15524,7 +15562,7 @@
         <v>0</v>
       </c>
       <c r="AL91" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="AM91">
         <v>85</v>
@@ -15548,26 +15586,1453 @@
         <v>140</v>
       </c>
       <c r="AT91">
-        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="AU91">
         <v>21</v>
       </c>
       <c r="AV91">
-        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="AW91">
-        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="AX91">
-        <f t="shared" si="3"/>
         <v>595</v>
       </c>
       <c r="AY91">
         <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D92" t="s">
+        <v>167</v>
+      </c>
+      <c r="E92" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>168</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92" t="s">
+        <v>168</v>
+      </c>
+      <c r="L92">
+        <v>1.4</v>
+      </c>
+      <c r="M92">
+        <v>5.34</v>
+      </c>
+      <c r="N92">
+        <v>7.52</v>
+      </c>
+      <c r="O92" t="s">
+        <v>182</v>
+      </c>
+      <c r="P92" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q92">
+        <v>19</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92">
+        <v>10</v>
+      </c>
+      <c r="T92">
+        <v>6</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>5</v>
+      </c>
+      <c r="Z92">
+        <v>3</v>
+      </c>
+      <c r="AA92">
+        <v>13</v>
+      </c>
+      <c r="AB92">
+        <v>16</v>
+      </c>
+      <c r="AC92">
+        <v>4</v>
+      </c>
+      <c r="AD92">
+        <v>8</v>
+      </c>
+      <c r="AE92">
+        <v>29</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ92">
+        <v>5</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM92">
+        <v>163</v>
+      </c>
+      <c r="AN92">
+        <v>4</v>
+      </c>
+      <c r="AO92">
+        <v>62</v>
+      </c>
+      <c r="AP92">
+        <v>50</v>
+      </c>
+      <c r="AQ92">
+        <v>600</v>
+      </c>
+      <c r="AR92">
+        <v>200</v>
+      </c>
+      <c r="AS92">
+        <v>400</v>
+      </c>
+      <c r="AT92">
+        <f>AO92*AP92</f>
+        <v>3100</v>
+      </c>
+      <c r="AU92">
+        <v>32</v>
+      </c>
+      <c r="AV92">
+        <f>AN92*AO92</f>
+        <v>248</v>
+      </c>
+      <c r="AW92">
+        <f>AO92*AD92</f>
+        <v>496</v>
+      </c>
+      <c r="AX92">
+        <f>AM92*AD92</f>
+        <v>1304</v>
+      </c>
+      <c r="AY92">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D93" t="s">
+        <v>166</v>
+      </c>
+      <c r="E93" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>168</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>169</v>
+      </c>
+      <c r="L93">
+        <v>3.69</v>
+      </c>
+      <c r="M93">
+        <v>3.65</v>
+      </c>
+      <c r="N93">
+        <v>2.04</v>
+      </c>
+      <c r="O93" t="s">
+        <v>173</v>
+      </c>
+      <c r="P93" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q93">
+        <v>5</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>19</v>
+      </c>
+      <c r="T93">
+        <v>8</v>
+      </c>
+      <c r="U93">
+        <v>5</v>
+      </c>
+      <c r="V93">
+        <v>2</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>1</v>
+      </c>
+      <c r="Z93">
+        <v>2</v>
+      </c>
+      <c r="AA93">
+        <v>16</v>
+      </c>
+      <c r="AB93">
+        <v>18</v>
+      </c>
+      <c r="AC93">
+        <v>4</v>
+      </c>
+      <c r="AD93">
+        <v>3</v>
+      </c>
+      <c r="AE93">
+        <v>34</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ93">
+        <v>7</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM93">
+        <v>287</v>
+      </c>
+      <c r="AN93">
+        <v>4</v>
+      </c>
+      <c r="AO93">
+        <v>57</v>
+      </c>
+      <c r="AP93">
+        <v>70</v>
+      </c>
+      <c r="AQ93">
+        <v>1000</v>
+      </c>
+      <c r="AR93">
+        <v>280</v>
+      </c>
+      <c r="AS93">
+        <v>210</v>
+      </c>
+      <c r="AT93">
+        <f t="shared" ref="AT93:AT100" si="0">AO93*AP93</f>
+        <v>3990</v>
+      </c>
+      <c r="AU93">
+        <v>12</v>
+      </c>
+      <c r="AV93">
+        <f t="shared" ref="AV93:AV100" si="1">AN93*AO93</f>
+        <v>228</v>
+      </c>
+      <c r="AW93">
+        <f t="shared" ref="AW93:AW100" si="2">AO93*AD93</f>
+        <v>171</v>
+      </c>
+      <c r="AX93">
+        <f t="shared" ref="AX93:AX100" si="3">AM93*AD93</f>
+        <v>861</v>
+      </c>
+      <c r="AY93">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D94" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>169</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>170</v>
+      </c>
+      <c r="L94">
+        <v>1.61</v>
+      </c>
+      <c r="M94">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N94">
+        <v>5.99</v>
+      </c>
+      <c r="O94" t="s">
+        <v>174</v>
+      </c>
+      <c r="P94" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q94">
+        <v>15</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>9</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>6</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+      <c r="AA94">
+        <v>14</v>
+      </c>
+      <c r="AB94">
+        <v>8</v>
+      </c>
+      <c r="AC94">
+        <v>5</v>
+      </c>
+      <c r="AD94">
+        <v>7</v>
+      </c>
+      <c r="AE94">
+        <v>22</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM94">
+        <v>304</v>
+      </c>
+      <c r="AN94">
+        <v>5</v>
+      </c>
+      <c r="AO94">
+        <v>102</v>
+      </c>
+      <c r="AP94">
+        <v>20</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>100</v>
+      </c>
+      <c r="AS94">
+        <v>140</v>
+      </c>
+      <c r="AT94">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AU94">
+        <v>35</v>
+      </c>
+      <c r="AV94">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="AW94">
+        <f t="shared" si="2"/>
+        <v>714</v>
+      </c>
+      <c r="AX94">
+        <f t="shared" si="3"/>
+        <v>2128</v>
+      </c>
+      <c r="AY94">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45605</v>
+      </c>
+      <c r="D95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="H95" t="s">
+        <v>168</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>4</v>
+      </c>
+      <c r="K95" t="s">
+        <v>168</v>
+      </c>
+      <c r="L95">
+        <v>11.51</v>
+      </c>
+      <c r="M95">
+        <v>6.59</v>
+      </c>
+      <c r="N95">
+        <v>1.24</v>
+      </c>
+      <c r="O95" t="s">
+        <v>183</v>
+      </c>
+      <c r="P95" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q95">
+        <v>10</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>26</v>
+      </c>
+      <c r="T95">
+        <v>12</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>6</v>
+      </c>
+      <c r="Z95">
+        <v>8</v>
+      </c>
+      <c r="AA95">
+        <v>5</v>
+      </c>
+      <c r="AB95">
+        <v>16</v>
+      </c>
+      <c r="AC95">
+        <v>6</v>
+      </c>
+      <c r="AD95">
+        <v>14</v>
+      </c>
+      <c r="AE95">
+        <v>21</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ95">
+        <v>3</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM95">
+        <v>293</v>
+      </c>
+      <c r="AN95">
+        <v>6</v>
+      </c>
+      <c r="AO95">
+        <v>139</v>
+      </c>
+      <c r="AP95">
+        <v>30</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
+      <c r="AR95">
+        <v>180</v>
+      </c>
+      <c r="AS95">
+        <v>420</v>
+      </c>
+      <c r="AT95">
+        <f t="shared" si="0"/>
+        <v>4170</v>
+      </c>
+      <c r="AU95">
+        <v>84</v>
+      </c>
+      <c r="AV95">
+        <f t="shared" si="1"/>
+        <v>834</v>
+      </c>
+      <c r="AW95">
+        <f t="shared" si="2"/>
+        <v>1946</v>
+      </c>
+      <c r="AX95">
+        <f t="shared" si="3"/>
+        <v>4102</v>
+      </c>
+      <c r="AY95">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D96" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" t="s">
+        <v>161</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>170</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>168</v>
+      </c>
+      <c r="L96">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M96">
+        <v>3.26</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>171</v>
+      </c>
+      <c r="P96" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q96">
+        <v>17</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>13</v>
+      </c>
+      <c r="T96">
+        <v>6</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
+        <v>2</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>6</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+      <c r="AA96">
+        <v>12</v>
+      </c>
+      <c r="AB96">
+        <v>9</v>
+      </c>
+      <c r="AC96">
+        <v>4</v>
+      </c>
+      <c r="AD96">
+        <v>8</v>
+      </c>
+      <c r="AE96">
+        <v>21</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ96">
+        <v>4</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM96">
+        <v>229</v>
+      </c>
+      <c r="AN96">
+        <v>4</v>
+      </c>
+      <c r="AO96">
+        <v>69</v>
+      </c>
+      <c r="AP96">
+        <v>40</v>
+      </c>
+      <c r="AQ96">
+        <v>400</v>
+      </c>
+      <c r="AR96">
+        <v>160</v>
+      </c>
+      <c r="AS96">
+        <v>320</v>
+      </c>
+      <c r="AT96">
+        <f t="shared" si="0"/>
+        <v>2760</v>
+      </c>
+      <c r="AU96">
+        <v>32</v>
+      </c>
+      <c r="AV96">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="AW96">
+        <f t="shared" si="2"/>
+        <v>552</v>
+      </c>
+      <c r="AX96">
+        <f t="shared" si="3"/>
+        <v>1832</v>
+      </c>
+      <c r="AY96">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D97" t="s">
+        <v>150</v>
+      </c>
+      <c r="E97" t="s">
+        <v>152</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>168</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97" t="s">
+        <v>168</v>
+      </c>
+      <c r="L97">
+        <v>3.43</v>
+      </c>
+      <c r="M97">
+        <v>3.23</v>
+      </c>
+      <c r="N97">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O97" t="s">
+        <v>178</v>
+      </c>
+      <c r="P97" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q97">
+        <v>10</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>18</v>
+      </c>
+      <c r="T97">
+        <v>7</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>4</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>8</v>
+      </c>
+      <c r="Z97">
+        <v>7</v>
+      </c>
+      <c r="AA97">
+        <v>10</v>
+      </c>
+      <c r="AB97">
+        <v>17</v>
+      </c>
+      <c r="AC97">
+        <v>3</v>
+      </c>
+      <c r="AD97">
+        <v>15</v>
+      </c>
+      <c r="AE97">
+        <v>27</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ97">
+        <v>5</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM97">
+        <v>93</v>
+      </c>
+      <c r="AN97">
+        <v>3</v>
+      </c>
+      <c r="AO97">
+        <v>46</v>
+      </c>
+      <c r="AP97">
+        <v>50</v>
+      </c>
+      <c r="AQ97">
+        <v>400</v>
+      </c>
+      <c r="AR97">
+        <v>150</v>
+      </c>
+      <c r="AS97">
+        <v>750</v>
+      </c>
+      <c r="AT97">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="AU97">
+        <v>45</v>
+      </c>
+      <c r="AV97">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="AW97">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+      <c r="AX97">
+        <f t="shared" si="3"/>
+        <v>1395</v>
+      </c>
+      <c r="AY97">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D98" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" t="s">
+        <v>151</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>169</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>169</v>
+      </c>
+      <c r="L98">
+        <v>3.41</v>
+      </c>
+      <c r="M98">
+        <v>3.49</v>
+      </c>
+      <c r="N98">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O98" t="s">
+        <v>176</v>
+      </c>
+      <c r="P98" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q98">
+        <v>14</v>
+      </c>
+      <c r="R98">
+        <v>8</v>
+      </c>
+      <c r="S98">
+        <v>19</v>
+      </c>
+      <c r="T98">
+        <v>6</v>
+      </c>
+      <c r="U98">
+        <v>5</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>3</v>
+      </c>
+      <c r="Z98">
+        <v>7</v>
+      </c>
+      <c r="AA98">
+        <v>18</v>
+      </c>
+      <c r="AB98">
+        <v>13</v>
+      </c>
+      <c r="AC98">
+        <v>4</v>
+      </c>
+      <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
+        <v>31</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ98">
+        <v>6</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM98">
+        <v>152</v>
+      </c>
+      <c r="AN98">
+        <v>4</v>
+      </c>
+      <c r="AO98">
+        <v>105</v>
+      </c>
+      <c r="AP98">
+        <v>60</v>
+      </c>
+      <c r="AQ98">
+        <v>500</v>
+      </c>
+      <c r="AR98">
+        <v>240</v>
+      </c>
+      <c r="AS98">
+        <v>600</v>
+      </c>
+      <c r="AT98">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="AU98">
+        <v>40</v>
+      </c>
+      <c r="AV98">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="AW98">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="AX98">
+        <f t="shared" si="3"/>
+        <v>1520</v>
+      </c>
+      <c r="AY98">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D99" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>168</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99" t="s">
+        <v>168</v>
+      </c>
+      <c r="L99">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M99">
+        <v>3.37</v>
+      </c>
+      <c r="N99">
+        <v>3.44</v>
+      </c>
+      <c r="O99" t="s">
+        <v>178</v>
+      </c>
+      <c r="P99" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q99">
+        <v>7</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>9</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>5</v>
+      </c>
+      <c r="Z99">
+        <v>3</v>
+      </c>
+      <c r="AA99">
+        <v>16</v>
+      </c>
+      <c r="AB99">
+        <v>16</v>
+      </c>
+      <c r="AC99">
+        <v>2</v>
+      </c>
+      <c r="AD99">
+        <v>8</v>
+      </c>
+      <c r="AE99">
+        <v>32</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ99">
+        <v>4</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM99">
+        <v>37</v>
+      </c>
+      <c r="AN99">
+        <v>2</v>
+      </c>
+      <c r="AO99">
+        <v>28</v>
+      </c>
+      <c r="AP99">
+        <v>40</v>
+      </c>
+      <c r="AQ99">
+        <v>300</v>
+      </c>
+      <c r="AR99">
+        <v>80</v>
+      </c>
+      <c r="AS99">
+        <v>320</v>
+      </c>
+      <c r="AT99">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="AU99">
+        <v>16</v>
+      </c>
+      <c r="AV99">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="AW99">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="AX99">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="AY99">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45606</v>
+      </c>
+      <c r="D100" t="s">
+        <v>160</v>
+      </c>
+      <c r="E100" t="s">
+        <v>162</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>169</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>169</v>
+      </c>
+      <c r="L100">
+        <v>1.36</v>
+      </c>
+      <c r="M100">
+        <v>5.74</v>
+      </c>
+      <c r="N100">
+        <v>7.8</v>
+      </c>
+      <c r="O100" t="s">
+        <v>173</v>
+      </c>
+      <c r="P100" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q100">
+        <v>17</v>
+      </c>
+      <c r="R100">
+        <v>7</v>
+      </c>
+      <c r="S100">
+        <v>10</v>
+      </c>
+      <c r="T100">
+        <v>6</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100">
+        <v>2</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>7</v>
+      </c>
+      <c r="Z100">
+        <v>6</v>
+      </c>
+      <c r="AA100">
+        <v>11</v>
+      </c>
+      <c r="AB100">
+        <v>13</v>
+      </c>
+      <c r="AC100">
+        <v>1</v>
+      </c>
+      <c r="AD100">
+        <v>13</v>
+      </c>
+      <c r="AE100">
+        <v>24</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ100">
+        <v>5</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM100">
+        <v>29</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
+        <v>10</v>
+      </c>
+      <c r="AP100">
+        <v>50</v>
+      </c>
+      <c r="AQ100">
+        <v>600</v>
+      </c>
+      <c r="AR100">
+        <v>50</v>
+      </c>
+      <c r="AS100">
+        <v>650</v>
+      </c>
+      <c r="AT100">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AU100">
+        <v>13</v>
+      </c>
+      <c r="AV100">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AW100">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="AX100">
+        <f t="shared" si="3"/>
+        <v>377</v>
+      </c>
+      <c r="AY100">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
